--- a/girlsFull.xlsx
+++ b/girlsFull.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S821"/>
+  <dimension ref="A1:T821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Shot</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Direccion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -549,7 +554,11 @@
           <t>1-t1.jpg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -612,6 +621,11 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -632,7 +646,11 @@
           <t>1-t2.jpg</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>hot</t>
@@ -695,6 +713,11 @@
           <t>stand-takearm.jpg</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -715,7 +738,11 @@
           <t>1-t3.jpg</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
@@ -766,6 +793,11 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -786,7 +818,11 @@
           <t>1-t4.jpg</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
@@ -845,6 +881,11 @@
           <t>front-medium-arms2.webp</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -865,7 +906,11 @@
           <t>11-t1.jpg</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
@@ -928,6 +973,11 @@
           <t>17.webp</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\11-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -948,7 +998,11 @@
           <t>11-t2.jpg</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -1007,6 +1061,11 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\11-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1027,7 +1086,11 @@
           <t>11-t3.jpg</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -1094,6 +1157,11 @@
           <t>chest.jpg</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\11-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1114,7 +1182,11 @@
           <t>11-t4.jpg</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -1161,6 +1233,11 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\11-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1181,7 +1258,11 @@
           <t>13-t1.jpg</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -1244,6 +1325,11 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\13-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1264,7 +1350,11 @@
           <t>13-t2.jpg</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -1315,6 +1405,11 @@
           <t>dancing.jpg</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\13-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1335,7 +1430,11 @@
           <t>13-t3.jpg</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -1402,6 +1501,11 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\13-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1422,7 +1526,11 @@
           <t>13-t4.jpg</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
@@ -1481,6 +1589,11 @@
           <t>stand-untilknee.jpg</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\13-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1501,7 +1614,11 @@
           <t>14-t1.jfif</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>hot</t>
@@ -1564,6 +1681,11 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\14-t1.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1584,7 +1706,11 @@
           <t>14-t2.jfif</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>hot</t>
@@ -1651,6 +1777,7 @@
           <t>3quarters-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1734,6 +1861,7 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1809,6 +1937,7 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1888,6 +2017,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1979,6 +2109,7 @@
           <t>front-mediumshot8.jpg</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2062,6 +2193,7 @@
           <t>stand-handhead.jpg</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2141,6 +2273,7 @@
           <t>handsup.jpg</t>
         </is>
       </c>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2220,6 +2353,7 @@
           <t>stand-far.jpg</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2303,6 +2437,7 @@
           <t>double.jpg</t>
         </is>
       </c>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2390,6 +2525,7 @@
           <t>front-mediumshot.png</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2465,6 +2601,7 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2540,6 +2677,7 @@
           <t>mouth-open.webp</t>
         </is>
       </c>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2623,6 +2761,7 @@
           <t>straight.jpg</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2706,6 +2845,7 @@
           <t>3quarters-mediumshot1.jpg</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2789,6 +2929,7 @@
           <t>front-medium-arms.jpg</t>
         </is>
       </c>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2868,6 +3009,7 @@
           <t>chest.jpg</t>
         </is>
       </c>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2959,6 +3101,7 @@
           <t>profile-mediumshot.webp</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3042,6 +3185,7 @@
           <t>legscrossed.jpg</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3125,6 +3269,7 @@
           <t>lie.jpg</t>
         </is>
       </c>
+      <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3208,6 +3353,7 @@
           <t>near-face.jpg</t>
         </is>
       </c>
+      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3287,6 +3433,7 @@
           <t>pop.png</t>
         </is>
       </c>
+      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3370,6 +3517,7 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
+      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3453,6 +3601,7 @@
           <t>front-fullshot1.png</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3536,6 +3685,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3611,6 +3761,7 @@
           <t>legscrossed.jpg</t>
         </is>
       </c>
+      <c r="T39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3694,6 +3845,7 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
+      <c r="T40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3773,6 +3925,7 @@
           <t>front-americanshot.jpg</t>
         </is>
       </c>
+      <c r="T41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3856,6 +4009,7 @@
           <t>dancing.jpg</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3931,6 +4085,7 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4014,6 +4169,7 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4093,6 +4249,7 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
+      <c r="T45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4180,6 +4337,7 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4259,6 +4417,7 @@
           <t>front-mediumshot.png</t>
         </is>
       </c>
+      <c r="T47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4338,6 +4497,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4421,6 +4581,7 @@
           <t>3quarters-arms-up.jpg</t>
         </is>
       </c>
+      <c r="T49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4500,6 +4661,7 @@
           <t>superhero.jpeg</t>
         </is>
       </c>
+      <c r="T50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4583,6 +4745,7 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
+      <c r="T51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4658,6 +4821,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4741,6 +4905,7 @@
           <t>stand-stretch.jpg</t>
         </is>
       </c>
+      <c r="T53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4828,6 +4993,7 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
+      <c r="T54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4907,6 +5073,7 @@
           <t>flying-pointing.jpg</t>
         </is>
       </c>
+      <c r="T55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4990,6 +5157,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5069,6 +5237,7 @@
           <t>arms-shoulder.jpg</t>
         </is>
       </c>
+      <c r="T57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5144,6 +5313,7 @@
           <t>profile-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5211,6 +5381,7 @@
           <t>stand-armscrossed.jpg</t>
         </is>
       </c>
+      <c r="T59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5286,6 +5457,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5369,6 +5541,7 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
+      <c r="T61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5452,6 +5625,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5531,6 +5705,7 @@
           <t>pose.jpg</t>
         </is>
       </c>
+      <c r="T63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5618,6 +5793,7 @@
           <t>group.jpg</t>
         </is>
       </c>
+      <c r="T64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5701,6 +5877,7 @@
           <t>olympian.jpg</t>
         </is>
       </c>
+      <c r="T65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5780,6 +5957,7 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
+      <c r="T66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5855,6 +6033,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5934,6 +6113,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6009,6 +6189,7 @@
           <t>stretch.jpg</t>
         </is>
       </c>
+      <c r="T69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6088,6 +6269,7 @@
           <t>stand-handhead.jpg</t>
         </is>
       </c>
+      <c r="T70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6175,6 +6357,7 @@
           <t>pop.png</t>
         </is>
       </c>
+      <c r="T71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6266,6 +6449,7 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6349,6 +6533,7 @@
           <t>squat.jpg</t>
         </is>
       </c>
+      <c r="T73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6428,6 +6613,7 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
+      <c r="T74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6515,6 +6701,7 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6594,6 +6781,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6681,6 +6869,7 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
+      <c r="T77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6756,6 +6945,7 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
+      <c r="T78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6835,6 +7025,7 @@
           <t>dancing.jpg</t>
         </is>
       </c>
+      <c r="T79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6914,6 +7105,7 @@
           <t>3quarters-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6993,6 +7185,7 @@
           <t>3quarters-mediumshotdown.jfif</t>
         </is>
       </c>
+      <c r="T81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7022,6 +7215,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7109,6 +7303,7 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
+      <c r="T83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7188,6 +7383,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7271,6 +7467,7 @@
           <t>handup.jpg</t>
         </is>
       </c>
+      <c r="T85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7358,6 +7555,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7433,6 +7631,7 @@
           <t>group.jpg</t>
         </is>
       </c>
+      <c r="T87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7520,6 +7719,7 @@
           <t>stand-profile.jpg</t>
         </is>
       </c>
+      <c r="T88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7603,6 +7803,7 @@
           <t>duck-handup.jpg</t>
         </is>
       </c>
+      <c r="T89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7666,6 +7867,7 @@
           <t>stand-profile.jpg</t>
         </is>
       </c>
+      <c r="T90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7745,6 +7947,7 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7824,6 +8027,7 @@
           <t>arm-up.jpg</t>
         </is>
       </c>
+      <c r="T92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7903,6 +8107,7 @@
           <t>front-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7970,6 +8175,7 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
+      <c r="T94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8053,6 +8259,7 @@
           <t>stretch.jpg</t>
         </is>
       </c>
+      <c r="T95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8140,6 +8347,7 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8223,6 +8431,7 @@
           <t>3quarters-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8302,6 +8511,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8377,6 +8587,7 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
+      <c r="T99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8456,6 +8667,7 @@
           <t>stand-profile.jpg</t>
         </is>
       </c>
+      <c r="T100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8543,6 +8755,7 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
+      <c r="T101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8626,6 +8839,7 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8709,6 +8923,7 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8788,6 +9003,7 @@
           <t>front-mediumshot.png</t>
         </is>
       </c>
+      <c r="T104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8871,6 +9087,7 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
+      <c r="T105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8954,6 +9171,7 @@
           <t>handup.jpg</t>
         </is>
       </c>
+      <c r="T106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9037,6 +9255,7 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
+      <c r="T107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9120,6 +9339,7 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
+      <c r="T108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9187,6 +9407,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9262,6 +9483,7 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9345,6 +9567,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9428,6 +9651,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9507,6 +9731,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9586,6 +9811,7 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9661,6 +9887,7 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
+      <c r="T115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9736,6 +9963,7 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
+      <c r="T116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9819,6 +10047,7 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
+      <c r="T117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9902,6 +10131,7 @@
           <t>3quarters-mediumshotdown.jfif</t>
         </is>
       </c>
+      <c r="T118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9981,6 +10211,7 @@
           <t>pop.png</t>
         </is>
       </c>
+      <c r="T119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10064,6 +10295,7 @@
           <t>stretch.jpg</t>
         </is>
       </c>
+      <c r="T120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10147,6 +10379,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10230,6 +10463,7 @@
           <t>stand.webp</t>
         </is>
       </c>
+      <c r="T122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10313,6 +10547,7 @@
           <t>3q-stand.jpg</t>
         </is>
       </c>
+      <c r="T123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10396,6 +10631,7 @@
           <t>pose.jpg</t>
         </is>
       </c>
+      <c r="T124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10479,6 +10715,7 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
+      <c r="T125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10566,6 +10803,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10641,6 +10879,7 @@
           <t>arm-up.jpg</t>
         </is>
       </c>
+      <c r="T127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10724,6 +10963,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10803,6 +11043,7 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
+      <c r="T129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10890,6 +11131,7 @@
           <t>front-mediumshotdown2.png</t>
         </is>
       </c>
+      <c r="T130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10973,6 +11215,7 @@
           <t>front-medium-arms.jpg</t>
         </is>
       </c>
+      <c r="T131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11060,6 +11303,7 @@
           <t>3quarters-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11147,6 +11391,7 @@
           <t>17.webp</t>
         </is>
       </c>
+      <c r="T133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11226,6 +11471,7 @@
           <t>front.webp</t>
         </is>
       </c>
+      <c r="T134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11301,6 +11547,7 @@
           <t>spread.jpg</t>
         </is>
       </c>
+      <c r="T135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11376,6 +11623,7 @@
           <t>group.jpg</t>
         </is>
       </c>
+      <c r="T136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11459,6 +11707,7 @@
           <t>stand-legsopen.jpg</t>
         </is>
       </c>
+      <c r="T137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11534,6 +11783,7 @@
           <t>front-fullshot1.png</t>
         </is>
       </c>
+      <c r="T138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11617,6 +11867,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11696,6 +11947,7 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
+      <c r="T140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11783,6 +12035,7 @@
           <t>stand-takearm.jpg</t>
         </is>
       </c>
+      <c r="T141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11866,6 +12119,7 @@
           <t>front-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11941,6 +12195,7 @@
           <t>flying-pointing.jpg</t>
         </is>
       </c>
+      <c r="T143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12024,6 +12279,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12099,6 +12355,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12186,6 +12443,7 @@
           <t>front-medium-arms2.webp</t>
         </is>
       </c>
+      <c r="T146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12265,6 +12523,7 @@
           <t>handup.jpg</t>
         </is>
       </c>
+      <c r="T147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12344,6 +12603,7 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
+      <c r="T148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12427,6 +12687,7 @@
           <t>stand-far.jpg</t>
         </is>
       </c>
+      <c r="T149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12502,6 +12763,7 @@
           <t>3quarters-mediumshot1.jpg</t>
         </is>
       </c>
+      <c r="T150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12585,6 +12847,7 @@
           <t>stand.webp</t>
         </is>
       </c>
+      <c r="T151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12656,6 +12919,7 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
+      <c r="T152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12731,6 +12995,7 @@
           <t>spread.jpg</t>
         </is>
       </c>
+      <c r="T153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12818,6 +13083,7 @@
           <t>lie.jpg</t>
         </is>
       </c>
+      <c r="T154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12901,6 +13167,7 @@
           <t>front-medium-arms.jpg</t>
         </is>
       </c>
+      <c r="T155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12980,6 +13247,7 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
+      <c r="T156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -13059,6 +13327,7 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
+      <c r="T157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13134,6 +13403,7 @@
           <t>handup.jpg</t>
         </is>
       </c>
+      <c r="T158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13217,6 +13487,7 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -13300,6 +13571,7 @@
           <t>standing.jpg</t>
         </is>
       </c>
+      <c r="T160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -13383,6 +13655,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13466,6 +13739,7 @@
           <t>stand-look.jpg</t>
         </is>
       </c>
+      <c r="T162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13545,6 +13819,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13624,6 +13899,7 @@
           <t>dancing.jpg</t>
         </is>
       </c>
+      <c r="T164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13703,6 +13979,7 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
+      <c r="T165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13778,6 +14055,7 @@
           <t>handinchest.jpg</t>
         </is>
       </c>
+      <c r="T166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13857,6 +14135,7 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -13936,6 +14215,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -14019,6 +14299,7 @@
           <t>3quarters-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -14098,6 +14379,7 @@
           <t>stand-profile.jpg</t>
         </is>
       </c>
+      <c r="T170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -14177,6 +14459,7 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
+      <c r="T171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -14260,6 +14543,7 @@
           <t>superhero.jpeg</t>
         </is>
       </c>
+      <c r="T172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -14343,6 +14627,7 @@
           <t>hand-peacelove.jfif</t>
         </is>
       </c>
+      <c r="T173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -14422,6 +14707,7 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14509,6 +14795,7 @@
           <t>3quarters-fullshot.webp</t>
         </is>
       </c>
+      <c r="T175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14588,6 +14875,7 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
+      <c r="T176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14659,6 +14947,7 @@
           <t>dancing.jpg</t>
         </is>
       </c>
+      <c r="T177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14738,6 +15027,7 @@
           <t>squat-handup.webp</t>
         </is>
       </c>
+      <c r="T178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14813,6 +15103,7 @@
           <t>3q-stand.jpg</t>
         </is>
       </c>
+      <c r="T179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14892,6 +15183,7 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
+      <c r="T180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -14979,6 +15271,7 @@
           <t>stand-stretch.jpg</t>
         </is>
       </c>
+      <c r="T181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -15058,6 +15351,7 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
+      <c r="T182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -15133,6 +15427,7 @@
           <t>profile-mediumshot.webp</t>
         </is>
       </c>
+      <c r="T183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -15212,6 +15507,7 @@
           <t>wow.webp</t>
         </is>
       </c>
+      <c r="T184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -15291,6 +15587,7 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -15370,6 +15667,7 @@
           <t>profile-smile.jfif</t>
         </is>
       </c>
+      <c r="T186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -15449,6 +15747,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15536,6 +15835,7 @@
           <t>stand-takearm.jpg</t>
         </is>
       </c>
+      <c r="T188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15619,6 +15919,7 @@
           <t>spread.jpg</t>
         </is>
       </c>
+      <c r="T189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15698,6 +15999,7 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15773,6 +16075,7 @@
           <t>stand-untilknee.jpg</t>
         </is>
       </c>
+      <c r="T191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15844,6 +16147,7 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
+      <c r="T192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -15919,6 +16223,7 @@
           <t>3q-stand.jpg</t>
         </is>
       </c>
+      <c r="T193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -16002,6 +16307,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -16085,6 +16391,7 @@
           <t>3quarters-fullshot.webp</t>
         </is>
       </c>
+      <c r="T195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -16156,6 +16463,7 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
+      <c r="T196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -16243,6 +16551,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -16322,6 +16631,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -16409,6 +16719,7 @@
           <t>front-fullshot1.png</t>
         </is>
       </c>
+      <c r="T199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -16500,6 +16811,7 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -16583,6 +16895,7 @@
           <t>back.jpg</t>
         </is>
       </c>
+      <c r="T201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -16666,6 +16979,7 @@
           <t>stand-far.jpg</t>
         </is>
       </c>
+      <c r="T202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -16749,6 +17063,7 @@
           <t>stand.jfif</t>
         </is>
       </c>
+      <c r="T203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -16824,6 +17139,7 @@
           <t>profile-mediumshot.webp</t>
         </is>
       </c>
+      <c r="T204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -16899,6 +17215,7 @@
           <t>front-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -16934,6 +17251,7 @@
       <c r="Q206" t="inlineStr"/>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -17009,6 +17327,7 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -17088,6 +17407,7 @@
           <t>standing.jpg</t>
         </is>
       </c>
+      <c r="T208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -17163,6 +17483,7 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
+      <c r="T209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -17246,6 +17567,7 @@
           <t>stand-stretch.jpg</t>
         </is>
       </c>
+      <c r="T210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -17325,6 +17647,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -17404,6 +17727,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -17483,6 +17807,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -17518,6 +17843,7 @@
       <c r="Q214" t="inlineStr"/>
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -17609,6 +17935,7 @@
           <t>stand-look.jpg</t>
         </is>
       </c>
+      <c r="T215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -17696,6 +18023,7 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -17779,6 +18107,7 @@
           <t>stand-handhead.jpg</t>
         </is>
       </c>
+      <c r="T217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -17854,6 +18183,7 @@
           <t>pop.png</t>
         </is>
       </c>
+      <c r="T218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -17933,6 +18263,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -18016,6 +18347,7 @@
           <t>near-face.jpg</t>
         </is>
       </c>
+      <c r="T220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -18091,6 +18423,7 @@
           <t>stand-legsopen.jpg</t>
         </is>
       </c>
+      <c r="T221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -18170,6 +18503,7 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -18253,6 +18587,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -18332,6 +18667,7 @@
           <t>lie.jpg</t>
         </is>
       </c>
+      <c r="T224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -18399,6 +18735,7 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
+      <c r="T225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -18482,6 +18819,7 @@
           <t>behind.jpg</t>
         </is>
       </c>
+      <c r="T226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -18565,6 +18903,7 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -18644,6 +18983,7 @@
           <t>straight.jpg</t>
         </is>
       </c>
+      <c r="T228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -18719,6 +19059,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -18802,6 +19143,7 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
+      <c r="T230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -18877,6 +19219,7 @@
           <t>wow.webp</t>
         </is>
       </c>
+      <c r="T231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -18956,6 +19299,7 @@
           <t>straight.jpg</t>
         </is>
       </c>
+      <c r="T232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -19043,6 +19387,7 @@
           <t>3quarters-fullshot.webp</t>
         </is>
       </c>
+      <c r="T233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -19122,6 +19467,7 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
+      <c r="T234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -19205,6 +19551,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -19292,6 +19639,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -19371,6 +19719,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -19450,6 +19799,7 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
+      <c r="T238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -19533,6 +19883,7 @@
           <t>chest.jpg</t>
         </is>
       </c>
+      <c r="T239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -19620,6 +19971,7 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
+      <c r="T240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -19703,6 +20055,7 @@
           <t>front.webp</t>
         </is>
       </c>
+      <c r="T241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -19786,6 +20139,7 @@
           <t>front-mediumshotdown1.png</t>
         </is>
       </c>
+      <c r="T242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -19857,6 +20211,7 @@
           <t>half-body.jpg</t>
         </is>
       </c>
+      <c r="T243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -19932,6 +20287,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -20015,6 +20371,7 @@
           <t>handinchest.jpg</t>
         </is>
       </c>
+      <c r="T245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -20090,6 +20447,7 @@
           <t>squat-handup.webp</t>
         </is>
       </c>
+      <c r="T246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -20165,6 +20523,7 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
+      <c r="T247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -20248,6 +20607,7 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
+      <c r="T248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -20327,6 +20687,7 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
+      <c r="T249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -20410,6 +20771,7 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
+      <c r="T250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -20489,6 +20851,7 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
+      <c r="T251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -20576,6 +20939,7 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
+      <c r="T252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -20655,6 +21019,7 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -20738,6 +21103,7 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
+      <c r="T254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -20767,6 +21133,7 @@
       <c r="Q255" t="inlineStr"/>
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="inlineStr"/>
+      <c r="T255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -20846,6 +21213,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -20905,6 +21273,7 @@
           <t>chest.jpg</t>
         </is>
       </c>
+      <c r="T257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -20992,6 +21361,7 @@
           <t>3quarters-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -21075,6 +21445,7 @@
           <t>profile-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -21162,6 +21533,7 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
+      <c r="T260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -21249,6 +21621,7 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -21332,6 +21705,7 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
+      <c r="T262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -21407,6 +21781,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -21490,6 +21865,7 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -21569,6 +21945,7 @@
           <t>stand-look.jpg</t>
         </is>
       </c>
+      <c r="T265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -21652,6 +22029,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -21735,6 +22113,7 @@
           <t>smile-handsbehind.webp</t>
         </is>
       </c>
+      <c r="T267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -21810,6 +22189,7 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -21897,6 +22277,7 @@
           <t>dancing.jpg</t>
         </is>
       </c>
+      <c r="T269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -21980,6 +22361,7 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
+      <c r="T270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -22059,6 +22441,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -22134,6 +22517,7 @@
           <t>front-fullshot1.png</t>
         </is>
       </c>
+      <c r="T272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -22209,6 +22593,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -22296,6 +22681,7 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
+      <c r="T274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -22379,6 +22765,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -22454,6 +22841,7 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
+      <c r="T276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -22533,6 +22921,7 @@
           <t>handup.jpg</t>
         </is>
       </c>
+      <c r="T277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -22616,6 +23005,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -22695,6 +23085,7 @@
           <t>3quarters-arms-up.jpg</t>
         </is>
       </c>
+      <c r="T279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -22778,6 +23169,7 @@
           <t>squat-handup.webp</t>
         </is>
       </c>
+      <c r="T280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -22857,6 +23249,7 @@
           <t>arms-shoulder.jpg</t>
         </is>
       </c>
+      <c r="T281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -22940,6 +23333,7 @@
           <t>front-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -23023,6 +23417,7 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
+      <c r="T283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -23090,6 +23485,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -23169,6 +23565,7 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
+      <c r="T285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -23252,6 +23649,7 @@
           <t>profile-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -23319,6 +23717,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -23406,6 +23805,7 @@
           <t>legscrossed.jpg</t>
         </is>
       </c>
+      <c r="T288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -23497,6 +23897,7 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
+      <c r="T289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -23580,6 +23981,7 @@
           <t>lie.jpg</t>
         </is>
       </c>
+      <c r="T290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -23667,6 +24069,7 @@
           <t>stand-untilknee.jpg</t>
         </is>
       </c>
+      <c r="T291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -23738,6 +24141,7 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
+      <c r="T292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -23821,6 +24225,7 @@
           <t>stand.webp</t>
         </is>
       </c>
+      <c r="T293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -23900,6 +24305,7 @@
           <t>lean-wall.jpg</t>
         </is>
       </c>
+      <c r="T294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -23983,6 +24389,7 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
+      <c r="T295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -24062,6 +24469,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -24133,6 +24541,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -24208,6 +24617,7 @@
           <t>lean-wall.jpg</t>
         </is>
       </c>
+      <c r="T298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -24287,6 +24697,7 @@
           <t>olympian.jpg</t>
         </is>
       </c>
+      <c r="T299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -24362,6 +24773,7 @@
           <t>profile-handwaist.png</t>
         </is>
       </c>
+      <c r="T300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -24441,6 +24853,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -24524,6 +24937,7 @@
           <t>lie.jpg</t>
         </is>
       </c>
+      <c r="T302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -24603,6 +25017,7 @@
           <t>behind.jpg</t>
         </is>
       </c>
+      <c r="T303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -24686,6 +25101,7 @@
           <t>arms-shoulder.jpg</t>
         </is>
       </c>
+      <c r="T304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -24765,6 +25181,7 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
+      <c r="T305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -24840,6 +25257,7 @@
           <t>group.jpg</t>
         </is>
       </c>
+      <c r="T306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -24923,6 +25341,7 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -24990,6 +25409,7 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
+      <c r="T308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -25069,6 +25489,7 @@
           <t>front-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -25152,6 +25573,7 @@
           <t>legscrossed.jpg</t>
         </is>
       </c>
+      <c r="T310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -25227,6 +25649,7 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -25302,6 +25725,7 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
+      <c r="T312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -25385,6 +25809,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -25460,6 +25885,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -25539,6 +25965,7 @@
           <t>3quarters-mediumshot1.jpg</t>
         </is>
       </c>
+      <c r="T315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -25622,6 +26049,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -25709,6 +26137,7 @@
           <t>3quarters-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -25792,6 +26221,7 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -25871,6 +26301,7 @@
           <t>3quarters-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -25950,6 +26381,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -26029,6 +26461,7 @@
           <t>stand-stretch.jpg</t>
         </is>
       </c>
+      <c r="T321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -26116,6 +26549,7 @@
           <t>near-face.jpg</t>
         </is>
       </c>
+      <c r="T322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -26195,6 +26629,7 @@
           <t>superhero.jpeg</t>
         </is>
       </c>
+      <c r="T323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -26274,6 +26709,7 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
+      <c r="T324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -26341,6 +26777,7 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
+      <c r="T325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -26428,6 +26865,7 @@
           <t>dancing.jpg</t>
         </is>
       </c>
+      <c r="T326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -26511,6 +26949,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -26590,6 +27029,7 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
+      <c r="T328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -26681,6 +27121,7 @@
           <t>3quarters-arms-up.jpg</t>
         </is>
       </c>
+      <c r="T329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -26764,6 +27205,7 @@
           <t>chest.jpg</t>
         </is>
       </c>
+      <c r="T330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -26851,6 +27293,7 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
+      <c r="T331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -26922,6 +27365,7 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -26993,6 +27437,7 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -27076,6 +27521,7 @@
           <t>profile-smile.jfif</t>
         </is>
       </c>
+      <c r="T334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -27147,6 +27593,7 @@
           <t>3quarters-mediumshotdown.jfif</t>
         </is>
       </c>
+      <c r="T335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -27230,6 +27677,7 @@
           <t>legscrossed.jpg</t>
         </is>
       </c>
+      <c r="T336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -27305,6 +27753,7 @@
           <t>front-medium-arms2.webp</t>
         </is>
       </c>
+      <c r="T337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -27388,6 +27837,7 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
+      <c r="T338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -27463,6 +27913,7 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
+      <c r="T339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -27546,6 +27997,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -27625,6 +28077,7 @@
           <t>chest.jpg</t>
         </is>
       </c>
+      <c r="T341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -27712,6 +28165,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -27783,6 +28237,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -27858,6 +28313,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -27941,6 +28397,7 @@
           <t>squat-handup.webp</t>
         </is>
       </c>
+      <c r="T345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -28024,6 +28481,7 @@
           <t>3quarters-mediumshot1.jpg</t>
         </is>
       </c>
+      <c r="T346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -28107,6 +28565,7 @@
           <t>lie.jpg</t>
         </is>
       </c>
+      <c r="T347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -28186,6 +28645,7 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
+      <c r="T348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -28265,6 +28725,7 @@
           <t>front-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -28340,6 +28801,7 @@
           <t>profile-smile.jfif</t>
         </is>
       </c>
+      <c r="T350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -28419,6 +28881,7 @@
           <t>handinchest.jpg</t>
         </is>
       </c>
+      <c r="T351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -28490,6 +28953,7 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -28569,6 +29033,7 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
+      <c r="T353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -28648,6 +29113,7 @@
           <t>spread.jpg</t>
         </is>
       </c>
+      <c r="T354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -28735,6 +29201,7 @@
           <t>3quarters-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -28814,6 +29281,7 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
+      <c r="T356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -28893,6 +29361,7 @@
           <t>squat-handup.webp</t>
         </is>
       </c>
+      <c r="T357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -28976,6 +29445,7 @@
           <t>3quarters-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -29059,6 +29529,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -29142,6 +29613,7 @@
           <t>group.jpg</t>
         </is>
       </c>
+      <c r="T360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -29217,6 +29689,7 @@
           <t>flying-pointing.jpg</t>
         </is>
       </c>
+      <c r="T361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -29304,6 +29777,7 @@
           <t>3quarters-mediumshotdown.jfif</t>
         </is>
       </c>
+      <c r="T362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -29383,6 +29857,7 @@
           <t>front-mediumshotdown2.png</t>
         </is>
       </c>
+      <c r="T363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -29462,6 +29937,7 @@
           <t>standing.jpg</t>
         </is>
       </c>
+      <c r="T364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -29537,6 +30013,7 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
+      <c r="T365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -29620,6 +30097,7 @@
           <t>hand-peacelove.jfif</t>
         </is>
       </c>
+      <c r="T366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -29699,6 +30177,7 @@
           <t>RearView.jpg</t>
         </is>
       </c>
+      <c r="T367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -29774,6 +30253,7 @@
           <t>3quarters-mediumshotdown.jpg</t>
         </is>
       </c>
+      <c r="T368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -29849,6 +30329,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -29932,6 +30413,7 @@
           <t>front-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -30011,6 +30493,7 @@
           <t>17.webp</t>
         </is>
       </c>
+      <c r="T371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -30094,6 +30577,7 @@
           <t>RearView.jpg</t>
         </is>
       </c>
+      <c r="T372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -30181,6 +30665,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -30264,6 +30749,7 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -30339,6 +30825,7 @@
           <t>stand-legsopen.jpg</t>
         </is>
       </c>
+      <c r="T375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -30426,6 +30913,7 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
+      <c r="T376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -30505,6 +30993,7 @@
           <t>hand-peacelove.jfif</t>
         </is>
       </c>
+      <c r="T377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -30580,6 +31069,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -30659,6 +31149,7 @@
           <t>stand-legsopen.jpg</t>
         </is>
       </c>
+      <c r="T379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -30746,6 +31237,7 @@
           <t>superhero.jpeg</t>
         </is>
       </c>
+      <c r="T380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -30829,6 +31321,7 @@
           <t>double.jpg</t>
         </is>
       </c>
+      <c r="T381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -30908,6 +31401,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -30991,6 +31485,7 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -31066,6 +31561,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -31145,6 +31641,7 @@
           <t>3quarters-arms-up.jpg</t>
         </is>
       </c>
+      <c r="T385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -31220,6 +31717,7 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
+      <c r="T386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -31303,6 +31801,7 @@
           <t>RearView.jpg</t>
         </is>
       </c>
+      <c r="T387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -31390,6 +31889,7 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
+      <c r="T388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -31469,6 +31969,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -31540,6 +32041,7 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
+      <c r="T390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -31619,6 +32121,7 @@
           <t>3quarters-fullshot.webp</t>
         </is>
       </c>
+      <c r="T391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -31698,6 +32201,7 @@
           <t>straight.jpg</t>
         </is>
       </c>
+      <c r="T392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -31777,6 +32281,7 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -31856,6 +32361,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -31943,6 +32449,7 @@
           <t>stand-far.jpg</t>
         </is>
       </c>
+      <c r="T395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -32022,6 +32529,7 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -32105,6 +32613,7 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
+      <c r="T397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -32188,6 +32697,7 @@
           <t>stand-front.jpg</t>
         </is>
       </c>
+      <c r="T398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -32271,6 +32781,7 @@
           <t>mouth-open.webp</t>
         </is>
       </c>
+      <c r="T399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -32346,6 +32857,7 @@
           <t>group.jpg</t>
         </is>
       </c>
+      <c r="T400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -32433,6 +32945,7 @@
           <t>lean-wall.jpg</t>
         </is>
       </c>
+      <c r="T401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -32508,6 +33021,7 @@
           <t>front-mediumshotdown1.png</t>
         </is>
       </c>
+      <c r="T402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -32591,6 +33105,7 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
+      <c r="T403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -32674,6 +33189,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -32753,6 +33269,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -32840,6 +33357,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -32923,6 +33441,7 @@
           <t>behind.jpg</t>
         </is>
       </c>
+      <c r="T407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -33002,6 +33521,7 @@
           <t>stand-legsopen.jpg</t>
         </is>
       </c>
+      <c r="T408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -33081,6 +33601,7 @@
           <t>3q-stand.jpg</t>
         </is>
       </c>
+      <c r="T409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -33164,6 +33685,7 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
+      <c r="T410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -33243,6 +33765,7 @@
           <t>profile-smile.jfif</t>
         </is>
       </c>
+      <c r="T411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -33318,6 +33841,7 @@
           <t>duck-handup.jpg</t>
         </is>
       </c>
+      <c r="T412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -33401,6 +33925,7 @@
           <t>front-mediumshot.png</t>
         </is>
       </c>
+      <c r="T413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -33480,6 +34005,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -33567,6 +34093,7 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
+      <c r="T415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -33654,6 +34181,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -33741,6 +34269,7 @@
           <t>front-medium-arms2.webp</t>
         </is>
       </c>
+      <c r="T417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -33812,6 +34341,7 @@
           <t>3quarters-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -33895,6 +34425,7 @@
           <t>3quarters-mediumshot1.jpg</t>
         </is>
       </c>
+      <c r="T419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -33970,6 +34501,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -34049,6 +34581,7 @@
           <t>spread.jpg</t>
         </is>
       </c>
+      <c r="T421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -34124,6 +34657,7 @@
           <t>stand-stretch.jpg</t>
         </is>
       </c>
+      <c r="T422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -34203,6 +34737,7 @@
           <t>3quarters-mediumshot.webp</t>
         </is>
       </c>
+      <c r="T423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -34274,6 +34809,7 @@
           <t>hand-peacelove.jfif</t>
         </is>
       </c>
+      <c r="T424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -34353,6 +34889,7 @@
           <t>hand-peacelove.jfif</t>
         </is>
       </c>
+      <c r="T425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -34440,6 +34977,7 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
+      <c r="T426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -34519,6 +35057,7 @@
           <t>3quarters-arms-up.jpg</t>
         </is>
       </c>
+      <c r="T427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -34598,6 +35137,7 @@
           <t>stand-far.jpg</t>
         </is>
       </c>
+      <c r="T428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -34665,6 +35205,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -34752,6 +35293,7 @@
           <t>front-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -34835,6 +35377,7 @@
           <t>back.jpg</t>
         </is>
       </c>
+      <c r="T431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -34918,6 +35461,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -34997,6 +35541,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -35084,6 +35629,7 @@
           <t>handinchest.jpg</t>
         </is>
       </c>
+      <c r="T434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -35167,6 +35713,7 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
+      <c r="T435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -35242,6 +35789,7 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
+      <c r="T436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -35321,6 +35869,7 @@
           <t>3quarters-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -35396,6 +35945,7 @@
           <t>half-body.jpg</t>
         </is>
       </c>
+      <c r="T438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -35487,6 +36037,7 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -35570,6 +36121,7 @@
           <t>3quarters-fullshot.webp</t>
         </is>
       </c>
+      <c r="T440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -35657,6 +36209,7 @@
           <t>stand-legsopen.jpg</t>
         </is>
       </c>
+      <c r="T441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -35728,6 +36281,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -35807,6 +36361,7 @@
           <t>profile-mediumshot.webp</t>
         </is>
       </c>
+      <c r="T443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -35890,6 +36445,7 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
+      <c r="T444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -35981,6 +36537,7 @@
           <t>dancing.jpg</t>
         </is>
       </c>
+      <c r="T445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -36068,6 +36625,7 @@
           <t>front-mediumshotdown2.png</t>
         </is>
       </c>
+      <c r="T446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -36147,6 +36705,7 @@
           <t>stand-front.jpg</t>
         </is>
       </c>
+      <c r="T447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -36238,6 +36797,7 @@
           <t>front-medium-arms.jpg</t>
         </is>
       </c>
+      <c r="T448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -36321,6 +36881,7 @@
           <t>profile-smile.jfif</t>
         </is>
       </c>
+      <c r="T449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -36404,6 +36965,7 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
+      <c r="T450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -36491,6 +37053,7 @@
           <t>stand-takearm.jpg</t>
         </is>
       </c>
+      <c r="T451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -36566,6 +37129,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -36649,6 +37213,7 @@
           <t>near-face.jpg</t>
         </is>
       </c>
+      <c r="T453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -36732,6 +37297,7 @@
           <t>mouth-open.webp</t>
         </is>
       </c>
+      <c r="T454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -36819,6 +37385,7 @@
           <t>front-medium-arms.jpg</t>
         </is>
       </c>
+      <c r="T455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -36898,6 +37465,7 @@
           <t>near-face.jpg</t>
         </is>
       </c>
+      <c r="T456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -36977,6 +37545,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -37060,6 +37629,7 @@
           <t>front-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -37139,6 +37709,7 @@
           <t>front.webp</t>
         </is>
       </c>
+      <c r="T459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -37218,6 +37789,7 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
+      <c r="T460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -37289,6 +37861,7 @@
           <t>3q-stand.jpg</t>
         </is>
       </c>
+      <c r="T461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -37368,6 +37941,7 @@
           <t>3quarters-fullshot.webp</t>
         </is>
       </c>
+      <c r="T462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -37447,6 +38021,7 @@
           <t>profile-handwaist.png</t>
         </is>
       </c>
+      <c r="T463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -37476,6 +38051,7 @@
       <c r="Q464" t="inlineStr"/>
       <c r="R464" t="inlineStr"/>
       <c r="S464" t="inlineStr"/>
+      <c r="T464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -37559,6 +38135,7 @@
           <t>mouth-open.webp</t>
         </is>
       </c>
+      <c r="T465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -37642,6 +38219,7 @@
           <t>straight.jpg</t>
         </is>
       </c>
+      <c r="T466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -37717,6 +38295,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -37800,6 +38379,7 @@
           <t>stand-untilknee.jpg</t>
         </is>
       </c>
+      <c r="T468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -37883,6 +38463,7 @@
           <t>3quarters-mediumshotdown.jpg</t>
         </is>
       </c>
+      <c r="T469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -37966,6 +38547,7 @@
           <t>spread.jpg</t>
         </is>
       </c>
+      <c r="T470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -38045,6 +38627,7 @@
           <t>lie.jpg</t>
         </is>
       </c>
+      <c r="T471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -38116,6 +38699,7 @@
           <t>stand-legsopen.jpg</t>
         </is>
       </c>
+      <c r="T472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -38203,6 +38787,7 @@
           <t>profile-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -38282,6 +38867,7 @@
           <t>handsup.jpg</t>
         </is>
       </c>
+      <c r="T474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -38357,6 +38943,7 @@
           <t>3quarters-mediumshotdown.jfif</t>
         </is>
       </c>
+      <c r="T475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -38444,6 +39031,7 @@
           <t>spread.jpg</t>
         </is>
       </c>
+      <c r="T476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -38473,6 +39061,7 @@
       <c r="Q477" t="inlineStr"/>
       <c r="R477" t="inlineStr"/>
       <c r="S477" t="inlineStr"/>
+      <c r="T477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -38552,6 +39141,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -38639,6 +39229,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -38726,6 +39317,7 @@
           <t>profile-smile.jfif</t>
         </is>
       </c>
+      <c r="T480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -38801,6 +39393,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -38884,6 +39477,7 @@
           <t>group.jpg</t>
         </is>
       </c>
+      <c r="T482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -38951,6 +39545,7 @@
           <t>near-face.jpg</t>
         </is>
       </c>
+      <c r="T483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -39034,6 +39629,7 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
+      <c r="T484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -39117,6 +39713,7 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -39200,6 +39797,7 @@
           <t>front-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -39275,6 +39873,7 @@
           <t>stand-untilknee.jpg</t>
         </is>
       </c>
+      <c r="T487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -39350,6 +39949,7 @@
           <t>3quarters-arms-up.jpg</t>
         </is>
       </c>
+      <c r="T488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -39437,6 +40037,7 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
+      <c r="T489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -39516,6 +40117,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -39591,6 +40193,7 @@
           <t>profile-handwaist.png</t>
         </is>
       </c>
+      <c r="T491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -39670,6 +40273,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -39749,6 +40353,7 @@
           <t>front-medium-arms.jpg</t>
         </is>
       </c>
+      <c r="T493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -39824,6 +40429,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -39915,6 +40521,7 @@
           <t>stand-profile.jpg</t>
         </is>
       </c>
+      <c r="T495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -40002,6 +40609,7 @@
           <t>front-americanshot.jpg</t>
         </is>
       </c>
+      <c r="T496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -40081,6 +40689,7 @@
           <t>front-fullshot1.png</t>
         </is>
       </c>
+      <c r="T497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -40156,6 +40765,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -40235,6 +40845,7 @@
           <t>flying-pointing.jpg</t>
         </is>
       </c>
+      <c r="T499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -40322,6 +40933,7 @@
           <t>front-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -40405,6 +41017,7 @@
           <t>front-mediumshotdown2.png</t>
         </is>
       </c>
+      <c r="T501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -40484,6 +41097,7 @@
           <t>front-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -40555,6 +41169,7 @@
           <t>front-mediumshot10.png</t>
         </is>
       </c>
+      <c r="T503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -40638,6 +41253,7 @@
           <t>half-body.jpg</t>
         </is>
       </c>
+      <c r="T504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -40713,6 +41329,7 @@
           <t>stand-takearm.jpg</t>
         </is>
       </c>
+      <c r="T505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -40788,6 +41405,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -40879,6 +41497,7 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
+      <c r="T507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -40966,6 +41585,7 @@
           <t>double.jpg</t>
         </is>
       </c>
+      <c r="T508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -41049,6 +41669,7 @@
           <t>stand.webp</t>
         </is>
       </c>
+      <c r="T509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -41132,6 +41753,7 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
+      <c r="T510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -41207,6 +41829,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -41286,6 +41909,7 @@
           <t>front-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -41365,6 +41989,7 @@
           <t>arms-shoulder.jpg</t>
         </is>
       </c>
+      <c r="T513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -41448,6 +42073,7 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
+      <c r="T514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -41527,6 +42153,7 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
+      <c r="T515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -41610,6 +42237,7 @@
           <t>front-mediumshot8.jpg</t>
         </is>
       </c>
+      <c r="T516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -41681,6 +42309,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -41760,6 +42389,7 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -41847,6 +42477,7 @@
           <t>stand-front.jpg</t>
         </is>
       </c>
+      <c r="T519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -41926,6 +42557,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -42013,6 +42645,7 @@
           <t>stand-armscrossed.jpg</t>
         </is>
       </c>
+      <c r="T521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -42092,6 +42725,7 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -42167,6 +42801,7 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
+      <c r="T523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -42246,6 +42881,7 @@
           <t>superhero.jpeg</t>
         </is>
       </c>
+      <c r="T524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -42325,6 +42961,7 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -42412,6 +43049,7 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
+      <c r="T526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -42491,6 +43129,7 @@
           <t>profile-smile.jfif</t>
         </is>
       </c>
+      <c r="T527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -42566,6 +43205,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -42641,6 +43281,7 @@
           <t>profile-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -42724,6 +43365,7 @@
           <t>lie.jpg</t>
         </is>
       </c>
+      <c r="T530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -42795,6 +43437,7 @@
           <t>front-mediumshot10.png</t>
         </is>
       </c>
+      <c r="T531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -42870,6 +43513,7 @@
           <t>stand.jfif</t>
         </is>
       </c>
+      <c r="T532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -42949,6 +43593,7 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
+      <c r="T533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -43032,6 +43677,7 @@
           <t>front-medium-arms2.webp</t>
         </is>
       </c>
+      <c r="T534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -43115,6 +43761,7 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
+      <c r="T535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -43198,6 +43845,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -43277,6 +43925,7 @@
           <t>stand-handhead.jpg</t>
         </is>
       </c>
+      <c r="T537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -43356,6 +44005,7 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -43435,6 +44085,7 @@
           <t>straight.jpg</t>
         </is>
       </c>
+      <c r="T539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -43514,6 +44165,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -43597,6 +44249,7 @@
           <t>stand.jfif</t>
         </is>
       </c>
+      <c r="T541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -43660,6 +44313,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -43743,6 +44397,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -43822,6 +44477,7 @@
           <t>group.jpg</t>
         </is>
       </c>
+      <c r="T544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -43901,6 +44557,7 @@
           <t>pose.jpg</t>
         </is>
       </c>
+      <c r="T545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -43988,6 +44645,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -44075,6 +44733,7 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -44150,6 +44809,7 @@
           <t>front-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -44221,6 +44881,7 @@
           <t>stand.jfif</t>
         </is>
       </c>
+      <c r="T549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -44256,6 +44917,7 @@
       <c r="Q550" t="inlineStr"/>
       <c r="R550" t="inlineStr"/>
       <c r="S550" t="inlineStr"/>
+      <c r="T550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -44291,6 +44953,7 @@
       <c r="Q551" t="inlineStr"/>
       <c r="R551" t="inlineStr"/>
       <c r="S551" t="inlineStr"/>
+      <c r="T551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -44326,6 +44989,7 @@
       <c r="Q552" t="inlineStr"/>
       <c r="R552" t="inlineStr"/>
       <c r="S552" t="inlineStr"/>
+      <c r="T552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -44361,6 +45025,7 @@
       <c r="Q553" t="inlineStr"/>
       <c r="R553" t="inlineStr"/>
       <c r="S553" t="inlineStr"/>
+      <c r="T553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -44444,6 +45109,7 @@
           <t>standing.jpg</t>
         </is>
       </c>
+      <c r="T554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -44527,6 +45193,7 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
+      <c r="T555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -44598,6 +45265,7 @@
           <t>lie.jpg</t>
         </is>
       </c>
+      <c r="T556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -44685,6 +45353,7 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
+      <c r="T557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -44764,6 +45433,7 @@
           <t>arms-shoulder.jpg</t>
         </is>
       </c>
+      <c r="T558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -44847,6 +45517,7 @@
           <t>front-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -44930,6 +45601,7 @@
           <t>3quarters-mediumshot1.jpg</t>
         </is>
       </c>
+      <c r="T560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -45009,6 +45681,7 @@
           <t>3quarters-arms-up.jpg</t>
         </is>
       </c>
+      <c r="T561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -45084,6 +45757,7 @@
           <t>3quarters-fullshot.webp</t>
         </is>
       </c>
+      <c r="T562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -45167,6 +45841,7 @@
           <t>stand-look.jpg</t>
         </is>
       </c>
+      <c r="T563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -45242,6 +45917,7 @@
           <t>stand-handhead.jpg</t>
         </is>
       </c>
+      <c r="T564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -45321,6 +45997,7 @@
           <t>stand-untilknee.jpg</t>
         </is>
       </c>
+      <c r="T565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -45408,6 +46085,7 @@
           <t>flying-pointing.jpg</t>
         </is>
       </c>
+      <c r="T566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -45487,6 +46165,7 @@
           <t>duck-handup.jpg</t>
         </is>
       </c>
+      <c r="T567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -45522,6 +46201,7 @@
       <c r="Q568" t="inlineStr"/>
       <c r="R568" t="inlineStr"/>
       <c r="S568" t="inlineStr"/>
+      <c r="T568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -45557,6 +46237,7 @@
       <c r="Q569" t="inlineStr"/>
       <c r="R569" t="inlineStr"/>
       <c r="S569" t="inlineStr"/>
+      <c r="T569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -45592,6 +46273,7 @@
       <c r="Q570" t="inlineStr"/>
       <c r="R570" t="inlineStr"/>
       <c r="S570" t="inlineStr"/>
+      <c r="T570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -45627,6 +46309,7 @@
       <c r="Q571" t="inlineStr"/>
       <c r="R571" t="inlineStr"/>
       <c r="S571" t="inlineStr"/>
+      <c r="T571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -45710,6 +46393,7 @@
           <t>wow.webp</t>
         </is>
       </c>
+      <c r="T572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -45797,6 +46481,7 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
+      <c r="T573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -45876,6 +46561,7 @@
           <t>front-fullshot1.png</t>
         </is>
       </c>
+      <c r="T574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -45963,6 +46649,7 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -46038,6 +46725,7 @@
           <t>3quarters-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -46121,6 +46809,7 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
+      <c r="T577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -46204,6 +46893,7 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
+      <c r="T578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -46291,6 +46981,7 @@
           <t>wow.webp</t>
         </is>
       </c>
+      <c r="T579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -46370,6 +47061,7 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
+      <c r="T580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -46445,6 +47137,7 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
+      <c r="T581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -46516,6 +47209,7 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
+      <c r="T582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -46607,6 +47301,7 @@
           <t>back.jpg</t>
         </is>
       </c>
+      <c r="T583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -46678,6 +47373,7 @@
           <t>stand-untilknee.jpg</t>
         </is>
       </c>
+      <c r="T584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -46757,6 +47453,7 @@
           <t>front-mediumshot10.png</t>
         </is>
       </c>
+      <c r="T585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -46832,6 +47529,7 @@
           <t>front-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -46911,6 +47609,7 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
+      <c r="T587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -46998,6 +47697,7 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
+      <c r="T588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -47081,6 +47781,7 @@
           <t>smile-handsbehind.webp</t>
         </is>
       </c>
+      <c r="T589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -47160,6 +47861,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -47239,6 +47941,7 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
+      <c r="T591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -47326,6 +48029,7 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
+      <c r="T592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -47405,6 +48109,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -47484,6 +48189,7 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -47519,6 +48225,7 @@
       <c r="Q595" t="inlineStr"/>
       <c r="R595" t="inlineStr"/>
       <c r="S595" t="inlineStr"/>
+      <c r="T595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -47554,6 +48261,7 @@
       <c r="Q596" t="inlineStr"/>
       <c r="R596" t="inlineStr"/>
       <c r="S596" t="inlineStr"/>
+      <c r="T596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -47589,6 +48297,7 @@
       <c r="Q597" t="inlineStr"/>
       <c r="R597" t="inlineStr"/>
       <c r="S597" t="inlineStr"/>
+      <c r="T597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -47624,6 +48333,7 @@
       <c r="Q598" t="inlineStr"/>
       <c r="R598" t="inlineStr"/>
       <c r="S598" t="inlineStr"/>
+      <c r="T598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -47699,6 +48409,7 @@
           <t>flying-pointing.jpg</t>
         </is>
       </c>
+      <c r="T599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -47770,6 +48481,7 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
+      <c r="T600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -47845,6 +48557,7 @@
           <t>front-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -47932,6 +48645,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -48015,6 +48729,7 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -48098,6 +48813,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -48173,6 +48889,7 @@
           <t>hand-peacelove.jfif</t>
         </is>
       </c>
+      <c r="T605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -48264,6 +48981,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -48343,6 +49061,7 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
+      <c r="T607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -48434,6 +49153,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -48509,6 +49229,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -48584,6 +49305,7 @@
           <t>3quarters-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -48675,6 +49397,7 @@
           <t>pose.jpg</t>
         </is>
       </c>
+      <c r="T611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -48754,6 +49477,7 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
+      <c r="T612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -48837,6 +49561,7 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -48912,6 +49637,7 @@
           <t>profile-handwaist.png</t>
         </is>
       </c>
+      <c r="T614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -48991,6 +49717,7 @@
           <t>squat.jpg</t>
         </is>
       </c>
+      <c r="T615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -49070,6 +49797,7 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
+      <c r="T616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -49141,6 +49869,7 @@
           <t>chest.jpg</t>
         </is>
       </c>
+      <c r="T617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -49216,6 +49945,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -49295,6 +50025,7 @@
           <t>smile-handsbehind.webp</t>
         </is>
       </c>
+      <c r="T619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -49374,6 +50105,7 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
+      <c r="T620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -49449,6 +50181,7 @@
           <t>3quarters-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -49536,6 +50269,7 @@
           <t>front-fullshot1.png</t>
         </is>
       </c>
+      <c r="T622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -49607,6 +50341,7 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
+      <c r="T623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -49690,6 +50425,7 @@
           <t>stand-far.jpg</t>
         </is>
       </c>
+      <c r="T624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -49769,6 +50505,7 @@
           <t>double.jpg</t>
         </is>
       </c>
+      <c r="T625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -49852,6 +50589,7 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
+      <c r="T626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -49935,6 +50673,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -50018,6 +50757,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -50089,6 +50829,7 @@
           <t>straight.jpg</t>
         </is>
       </c>
+      <c r="T629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -50168,6 +50909,7 @@
           <t>front.webp</t>
         </is>
       </c>
+      <c r="T630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -50239,6 +50981,7 @@
           <t>olympian.jpg</t>
         </is>
       </c>
+      <c r="T631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -50318,6 +51061,7 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
+      <c r="T632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -50409,6 +51153,7 @@
           <t>front-mediumshot10.png</t>
         </is>
       </c>
+      <c r="T633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -50488,6 +51233,7 @@
           <t>squat.jpg</t>
         </is>
       </c>
+      <c r="T634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -50567,6 +51313,7 @@
           <t>legscrossed.jpg</t>
         </is>
       </c>
+      <c r="T635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -50654,6 +51401,7 @@
           <t>profile-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -50729,6 +51477,7 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
+      <c r="T637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -50820,6 +51569,7 @@
           <t>profile-smile.jfif</t>
         </is>
       </c>
+      <c r="T638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -50899,6 +51649,7 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
+      <c r="T639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -50974,6 +51725,7 @@
           <t>front-mediumshot8.jpg</t>
         </is>
       </c>
+      <c r="T640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -51057,6 +51809,7 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
+      <c r="T641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -51128,6 +51881,7 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -51211,6 +51965,7 @@
           <t>front-americanshot.jpg</t>
         </is>
       </c>
+      <c r="T643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -51286,6 +52041,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -51365,6 +52121,7 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
+      <c r="T645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -51444,6 +52201,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -51531,6 +52289,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -51606,6 +52365,7 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -51689,6 +52449,7 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
+      <c r="T649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -51760,6 +52521,7 @@
           <t>stand.webp</t>
         </is>
       </c>
+      <c r="T650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -51847,6 +52609,7 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -51930,6 +52693,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -52005,6 +52769,7 @@
           <t>profile-mediumshot.webp</t>
         </is>
       </c>
+      <c r="T653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -52084,6 +52849,7 @@
           <t>mouth-open.webp</t>
         </is>
       </c>
+      <c r="T654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -52163,6 +52929,7 @@
           <t>stand.jfif</t>
         </is>
       </c>
+      <c r="T655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -52238,6 +53005,7 @@
           <t>handsup.jpg</t>
         </is>
       </c>
+      <c r="T656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -52321,6 +53089,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -52400,6 +53169,7 @@
           <t>behind.jpg</t>
         </is>
       </c>
+      <c r="T658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -52487,6 +53257,7 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
+      <c r="T659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -52570,6 +53341,7 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -52649,6 +53421,7 @@
           <t>stand-front.jpg</t>
         </is>
       </c>
+      <c r="T661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -52724,6 +53497,7 @@
           <t>profile-smile.jfif</t>
         </is>
       </c>
+      <c r="T662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -52807,6 +53581,7 @@
           <t>front-medium-arms2.webp</t>
         </is>
       </c>
+      <c r="T663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -52886,6 +53661,7 @@
           <t>squat.jpg</t>
         </is>
       </c>
+      <c r="T664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -52973,6 +53749,7 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -53048,6 +53825,7 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
+      <c r="T666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -53123,6 +53901,7 @@
           <t>legscrossed.jpg</t>
         </is>
       </c>
+      <c r="T667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -53206,6 +53985,7 @@
           <t>face.jpg</t>
         </is>
       </c>
+      <c r="T668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -53285,6 +54065,7 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
+      <c r="T669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -53360,6 +54141,7 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
+      <c r="T670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -53439,6 +54221,7 @@
           <t>front-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -53518,6 +54301,7 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -53605,6 +54389,7 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
+      <c r="T673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -53696,6 +54481,7 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
+      <c r="T674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -53763,6 +54549,7 @@
           <t>handup.jpg</t>
         </is>
       </c>
+      <c r="T675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -53846,6 +54633,7 @@
           <t>standing.jpg</t>
         </is>
       </c>
+      <c r="T676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -53929,6 +54717,7 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
+      <c r="T677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -54008,6 +54797,7 @@
           <t>behind.jpg</t>
         </is>
       </c>
+      <c r="T678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -54087,6 +54877,7 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -54166,6 +54957,7 @@
           <t>front.webp</t>
         </is>
       </c>
+      <c r="T680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -54245,6 +55037,7 @@
           <t>near-face.jpg</t>
         </is>
       </c>
+      <c r="T681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -54324,6 +55117,7 @@
           <t>front-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -54407,6 +55201,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -54490,6 +55285,7 @@
           <t>mouth-open.webp</t>
         </is>
       </c>
+      <c r="T684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -54561,6 +55357,7 @@
           <t>olympian.jpg</t>
         </is>
       </c>
+      <c r="T685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -54640,6 +55437,7 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
+      <c r="T686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -54719,6 +55517,7 @@
           <t>stand-untilknee.jpg</t>
         </is>
       </c>
+      <c r="T687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -54810,6 +55609,7 @@
           <t>front-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -54885,6 +55685,7 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
+      <c r="T689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -54968,6 +55769,7 @@
           <t>arm-up.jpg</t>
         </is>
       </c>
+      <c r="T690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -55055,6 +55857,7 @@
           <t>3quarters-mediumshot1.jpg</t>
         </is>
       </c>
+      <c r="T691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -55134,6 +55937,7 @@
           <t>stand-front.jpg</t>
         </is>
       </c>
+      <c r="T692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -55217,6 +56021,7 @@
           <t>back.jpg</t>
         </is>
       </c>
+      <c r="T693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -55300,6 +56105,7 @@
           <t>stand-profile.jpg</t>
         </is>
       </c>
+      <c r="T694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -55379,6 +56185,7 @@
           <t>duck-handup.jpg</t>
         </is>
       </c>
+      <c r="T695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -55458,6 +56265,7 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
+      <c r="T696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -55537,6 +56345,7 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
+      <c r="T697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -55616,6 +56425,7 @@
           <t>chest.jpg</t>
         </is>
       </c>
+      <c r="T698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -55691,6 +56501,7 @@
           <t>stand.jfif</t>
         </is>
       </c>
+      <c r="T699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -55778,6 +56589,7 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
+      <c r="T700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -55861,6 +56673,7 @@
           <t>lean-wall.jpg</t>
         </is>
       </c>
+      <c r="T701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -55948,6 +56761,7 @@
           <t>double.jpg</t>
         </is>
       </c>
+      <c r="T702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -56027,6 +56841,7 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
+      <c r="T703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -56106,6 +56921,7 @@
           <t>back.jpg</t>
         </is>
       </c>
+      <c r="T704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -56193,6 +57009,7 @@
           <t>stand.jfif</t>
         </is>
       </c>
+      <c r="T705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -56268,6 +57085,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -56343,6 +57161,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -56426,6 +57245,7 @@
           <t>3quarters-fullshot.webp</t>
         </is>
       </c>
+      <c r="T708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -56505,6 +57325,7 @@
           <t>front-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -56580,6 +57401,7 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
+      <c r="T710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -56659,6 +57481,7 @@
           <t>profile-mediumshot.webp</t>
         </is>
       </c>
+      <c r="T711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -56742,6 +57565,7 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
+      <c r="T712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -56813,6 +57637,7 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -56900,6 +57725,7 @@
           <t>straight.jpg</t>
         </is>
       </c>
+      <c r="T714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -56979,6 +57805,7 @@
           <t>spread.jpg</t>
         </is>
       </c>
+      <c r="T715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -57066,6 +57893,7 @@
           <t>front.webp</t>
         </is>
       </c>
+      <c r="T716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -57153,6 +57981,7 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
+      <c r="T717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -57240,6 +58069,7 @@
           <t>front.webp</t>
         </is>
       </c>
+      <c r="T718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -57323,6 +58153,7 @@
           <t>stand-legsopen.jpg</t>
         </is>
       </c>
+      <c r="T719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -57394,6 +58225,7 @@
           <t>stand-handhead.jpg</t>
         </is>
       </c>
+      <c r="T720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -57473,6 +58305,7 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -57556,6 +58389,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -57631,6 +58465,7 @@
           <t>stand-handhead.jpg</t>
         </is>
       </c>
+      <c r="T723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -57710,6 +58545,7 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -57789,6 +58625,7 @@
           <t>front-medium-arms2.webp</t>
         </is>
       </c>
+      <c r="T725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -57872,6 +58709,7 @@
           <t>3quarters-mediumshotdown.jfif</t>
         </is>
       </c>
+      <c r="T726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -57947,6 +58785,7 @@
           <t>front-mediumshot10.png</t>
         </is>
       </c>
+      <c r="T727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -58030,6 +58869,7 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
+      <c r="T728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -58101,6 +58941,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -58180,6 +59021,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -58263,6 +59105,7 @@
           <t>stand-stretch.jpg</t>
         </is>
       </c>
+      <c r="T731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -58338,6 +59181,7 @@
           <t>pop.png</t>
         </is>
       </c>
+      <c r="T732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -58413,6 +59257,7 @@
           <t>3quarters-mediumshotdown.jpg</t>
         </is>
       </c>
+      <c r="T733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -58496,6 +59341,7 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
+      <c r="T734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -58571,6 +59417,7 @@
           <t>stand-front.jpg</t>
         </is>
       </c>
+      <c r="T735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -58654,6 +59501,7 @@
           <t>front.webp</t>
         </is>
       </c>
+      <c r="T736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -58729,6 +59577,7 @@
           <t>3quarters-fullshot.webp</t>
         </is>
       </c>
+      <c r="T737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -58808,6 +59657,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -58887,6 +59737,7 @@
           <t>wow.webp</t>
         </is>
       </c>
+      <c r="T739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -58970,6 +59821,7 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -59049,6 +59901,7 @@
           <t>3q-stand.jpg</t>
         </is>
       </c>
+      <c r="T741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -59128,6 +59981,7 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -59211,6 +60065,7 @@
           <t>front-mediumshot.png</t>
         </is>
       </c>
+      <c r="T743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -59290,6 +60145,7 @@
           <t>pose.jpg</t>
         </is>
       </c>
+      <c r="T744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -59365,6 +60221,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -59448,6 +60305,7 @@
           <t>standing.jpg</t>
         </is>
       </c>
+      <c r="T746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -59519,6 +60377,7 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
+      <c r="T747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -59594,6 +60453,7 @@
           <t>3quarters-mediumshotdown.jpg</t>
         </is>
       </c>
+      <c r="T748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -59681,6 +60541,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -59760,6 +60621,7 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -59835,6 +60697,7 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -59922,6 +60785,7 @@
           <t>stand-front.jpg</t>
         </is>
       </c>
+      <c r="T752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -60009,6 +60873,7 @@
           <t>sitting.jpg</t>
         </is>
       </c>
+      <c r="T753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -60092,6 +60957,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -60167,6 +61033,7 @@
           <t>3quarters-mediumshotdown.jpg</t>
         </is>
       </c>
+      <c r="T755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -60246,6 +61113,7 @@
           <t>duck-handup.jpg</t>
         </is>
       </c>
+      <c r="T756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -60329,6 +61197,7 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
+      <c r="T757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -60408,6 +61277,7 @@
           <t>olympian.jpg</t>
         </is>
       </c>
+      <c r="T758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -60479,6 +61349,7 @@
           <t>smile-handsbehind.webp</t>
         </is>
       </c>
+      <c r="T759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -60558,6 +61429,7 @@
           <t>front-mediumshot.png</t>
         </is>
       </c>
+      <c r="T760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -60641,6 +61513,7 @@
           <t>lie.jpg</t>
         </is>
       </c>
+      <c r="T761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -60720,6 +61593,7 @@
           <t>near-face.jpg</t>
         </is>
       </c>
+      <c r="T762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -60803,6 +61677,7 @@
           <t>front-medium-arms.jpg</t>
         </is>
       </c>
+      <c r="T763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -60890,6 +61765,7 @@
           <t>profile-handwaist.png</t>
         </is>
       </c>
+      <c r="T764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -60977,6 +61853,7 @@
           <t>front-americanshot.jpg</t>
         </is>
       </c>
+      <c r="T765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -61056,6 +61933,7 @@
           <t>front-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -61139,6 +62017,7 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
+      <c r="T767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -61210,6 +62089,7 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
+      <c r="T768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -61285,6 +62165,7 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
+      <c r="T769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -61364,6 +62245,7 @@
           <t>mouth-open.webp</t>
         </is>
       </c>
+      <c r="T770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -61439,6 +62321,7 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
+      <c r="T771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -61526,6 +62409,7 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
+      <c r="T772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -61601,6 +62485,7 @@
           <t>arm-up.jpg</t>
         </is>
       </c>
+      <c r="T773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -61688,6 +62573,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -61771,6 +62657,7 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
+      <c r="T775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -61858,6 +62745,7 @@
           <t>flying-pointing.jpg</t>
         </is>
       </c>
+      <c r="T776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -61937,6 +62825,7 @@
           <t>lean-wall.jpg</t>
         </is>
       </c>
+      <c r="T777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -62020,6 +62909,7 @@
           <t>lean-wall.jpg</t>
         </is>
       </c>
+      <c r="T778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -62095,6 +62985,7 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
+      <c r="T779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -62170,6 +63061,7 @@
           <t>handinchest.jpg</t>
         </is>
       </c>
+      <c r="T780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -62241,6 +63133,7 @@
           <t>3quarters-mediumshot.webp</t>
         </is>
       </c>
+      <c r="T781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -62332,6 +63225,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -62407,6 +63301,7 @@
           <t>squat-handup.webp</t>
         </is>
       </c>
+      <c r="T783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -62494,6 +63389,7 @@
           <t>handinchest.jpg</t>
         </is>
       </c>
+      <c r="T784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -62581,6 +63477,7 @@
           <t>front-medium-arms.jpg</t>
         </is>
       </c>
+      <c r="T785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -62656,6 +63553,7 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
+      <c r="T786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -62727,6 +63625,7 @@
           <t>profile-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -62806,6 +63705,7 @@
           <t>3q-stand.jpg</t>
         </is>
       </c>
+      <c r="T788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -62881,6 +63781,7 @@
           <t>duck-handup.jpg</t>
         </is>
       </c>
+      <c r="T789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -62956,6 +63857,7 @@
           <t>wow.webp</t>
         </is>
       </c>
+      <c r="T790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -63039,6 +63941,7 @@
           <t>front-mediumshot.jfif</t>
         </is>
       </c>
+      <c r="T791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -63122,6 +64025,7 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
+      <c r="T792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -63201,6 +64105,7 @@
           <t>stand-takearm.jpg</t>
         </is>
       </c>
+      <c r="T793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -63276,6 +64181,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -63351,6 +64257,7 @@
           <t>front-mediumshotdown1.png</t>
         </is>
       </c>
+      <c r="T795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -63438,6 +64345,7 @@
           <t>pose.jpg</t>
         </is>
       </c>
+      <c r="T796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -63509,6 +64417,7 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
+      <c r="T797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -63596,6 +64505,7 @@
           <t>near-face.jpg</t>
         </is>
       </c>
+      <c r="T798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -63675,6 +64585,7 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
+      <c r="T799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -63758,6 +64669,7 @@
           <t>spread.jpg</t>
         </is>
       </c>
+      <c r="T800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
@@ -63841,6 +64753,7 @@
           <t>stand-look.jpg</t>
         </is>
       </c>
+      <c r="T801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
@@ -63916,6 +64829,7 @@
           <t>flying-pointing.jpg</t>
         </is>
       </c>
+      <c r="T802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -64003,6 +64917,7 @@
           <t>front-fullshot1.png</t>
         </is>
       </c>
+      <c r="T803" t="inlineStr"/>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
@@ -64090,6 +65005,7 @@
           <t>mouth-open.webp</t>
         </is>
       </c>
+      <c r="T804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -64165,6 +65081,7 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
+      <c r="T805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -64248,6 +65165,7 @@
           <t>3quarters-mediumshot4.png</t>
         </is>
       </c>
+      <c r="T806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
@@ -64331,6 +65249,7 @@
           <t>front-mediumshot8.jpg</t>
         </is>
       </c>
+      <c r="T807" t="inlineStr"/>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
@@ -64414,6 +65333,7 @@
           <t>superhero.jpeg</t>
         </is>
       </c>
+      <c r="T808" t="inlineStr"/>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
@@ -64497,6 +65417,7 @@
           <t>profile-cowboyshot.jpeg</t>
         </is>
       </c>
+      <c r="T809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
@@ -64576,6 +65497,7 @@
           <t>pose.jpg</t>
         </is>
       </c>
+      <c r="T810" t="inlineStr"/>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
@@ -64659,6 +65581,7 @@
           <t>handinchest.jpg</t>
         </is>
       </c>
+      <c r="T811" t="inlineStr"/>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
@@ -64734,6 +65657,7 @@
           <t>superhero.jpeg</t>
         </is>
       </c>
+      <c r="T812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
@@ -64813,6 +65737,7 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
+      <c r="T813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
@@ -64896,6 +65821,7 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
@@ -64975,6 +65901,7 @@
           <t>stand-takearm.jpg</t>
         </is>
       </c>
+      <c r="T815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
@@ -65058,6 +65985,7 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
+      <c r="T816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
@@ -65137,6 +66065,7 @@
           <t>kneed.jpg</t>
         </is>
       </c>
+      <c r="T817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -65220,6 +66149,7 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
+      <c r="T818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
@@ -65307,6 +66237,7 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
+      <c r="T819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
@@ -65390,6 +66321,7 @@
           <t>dancing.jpg</t>
         </is>
       </c>
+      <c r="T820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
@@ -65469,6 +66401,7 @@
           <t>behind.jpg</t>
         </is>
       </c>
+      <c r="T821" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/girlsFull.xlsx
+++ b/girlsFull.xlsx
@@ -1777,7 +1777,11 @@
           <t>3quarters-mediumshot.jfif</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\14-t2.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1798,7 +1802,11 @@
           <t>14-t3.jfif</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -1861,7 +1869,11 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\14-t3.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1882,7 +1894,11 @@
           <t>14-t4.jfif</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1937,7 +1953,11 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\14-t4.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1958,7 +1978,11 @@
           <t>15-t1.webp</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>hot</t>
@@ -2017,7 +2041,11 @@
           <t>face.jpg</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\15-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2038,7 +2066,11 @@
           <t>15-t2.webp</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -2109,7 +2141,11 @@
           <t>front-mediumshot8.jpg</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\15-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2130,7 +2166,11 @@
           <t>15-t3.webp</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -2193,7 +2233,11 @@
           <t>stand-handhead.jpg</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\15-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2214,7 +2258,11 @@
           <t>15-t4.webp</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -2273,7 +2321,11 @@
           <t>handsup.jpg</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\15-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2294,7 +2346,11 @@
           <t>1520115753422-t1.jpg</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -2353,7 +2409,11 @@
           <t>stand-far.jpg</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1520115753422-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2374,7 +2434,11 @@
           <t>1520115753422-t2.jpg</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
@@ -2437,7 +2501,11 @@
           <t>double.jpg</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1520115753422-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2458,7 +2526,11 @@
           <t>1520115753422-t3.jpg</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>hot</t>
@@ -2525,7 +2597,11 @@
           <t>front-mediumshot.png</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1520115753422-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2546,7 +2622,11 @@
           <t>1520115753422-t4.jpg</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -2601,7 +2681,11 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1520115753422-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">

--- a/girlsFull.xlsx
+++ b/girlsFull.xlsx
@@ -2706,7 +2706,11 @@
           <t>2-t1.jpg</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -2782,7 +2786,11 @@
           <t>2-t2.jpg</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -2845,7 +2853,11 @@
           <t>straight.jpg</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\2-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2866,7 +2878,11 @@
           <t>2-t3.jpg</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -2929,7 +2945,11 @@
           <t>3quarters-mediumshot1.jpg</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\2-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2950,7 +2970,11 @@
           <t>2-t4.jpg</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -3034,7 +3058,11 @@
           <t>203112-t1.webp</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -3093,7 +3121,11 @@
           <t>chest.jpg</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\203112-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3114,7 +3146,11 @@
           <t>203112-t2.webp</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -3185,7 +3221,11 @@
           <t>profile-mediumshot.webp</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\203112-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3206,7 +3246,11 @@
           <t>203112-t3.webp</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -3269,7 +3313,11 @@
           <t>legscrossed.jpg</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\203112-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3290,7 +3338,11 @@
           <t>203112-t4.webp</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>hot</t>
@@ -3353,7 +3405,11 @@
           <t>lie.jpg</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\203112-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3374,7 +3430,11 @@
           <t>3-t1.jpg</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -3437,7 +3497,11 @@
           <t>near-face.jpg</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\3-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3458,7 +3522,11 @@
           <t>3-t2.jpg</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -3517,7 +3585,11 @@
           <t>pop.png</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\3-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3538,7 +3610,11 @@
           <t>3-t3.jpg</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
@@ -3601,7 +3677,11 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\3-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3622,7 +3702,11 @@
           <t>3-t4.jpg</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
@@ -3706,7 +3790,11 @@
           <t>4-t1.jpg</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -3769,7 +3857,11 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\4-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">

--- a/girlsFull.xlsx
+++ b/girlsFull.xlsx
@@ -3882,7 +3882,11 @@
           <t>4-t2.jpg</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -3937,7 +3941,11 @@
           <t>legscrossed.jpg</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\4-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3958,7 +3966,11 @@
           <t>4-t3.jpg</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -4021,7 +4033,11 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\4-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4101,7 +4117,11 @@
           <t>front-americanshot.jpg</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\4-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4122,7 +4142,11 @@
           <t>5-t1.jpg</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
@@ -4185,7 +4209,11 @@
           <t>dancing.jpg</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\5-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4206,7 +4234,11 @@
           <t>5-t2.jpg</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -4261,7 +4293,11 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\5-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4282,7 +4318,11 @@
           <t>5-t3.jpg</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -4345,7 +4385,11 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\5-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4366,7 +4410,11 @@
           <t>5-t4.jpg</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -4425,7 +4473,11 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\5-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4446,7 +4498,11 @@
           <t>6-t1.jpg</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -4513,7 +4569,11 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\6-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4534,7 +4594,11 @@
           <t>6-t2.jpg</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -4593,7 +4657,11 @@
           <t>front-mediumshot.png</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\6-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4614,7 +4682,11 @@
           <t>6-t3.jpg</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -4673,7 +4745,11 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\6-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4694,7 +4770,11 @@
           <t>6-t4.jpg</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -4757,7 +4837,11 @@
           <t>3quarters-arms-up.jpg</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\6-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4778,7 +4862,11 @@
           <t>7-t1.jpg</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -4858,7 +4946,11 @@
           <t>7-t2.jpg</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -4921,7 +5013,11 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\7-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4942,7 +5038,11 @@
           <t>7-t3.jpg</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
@@ -4997,7 +5097,11 @@
           <t>face.jpg</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\7-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5018,7 +5122,11 @@
           <t>7-t4.jpg</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -5081,7 +5189,11 @@
           <t>stand-stretch.jpg</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\7-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5102,7 +5214,11 @@
           <t>9-t1.jpg</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -5169,7 +5285,11 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5190,7 +5310,11 @@
           <t>9-t2.jpg</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
@@ -5249,7 +5373,11 @@
           <t>flying-pointing.jpg</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5270,7 +5398,11 @@
           <t>9-t3.jpg</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -5333,7 +5465,11 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5354,7 +5490,11 @@
           <t>9-t4.jpg</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>hot</t>
@@ -5413,7 +5553,11 @@
           <t>arms-shoulder.jpg</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5434,7 +5578,11 @@
           <t>9238727-t1.jpg</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -5489,7 +5637,11 @@
           <t>profile-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9238727-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5510,7 +5662,11 @@
           <t>9238727-t2.jpg</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
@@ -5557,7 +5713,11 @@
           <t>stand-armscrossed.jpg</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9238727-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5578,7 +5738,11 @@
           <t>9238727-t3.jpg</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -5633,7 +5797,11 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9238727-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5654,7 +5822,11 @@
           <t>9238727-t4.jpg</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>hot</t>
@@ -5717,7 +5889,11 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9238727-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5738,7 +5914,11 @@
           <t>A-Ruby-Young-t1.png</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>hot</t>
@@ -5801,7 +5981,11 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\A-Ruby-Young-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5822,7 +6006,11 @@
           <t>A-Ruby-Young-t2.png</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -5881,7 +6069,11 @@
           <t>pose.jpg</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\A-Ruby-Young-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5902,7 +6094,11 @@
           <t>A-Ruby-Young-t3.png</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -5969,7 +6165,11 @@
           <t>group.jpg</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\A-Ruby-Young-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5990,7 +6190,11 @@
           <t>A-Ruby-Young-t4.png</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
@@ -6053,7 +6257,11 @@
           <t>olympian.jpg</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\A-Ruby-Young-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6074,7 +6282,11 @@
           <t>Albanese-t1.jpg</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -6133,7 +6345,11 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Albanese-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6154,7 +6370,11 @@
           <t>Albanese-t2.jpg</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -6230,7 +6450,11 @@
           <t>Albanese-t3.jpg</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -6289,7 +6513,11 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Albanese-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6310,7 +6538,11 @@
           <t>Albanese-t4.jpg</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
@@ -6365,7 +6597,11 @@
           <t>stretch.jpg</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Albanese-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6386,7 +6622,11 @@
           <t>AleCaballeroCreadoraDigital-t1.jpg</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
@@ -6445,7 +6685,11 @@
           <t>stand-handhead.jpg</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AleCaballeroCreadoraDigital-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6466,7 +6710,11 @@
           <t>AleCaballeroCreadoraDigital-t2.jpg</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -6533,7 +6781,11 @@
           <t>pop.png</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AleCaballeroCreadoraDigital-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6554,7 +6806,11 @@
           <t>AleCaballeroCreadoraDigital-t3.jpg</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>hot</t>
@@ -6625,7 +6881,11 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AleCaballeroCreadoraDigital-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6646,7 +6906,11 @@
           <t>AleCaballeroCreadoraDigital-t4.jpg</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -6709,7 +6973,11 @@
           <t>squat.jpg</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AleCaballeroCreadoraDigital-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6730,7 +6998,11 @@
           <t>AlejMolina-t1.jpg</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
@@ -6789,7 +7061,11 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr"/>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejMolina-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6810,7 +7086,11 @@
           <t>AlejMolina-t2.jpg</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
@@ -6877,7 +7157,11 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejMolina-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6898,7 +7182,11 @@
           <t>AlejMolina-t3.jpg</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -6957,7 +7245,11 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejMolina-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6978,7 +7270,11 @@
           <t>AlejMolina-t4.jpg</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>hot</t>
@@ -7045,7 +7341,11 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejMolina-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7066,7 +7366,11 @@
           <t>AlejandraMolina-t1.jpeg</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -7121,7 +7425,11 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejandraMolina-t1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7142,7 +7450,11 @@
           <t>AlejandraMolina-t2.jpeg</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -7201,7 +7513,11 @@
           <t>dancing.jpg</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejandraMolina-t2.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7222,7 +7538,11 @@
           <t>AlejandraMolina-t3.jpeg</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
@@ -7281,7 +7601,11 @@
           <t>3quarters-mediumshot3.png</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejandraMolina-t3.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7302,7 +7626,11 @@
           <t>AlejandraMolina-t4.jpeg</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -7361,7 +7689,11 @@
           <t>3quarters-mediumshotdown.jfif</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejandraMolina-t4.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7412,7 +7744,11 @@
           <t>AnaKournikova-t1.png</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -7479,7 +7815,11 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr"/>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaKournikova-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7500,7 +7840,11 @@
           <t>AnaKournikova-t2.png</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
@@ -7559,7 +7903,11 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr"/>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaKournikova-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7580,7 +7928,11 @@
           <t>AnaKournikova-t3.png</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -7643,7 +7995,11 @@
           <t>handup.jpg</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaKournikova-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7664,7 +8020,11 @@
           <t>AnaKournikova-t4.png</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -7731,7 +8091,11 @@
           <t>sitting.jpg</t>
         </is>
       </c>
-      <c r="T86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaKournikova-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7752,7 +8116,11 @@
           <t>Anahí-t1.png</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -7807,7 +8175,11 @@
           <t>group.jpg</t>
         </is>
       </c>
-      <c r="T87" t="inlineStr"/>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anahí-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7828,7 +8200,11 @@
           <t>Anahí-t2.png</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -7895,7 +8271,11 @@
           <t>stand-profile.jpg</t>
         </is>
       </c>
-      <c r="T88" t="inlineStr"/>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anahí-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7916,7 +8296,11 @@
           <t>Anahí-t3.png</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -7979,7 +8363,11 @@
           <t>duck-handup.jpg</t>
         </is>
       </c>
-      <c r="T89" t="inlineStr"/>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anahí-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8000,7 +8388,11 @@
           <t>Anahí-t4.png</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -8043,7 +8435,11 @@
           <t>stand-profile.jpg</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anahí-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8064,7 +8460,11 @@
           <t>AnaisTorres-t1.jpg</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -8123,7 +8523,11 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
-      <c r="T91" t="inlineStr"/>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaisTorres-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8144,7 +8548,11 @@
           <t>AnaisTorres-t2.jpg</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -8203,7 +8611,11 @@
           <t>arm-up.jpg</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr"/>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaisTorres-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8224,7 +8636,11 @@
           <t>AnaisTorres-t3.jpg</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -8283,7 +8699,11 @@
           <t>front-mediumshot.jfif</t>
         </is>
       </c>
-      <c r="T93" t="inlineStr"/>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaisTorres-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8304,7 +8724,11 @@
           <t>AnaisTorres-t4.jpg</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
@@ -8351,7 +8775,11 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr"/>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaisTorres-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8372,7 +8800,11 @@
           <t>Anny-t1.jpg</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -8435,7 +8867,11 @@
           <t>stretch.jpg</t>
         </is>
       </c>
-      <c r="T95" t="inlineStr"/>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anny-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8456,7 +8892,11 @@
           <t>Anny-t2.jpg</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -8523,7 +8963,11 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
-      <c r="T96" t="inlineStr"/>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anny-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8544,7 +8988,11 @@
           <t>Anny-t3.jpg</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -8607,7 +9055,11 @@
           <t>3quarters-mediumshot3.png</t>
         </is>
       </c>
-      <c r="T97" t="inlineStr"/>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anny-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8628,7 +9080,11 @@
           <t>Anny-t4.jpg</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -8687,7 +9143,11 @@
           <t>face.jpg</t>
         </is>
       </c>
-      <c r="T98" t="inlineStr"/>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anny-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8708,7 +9168,11 @@
           <t>AnyPokimane-t1.webp</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -8763,7 +9227,11 @@
           <t>front-mediumshot7.png</t>
         </is>
       </c>
-      <c r="T99" t="inlineStr"/>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnyPokimane-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8784,7 +9252,11 @@
           <t>AnyPokimane-t2.webp</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>hot</t>
@@ -8843,7 +9315,11 @@
           <t>stand-profile.jpg</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr"/>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnyPokimane-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8864,7 +9340,11 @@
           <t>AnyPokimane-t3.webp</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -8931,7 +9411,11 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
-      <c r="T101" t="inlineStr"/>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnyPokimane-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8952,7 +9436,11 @@
           <t>AnyPokimane-t4.webp</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -9015,7 +9503,11 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T102" t="inlineStr"/>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnyPokimane-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9036,7 +9528,11 @@
           <t>Art-t1.png</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -9099,7 +9595,11 @@
           <t>3quarters-mediumshot5.png</t>
         </is>
       </c>
-      <c r="T103" t="inlineStr"/>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Art-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9120,7 +9620,11 @@
           <t>Art-t2.png</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -9179,7 +9683,11 @@
           <t>front-mediumshot.png</t>
         </is>
       </c>
-      <c r="T104" t="inlineStr"/>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Art-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9200,7 +9708,11 @@
           <t>Art-t3.png</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -9263,7 +9775,11 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr"/>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Art-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9284,7 +9800,11 @@
           <t>Art-t4.png</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -9347,7 +9867,11 @@
           <t>handup.jpg</t>
         </is>
       </c>
-      <c r="T106" t="inlineStr"/>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Art-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9368,7 +9892,11 @@
           <t>Beautiful-Deepika-Padukone-t1.jpg</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
@@ -9431,7 +9959,11 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
-      <c r="T107" t="inlineStr"/>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Beautiful-Deepika-Padukone-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9452,7 +9984,11 @@
           <t>Beautiful-Deepika-Padukone-t2.jpg</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
@@ -9515,7 +10051,11 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
-      <c r="T108" t="inlineStr"/>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Beautiful-Deepika-Padukone-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9536,7 +10076,11 @@
           <t>Beautiful-Deepika-Padukone-t3.jpg</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -9583,7 +10127,11 @@
           <t>sitting.jpg</t>
         </is>
       </c>
-      <c r="T109" t="inlineStr"/>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Beautiful-Deepika-Padukone-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9604,7 +10152,11 @@
           <t>Beautiful-Deepika-Padukone-t4.jpg</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -9659,7 +10211,11 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
-      <c r="T110" t="inlineStr"/>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Beautiful-Deepika-Padukone-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9680,7 +10236,11 @@
           <t>Belinda-t1.jfif</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
@@ -9743,7 +10303,11 @@
           <t>kneed.jpg</t>
         </is>
       </c>
-      <c r="T111" t="inlineStr"/>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda-t1.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9764,7 +10328,11 @@
           <t>Belinda-t2.jfif</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
@@ -9827,7 +10395,11 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
-      <c r="T112" t="inlineStr"/>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda-t2.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9848,7 +10420,11 @@
           <t>Belinda-t3.jfif</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -9907,7 +10483,11 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
-      <c r="T113" t="inlineStr"/>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda-t3.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9928,7 +10508,11 @@
           <t>Belinda-t4.jfif</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -9987,7 +10571,11 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T114" t="inlineStr"/>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda-t4.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10008,7 +10596,11 @@
           <t>Belinda_Peregrin_Schull-t1.jpg</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -10063,7 +10655,11 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
-      <c r="T115" t="inlineStr"/>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda_Peregrin_Schull-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10084,7 +10680,11 @@
           <t>Belinda_Peregrin_Schull-t2.jpg</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>hot</t>
@@ -10139,7 +10739,11 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
-      <c r="T116" t="inlineStr"/>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda_Peregrin_Schull-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10160,7 +10764,11 @@
           <t>Belinda_Peregrin_Schull-t3.jpg</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>hot</t>
@@ -10223,7 +10831,11 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
-      <c r="T117" t="inlineStr"/>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda_Peregrin_Schull-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10244,7 +10856,11 @@
           <t>Belinda_Peregrin_Schull-t4.jpg</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -10307,7 +10923,11 @@
           <t>3quarters-mediumshotdown.jfif</t>
         </is>
       </c>
-      <c r="T118" t="inlineStr"/>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda_Peregrin_Schull-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10328,7 +10948,11 @@
           <t>BlancaMoreno-t1.jpg</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -10387,7 +11011,11 @@
           <t>pop.png</t>
         </is>
       </c>
-      <c r="T119" t="inlineStr"/>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BlancaMoreno-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10408,7 +11036,11 @@
           <t>BlancaMoreno-t2.jpg</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -10471,7 +11103,11 @@
           <t>stretch.jpg</t>
         </is>
       </c>
-      <c r="T120" t="inlineStr"/>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BlancaMoreno-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10492,7 +11128,11 @@
           <t>BlancaMoreno-t3.jpg</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -10555,7 +11195,11 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
-      <c r="T121" t="inlineStr"/>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BlancaMoreno-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10576,7 +11220,11 @@
           <t>BlancaMoreno-t4.jpg</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
@@ -10639,7 +11287,11 @@
           <t>stand.webp</t>
         </is>
       </c>
-      <c r="T122" t="inlineStr"/>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BlancaMoreno-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10660,7 +11312,11 @@
           <t>Branta-t1.jpeg</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
@@ -10723,7 +11379,11 @@
           <t>3q-stand.jpg</t>
         </is>
       </c>
-      <c r="T123" t="inlineStr"/>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Branta-t1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10744,7 +11404,11 @@
           <t>Branta-t2.jpeg</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -10807,7 +11471,11 @@
           <t>pose.jpg</t>
         </is>
       </c>
-      <c r="T124" t="inlineStr"/>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Branta-t2.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10828,7 +11496,11 @@
           <t>Branta-t3.jpeg</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -10891,7 +11563,11 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
-      <c r="T125" t="inlineStr"/>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Branta-t3.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10912,7 +11588,11 @@
           <t>Branta-t4.jpeg</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -10979,7 +11659,11 @@
           <t>face.jpg</t>
         </is>
       </c>
-      <c r="T126" t="inlineStr"/>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Branta-t4.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11000,7 +11684,11 @@
           <t>Brenda-t1.jpg</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
@@ -11055,7 +11743,11 @@
           <t>arm-up.jpg</t>
         </is>
       </c>
-      <c r="T127" t="inlineStr"/>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Brenda-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11076,7 +11768,11 @@
           <t>Brenda-t2.jpg</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -11139,7 +11835,11 @@
           <t>sitting.jpg</t>
         </is>
       </c>
-      <c r="T128" t="inlineStr"/>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Brenda-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11160,7 +11860,11 @@
           <t>Brenda-t3.jpg</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -11219,7 +11923,11 @@
           <t>stand-lookup.jpg</t>
         </is>
       </c>
-      <c r="T129" t="inlineStr"/>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Brenda-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11240,7 +11948,11 @@
           <t>Brenda-t4.jpg</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -11307,7 +12019,11 @@
           <t>front-mediumshotdown2.png</t>
         </is>
       </c>
-      <c r="T130" t="inlineStr"/>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Brenda-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11328,7 +12044,11 @@
           <t>BrendaVeronica-t1.jpg</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -11412,7 +12132,11 @@
           <t>BrendaVeronica-t2.jpg</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>hot</t>
@@ -11479,7 +12203,11 @@
           <t>3quarters-mediumshot.jfif</t>
         </is>
       </c>
-      <c r="T132" t="inlineStr"/>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BrendaVeronica-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11500,7 +12228,11 @@
           <t>BrendaVeronica-t3.jpg</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -11567,7 +12299,11 @@
           <t>17.webp</t>
         </is>
       </c>
-      <c r="T133" t="inlineStr"/>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BrendaVeronica-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11588,7 +12324,11 @@
           <t>BrendaVeronica-t4.jpg</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -11647,7 +12387,11 @@
           <t>front.webp</t>
         </is>
       </c>
-      <c r="T134" t="inlineStr"/>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BrendaVeronica-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11668,7 +12412,11 @@
           <t>CaroGil-t1.png</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -11723,7 +12471,11 @@
           <t>spread.jpg</t>
         </is>
       </c>
-      <c r="T135" t="inlineStr"/>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\CaroGil-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11744,7 +12496,11 @@
           <t>CaroGil-t2.png</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>hot</t>
@@ -11799,7 +12555,11 @@
           <t>group.jpg</t>
         </is>
       </c>
-      <c r="T136" t="inlineStr"/>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\CaroGil-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11820,7 +12580,11 @@
           <t>CaroGil-t3.png</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
@@ -11883,7 +12647,11 @@
           <t>stand-legsopen.jpg</t>
         </is>
       </c>
-      <c r="T137" t="inlineStr"/>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\CaroGil-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11904,7 +12672,11 @@
           <t>CaroGil-t4.png</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>hot</t>
@@ -11980,7 +12752,11 @@
           <t>ClauDrew-t1.jpg</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -12043,7 +12819,11 @@
           <t>front-americanshot1.jpg</t>
         </is>
       </c>
-      <c r="T139" t="inlineStr"/>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ClauDrew-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -12064,7 +12844,11 @@
           <t>ClauDrew-t2.jpg</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -12123,7 +12907,11 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
-      <c r="T140" t="inlineStr"/>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ClauDrew-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -12144,7 +12932,11 @@
           <t>ClauDrew-t3.jpg</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -12211,7 +13003,11 @@
           <t>stand-takearm.jpg</t>
         </is>
       </c>
-      <c r="T141" t="inlineStr"/>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ClauDrew-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -12232,7 +13028,11 @@
           <t>ClauDrew-t4.jpg</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -12295,7 +13095,11 @@
           <t>front-mediumshot5.png</t>
         </is>
       </c>
-      <c r="T142" t="inlineStr"/>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ClauDrew-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -12316,7 +13120,11 @@
           <t>Cougar-t1.png</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
@@ -12371,7 +13179,11 @@
           <t>flying-pointing.jpg</t>
         </is>
       </c>
-      <c r="T143" t="inlineStr"/>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Cougar-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12392,7 +13204,11 @@
           <t>Cougar-t2.png</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -12455,7 +13271,11 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
-      <c r="T144" t="inlineStr"/>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Cougar-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12476,7 +13296,11 @@
           <t>Cougar-t3.png</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
@@ -12531,7 +13355,11 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
-      <c r="T145" t="inlineStr"/>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Cougar-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12552,7 +13380,11 @@
           <t>Cougar-t4.png</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -12619,7 +13451,11 @@
           <t>front-medium-arms2.webp</t>
         </is>
       </c>
-      <c r="T146" t="inlineStr"/>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Cougar-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12640,7 +13476,11 @@
           <t>DamarizGonzalez-t1.jpg</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -12699,7 +13539,11 @@
           <t>handup.jpg</t>
         </is>
       </c>
-      <c r="T147" t="inlineStr"/>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DamarizGonzalez-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12720,7 +13564,11 @@
           <t>DamarizGonzalez-t2.jpg</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
@@ -12779,7 +13627,11 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
-      <c r="T148" t="inlineStr"/>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DamarizGonzalez-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12800,7 +13652,11 @@
           <t>DamarizGonzalez-t3.jpg</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
@@ -12863,7 +13719,11 @@
           <t>stand-far.jpg</t>
         </is>
       </c>
-      <c r="T149" t="inlineStr"/>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DamarizGonzalez-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">

--- a/girlsFull.xlsx
+++ b/girlsFull.xlsx
@@ -13744,7 +13744,11 @@
           <t>DamarizGonzalez-t4.jpg</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
@@ -13799,7 +13803,11 @@
           <t>3quarters-mediumshot1.jpg</t>
         </is>
       </c>
-      <c r="T150" t="inlineStr"/>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DamarizGonzalez-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -13820,7 +13828,11 @@
           <t>DanielaCohen-t1.jpg</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -13883,7 +13895,11 @@
           <t>stand.webp</t>
         </is>
       </c>
-      <c r="T151" t="inlineStr"/>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanielaCohen-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -13904,7 +13920,11 @@
           <t>DanielaCohen-t2.jpg</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -13955,7 +13975,11 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
-      <c r="T152" t="inlineStr"/>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanielaCohen-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -13976,7 +14000,11 @@
           <t>DanielaCohen-t3.jpg</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
@@ -14031,7 +14059,11 @@
           <t>spread.jpg</t>
         </is>
       </c>
-      <c r="T153" t="inlineStr"/>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanielaCohen-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -14052,7 +14084,11 @@
           <t>DanielaCohen-t4.jpg</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -14119,7 +14155,11 @@
           <t>lie.jpg</t>
         </is>
       </c>
-      <c r="T154" t="inlineStr"/>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanielaCohen-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -14140,7 +14180,11 @@
           <t>DanyGC-t1.png</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -14224,7 +14268,11 @@
           <t>DanyGC-t2.png</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -14283,7 +14331,11 @@
           <t>weights-armsup.webp</t>
         </is>
       </c>
-      <c r="T156" t="inlineStr"/>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanyGC-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -14304,7 +14356,11 @@
           <t>DanyGC-t3.png</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr">
         <is>
           <t>hot</t>
@@ -14363,7 +14419,11 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
-      <c r="T157" t="inlineStr"/>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanyGC-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -14384,7 +14444,11 @@
           <t>DanyGC-t4.png</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
@@ -14439,7 +14503,11 @@
           <t>handup.jpg</t>
         </is>
       </c>
-      <c r="T158" t="inlineStr"/>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanyGC-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -14460,7 +14528,11 @@
           <t>Descendants-t1.webp</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -14523,7 +14595,11 @@
           <t>front-mediumshot2.png</t>
         </is>
       </c>
-      <c r="T159" t="inlineStr"/>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Descendants-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -14544,7 +14620,11 @@
           <t>Descendants-t2.webp</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>hot</t>
@@ -14607,7 +14687,11 @@
           <t>standing.jpg</t>
         </is>
       </c>
-      <c r="T160" t="inlineStr"/>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Descendants-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -14628,7 +14712,11 @@
           <t>Descendants-t3.webp</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -14691,7 +14779,11 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
-      <c r="T161" t="inlineStr"/>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Descendants-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -14712,7 +14804,11 @@
           <t>Descendants-t4.webp</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
@@ -14775,7 +14871,11 @@
           <t>stand-look.jpg</t>
         </is>
       </c>
-      <c r="T162" t="inlineStr"/>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Descendants-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -14796,7 +14896,11 @@
           <t>DianitaGonzalez-t1.jpg</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
@@ -14855,7 +14959,11 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
-      <c r="T163" t="inlineStr"/>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DianitaGonzalez-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -14876,7 +14984,11 @@
           <t>DianitaGonzalez-t2.jpg</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -14935,7 +15047,11 @@
           <t>dancing.jpg</t>
         </is>
       </c>
-      <c r="T164" t="inlineStr"/>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DianitaGonzalez-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -14956,7 +15072,11 @@
           <t>DianitaGonzalez-t3.jpg</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr">
         <is>
           <t>hot</t>
@@ -15015,7 +15135,11 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
-      <c r="T165" t="inlineStr"/>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DianitaGonzalez-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -15036,7 +15160,11 @@
           <t>DianitaGonzalez-t4.jpg</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -15091,7 +15219,11 @@
           <t>handinchest.jpg</t>
         </is>
       </c>
-      <c r="T166" t="inlineStr"/>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DianitaGonzalez-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -15112,7 +15244,11 @@
           <t>DirectoraLiz-t1.jpg</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
@@ -15171,7 +15307,11 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
-      <c r="T167" t="inlineStr"/>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DirectoraLiz-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -15192,7 +15332,11 @@
           <t>DirectoraLiz-t2.jpg</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F168" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -15251,7 +15395,11 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
-      <c r="T168" t="inlineStr"/>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DirectoraLiz-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -15272,7 +15420,11 @@
           <t>DirectoraLiz-t3.jpg</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F169" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -15335,7 +15487,11 @@
           <t>3quarters-mediumshot3.png</t>
         </is>
       </c>
-      <c r="T169" t="inlineStr"/>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DirectoraLiz-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -15356,7 +15512,11 @@
           <t>DirectoraLiz-t4.jpg</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -15415,7 +15575,11 @@
           <t>stand-profile.jpg</t>
         </is>
       </c>
-      <c r="T170" t="inlineStr"/>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DirectoraLiz-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -15436,7 +15600,11 @@
           <t>Dove_Cameron-t1.webp</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -15495,7 +15663,11 @@
           <t>halfbody-handswaist.webp</t>
         </is>
       </c>
-      <c r="T171" t="inlineStr"/>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dove_Cameron-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -15516,7 +15688,11 @@
           <t>Dove_Cameron-t2.webp</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -15600,7 +15776,11 @@
           <t>Dove_Cameron-t3.webp</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -15663,7 +15843,11 @@
           <t>hand-peacelove.jfif</t>
         </is>
       </c>
-      <c r="T173" t="inlineStr"/>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dove_Cameron-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -15684,7 +15868,11 @@
           <t>Dove_Cameron-t4.webp</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -15743,7 +15931,11 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
-      <c r="T174" t="inlineStr"/>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dove_Cameron-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -15764,7 +15956,11 @@
           <t>DuaLipa-t1.jfif</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -15852,7 +16048,11 @@
           <t>DuaLipa-t2.jfif</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -15911,7 +16111,11 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
-      <c r="T176" t="inlineStr"/>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DuaLipa-t2.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -15932,7 +16136,11 @@
           <t>DuaLipa-t3.jfif</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
@@ -15983,7 +16191,11 @@
           <t>dancing.jpg</t>
         </is>
       </c>
-      <c r="T177" t="inlineStr"/>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DuaLipa-t3.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -16004,7 +16216,11 @@
           <t>DuaLipa-t4.jfif</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F178" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -16063,7 +16279,11 @@
           <t>squat-handup.webp</t>
         </is>
       </c>
-      <c r="T178" t="inlineStr"/>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DuaLipa-t4.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -16084,7 +16304,11 @@
           <t>Dulce-t1.png</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
@@ -16139,7 +16363,11 @@
           <t>3q-stand.jpg</t>
         </is>
       </c>
-      <c r="T179" t="inlineStr"/>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dulce-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -16160,7 +16388,11 @@
           <t>Dulce-t2.png</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F180" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -16219,7 +16451,11 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
-      <c r="T180" t="inlineStr"/>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dulce-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -16240,7 +16476,11 @@
           <t>Dulce-t3.png</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F181" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -16307,7 +16547,11 @@
           <t>stand-stretch.jpg</t>
         </is>
       </c>
-      <c r="T181" t="inlineStr"/>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dulce-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -16328,7 +16572,11 @@
           <t>Dulce-t4.png</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
@@ -16387,7 +16635,11 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
-      <c r="T182" t="inlineStr"/>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dulce-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -16408,7 +16660,11 @@
           <t>Eiza_Gonzalez_for_Vogue_Mexico-t1.jpg</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F183" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -16463,7 +16719,11 @@
           <t>profile-mediumshot.webp</t>
         </is>
       </c>
-      <c r="T183" t="inlineStr"/>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Eiza_Gonzalez_for_Vogue_Mexico-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -16484,7 +16744,11 @@
           <t>Eiza_Gonzalez_for_Vogue_Mexico-t2.jpg</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>concurrent.futures._base.CancelledError</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -16564,7 +16828,11 @@
           <t>Eiza_Gonzalez_for_Vogue_Mexico-t3.jpg</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F185" t="inlineStr">
         <is>
           <t>hot</t>
@@ -16623,7 +16891,11 @@
           <t>3quarters-mediumshot6.png</t>
         </is>
       </c>
-      <c r="T185" t="inlineStr"/>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Eiza_Gonzalez_for_Vogue_Mexico-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -16644,7 +16916,11 @@
           <t>Eiza_Gonzalez_for_Vogue_Mexico-t4.jpg</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
@@ -16703,7 +16979,11 @@
           <t>profile-smile.jfif</t>
         </is>
       </c>
-      <c r="T186" t="inlineStr"/>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Eiza_Gonzalez_for_Vogue_Mexico-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -16724,7 +17004,11 @@
           <t>EmmaRoss-t1.jfif</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
@@ -16804,7 +17088,11 @@
           <t>EmmaRoss-t2.jfif</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F188" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -16871,7 +17159,11 @@
           <t>stand-takearm.jpg</t>
         </is>
       </c>
-      <c r="T188" t="inlineStr"/>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EmmaRoss-t2.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -16892,7 +17184,11 @@
           <t>EmmaRoss-t3.jfif</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -16955,7 +17251,11 @@
           <t>spread.jpg</t>
         </is>
       </c>
-      <c r="T189" t="inlineStr"/>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EmmaRoss-t3.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -16976,7 +17276,11 @@
           <t>EmmaRoss-t4.jfif</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
@@ -17035,7 +17339,11 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
-      <c r="T190" t="inlineStr"/>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EmmaRoss-t4.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -17056,7 +17364,11 @@
           <t>ErickaHernandez-t1.jpg</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
@@ -17111,7 +17423,11 @@
           <t>stand-untilknee.jpg</t>
         </is>
       </c>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ErickaHernandez-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -17132,7 +17448,11 @@
           <t>ErickaHernandez-t2.jpg</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
@@ -17183,7 +17503,11 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
-      <c r="T192" t="inlineStr"/>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ErickaHernandez-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -17204,7 +17528,11 @@
           <t>ErickaHernandez-t3.jpg</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F193" t="inlineStr">
         <is>
           <t>hot</t>
@@ -17259,7 +17587,11 @@
           <t>3q-stand.jpg</t>
         </is>
       </c>
-      <c r="T193" t="inlineStr"/>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ErickaHernandez-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -17280,7 +17612,11 @@
           <t>ErickaHernandez-t4.jpg</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F194" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -17364,7 +17700,11 @@
           <t>EstefaníaMontaño-t1.jpg</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
@@ -17448,7 +17788,11 @@
           <t>EstefaníaMontaño-t2.jpg</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -17499,7 +17843,11 @@
           <t>stand-handsdown.jpg</t>
         </is>
       </c>
-      <c r="T196" t="inlineStr"/>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EstefaníaMontaño-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -17520,7 +17868,11 @@
           <t>EstefaníaMontaño-t3.jpg</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F197" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -17587,7 +17939,11 @@
           <t>kneed.jpg</t>
         </is>
       </c>
-      <c r="T197" t="inlineStr"/>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EstefaníaMontaño-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -17608,7 +17964,11 @@
           <t>EstefaníaMontaño-t4.jpg</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F198" t="inlineStr">
         <is>
           <t>hot</t>
@@ -17667,7 +18027,11 @@
           <t>face.jpg</t>
         </is>
       </c>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EstefaníaMontaño-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -17688,7 +18052,11 @@
           <t>Genda-t1.jpg</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F199" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -17776,7 +18144,11 @@
           <t>Genda-t2.jpg</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F200" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -17847,7 +18219,11 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T200" t="inlineStr"/>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Genda-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -17868,7 +18244,11 @@
           <t>Genda-t3.jpg</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F201" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -17931,7 +18311,11 @@
           <t>back.jpg</t>
         </is>
       </c>
-      <c r="T201" t="inlineStr"/>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Genda-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -17952,7 +18336,11 @@
           <t>Genda-t4.jpg</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F202" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -18015,7 +18403,11 @@
           <t>stand-far.jpg</t>
         </is>
       </c>
-      <c r="T202" t="inlineStr"/>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Genda-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -18036,7 +18428,11 @@
           <t>GettyImages-1395800429-t1.webp</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F203" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -18099,7 +18495,11 @@
           <t>stand.jfif</t>
         </is>
       </c>
-      <c r="T203" t="inlineStr"/>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\GettyImages-1395800429-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -18120,7 +18520,11 @@
           <t>GettyImages-1395800429-t2.webp</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F204" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -18175,7 +18579,11 @@
           <t>profile-mediumshot.webp</t>
         </is>
       </c>
-      <c r="T204" t="inlineStr"/>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\GettyImages-1395800429-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -18196,7 +18604,11 @@
           <t>GettyImages-1395800429-t3.webp</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F205" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -18251,7 +18663,11 @@
           <t>front-mediumshot5.png</t>
         </is>
       </c>
-      <c r="T205" t="inlineStr"/>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\GettyImages-1395800429-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -18272,7 +18688,11 @@
           <t>GettyImages-1395800429-t4.webp</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>concurrent.futures._base.CancelledError</t>
+        </is>
+      </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
@@ -18308,7 +18728,11 @@
           <t>Girl-t1.jpg</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
@@ -18363,7 +18787,11 @@
           <t>front-mediumshot4.png</t>
         </is>
       </c>
-      <c r="T207" t="inlineStr"/>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Girl-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -18384,7 +18812,11 @@
           <t>Girl-t2.jpg</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr">
         <is>
@@ -18443,7 +18875,11 @@
           <t>standing.jpg</t>
         </is>
       </c>
-      <c r="T208" t="inlineStr"/>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Girl-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -18464,7 +18900,11 @@
           <t>Girl-t3.jpg</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
         <is>
@@ -18519,7 +18959,11 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
-      <c r="T209" t="inlineStr"/>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Girl-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -18540,7 +18984,11 @@
           <t>Girl-t4.jpg</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F210" t="inlineStr">
         <is>
           <t>hot</t>
@@ -18603,7 +19051,11 @@
           <t>stand-stretch.jpg</t>
         </is>
       </c>
-      <c r="T210" t="inlineStr"/>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Girl-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -18624,7 +19076,11 @@
           <t>Grrrr-t1.png</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Unable to detect a face in the image. Please upload a different photo with a clear face.'</t>
+        </is>
+      </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr">
         <is>
@@ -18704,7 +19160,11 @@
           <t>Grrrr-t2.png</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Unable to detect a face in the image. Please upload a different photo with a clear face.'</t>
+        </is>
+      </c>
       <c r="F212" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -18784,7 +19244,11 @@
           <t>Grrrr-t3.png</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Unable to detect a face in the image. Please upload a different photo with a clear face.'</t>
+        </is>
+      </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
@@ -18864,7 +19328,11 @@
           <t>Grrrr-t4.png</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>concurrent.futures._base.CancelledError</t>
+        </is>
+      </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
@@ -18900,7 +19368,11 @@
           <t>Haydeloo-t1.png</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F215" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -18971,7 +19443,11 @@
           <t>stand-look.jpg</t>
         </is>
       </c>
-      <c r="T215" t="inlineStr"/>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Haydeloo-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -18992,7 +19468,11 @@
           <t>Haydeloo-t2.png</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F216" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -19059,7 +19539,11 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T216" t="inlineStr"/>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Haydeloo-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -19080,7 +19564,11 @@
           <t>Haydeloo-t3.png</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F217" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -19143,7 +19631,11 @@
           <t>stand-handhead.jpg</t>
         </is>
       </c>
-      <c r="T217" t="inlineStr"/>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Haydeloo-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -19164,7 +19656,11 @@
           <t>Haydeloo-t4.png</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F218" t="inlineStr">
         <is>
           <t>hot</t>
@@ -19219,7 +19715,11 @@
           <t>pop.png</t>
         </is>
       </c>
-      <c r="T218" t="inlineStr"/>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Haydeloo-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -19240,7 +19740,11 @@
           <t>IMG_9998-t1.jpg</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -19299,7 +19803,11 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
-      <c r="T219" t="inlineStr"/>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9998-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -19320,7 +19828,11 @@
           <t>IMG_9998-t2.jpg</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F220" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -19383,7 +19895,11 @@
           <t>near-face.jpg</t>
         </is>
       </c>
-      <c r="T220" t="inlineStr"/>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9998-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -19404,7 +19920,11 @@
           <t>IMG_9998-t3.jpg</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F221" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -19459,7 +19979,11 @@
           <t>stand-legsopen.jpg</t>
         </is>
       </c>
-      <c r="T221" t="inlineStr"/>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9998-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -19480,7 +20004,11 @@
           <t>IMG_9998-t4.jpg</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F222" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -19539,7 +20067,11 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T222" t="inlineStr"/>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9998-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -19560,7 +20092,11 @@
           <t>IMG_9999-t1.jpg</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F223" t="inlineStr">
         <is>
           <t>hot</t>
@@ -19623,7 +20159,11 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
-      <c r="T223" t="inlineStr"/>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9999-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -19644,7 +20184,11 @@
           <t>IMG_9999-t2.jpg</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F224" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -19703,7 +20247,11 @@
           <t>lie.jpg</t>
         </is>
       </c>
-      <c r="T224" t="inlineStr"/>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9999-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -19724,7 +20272,11 @@
           <t>IMG_9999-t3.jpg</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
@@ -19771,7 +20323,11 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
-      <c r="T225" t="inlineStr"/>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9999-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -19792,7 +20348,11 @@
           <t>IMG_9999-t4.jpg</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F226" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -19855,7 +20415,11 @@
           <t>behind.jpg</t>
         </is>
       </c>
-      <c r="T226" t="inlineStr"/>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9999-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -19876,7 +20440,11 @@
           <t>IMG_XXXX-t1.jpg</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
@@ -19939,7 +20507,11 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T227" t="inlineStr"/>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_XXXX-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -19960,7 +20532,11 @@
           <t>IMG_XXXX-t2.jpg</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
@@ -20019,7 +20595,11 @@
           <t>straight.jpg</t>
         </is>
       </c>
-      <c r="T228" t="inlineStr"/>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_XXXX-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -20040,7 +20620,11 @@
           <t>IMG_XXXX-t3.jpg</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -20095,7 +20679,11 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
-      <c r="T229" t="inlineStr"/>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_XXXX-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -20116,7 +20704,11 @@
           <t>IMG_XXXX-t4.jpg</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr">
         <is>
@@ -20179,7 +20771,11 @@
           <t>hands-waist.webp</t>
         </is>
       </c>
-      <c r="T230" t="inlineStr"/>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_XXXX-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -20200,7 +20796,11 @@
           <t>Indeya-t1.png</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F231" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -20255,7 +20855,11 @@
           <t>wow.webp</t>
         </is>
       </c>
-      <c r="T231" t="inlineStr"/>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Indeya-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -20276,7 +20880,11 @@
           <t>Indeya-t2.png</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr">
         <is>
@@ -20335,7 +20943,11 @@
           <t>straight.jpg</t>
         </is>
       </c>
-      <c r="T232" t="inlineStr"/>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Indeya-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -20356,7 +20968,11 @@
           <t>Indeya-t3.png</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F233" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -20444,7 +21060,11 @@
           <t>Indeya-t4.png</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F234" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -20503,7 +21123,11 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
-      <c r="T234" t="inlineStr"/>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Indeya-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -20524,7 +21148,11 @@
           <t>IndeyaPassfield-t1.png</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F235" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -20587,7 +21215,11 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
-      <c r="T235" t="inlineStr"/>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IndeyaPassfield-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -20608,7 +21240,11 @@
           <t>IndeyaPassfield-t2.png</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F236" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -20675,7 +21311,11 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
-      <c r="T236" t="inlineStr"/>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IndeyaPassfield-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -20696,7 +21336,11 @@
           <t>IndeyaPassfield-t3.png</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr">
         <is>
@@ -20755,7 +21399,11 @@
           <t>straight-handsback.jpg</t>
         </is>
       </c>
-      <c r="T237" t="inlineStr"/>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IndeyaPassfield-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -20776,7 +21424,11 @@
           <t>IndeyaPassfield-t4.png</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F238" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -20835,7 +21487,11 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
-      <c r="T238" t="inlineStr"/>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IndeyaPassfield-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -20856,7 +21512,11 @@
           <t>InesAcademia-t1.jpg</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr">
         <is>
@@ -20919,7 +21579,11 @@
           <t>chest.jpg</t>
         </is>
       </c>
-      <c r="T239" t="inlineStr"/>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\InesAcademia-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -20940,7 +21604,11 @@
           <t>InesAcademia-t2.jpg</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F240" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -21007,7 +21675,11 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
-      <c r="T240" t="inlineStr"/>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\InesAcademia-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -21028,7 +21700,11 @@
           <t>InesAcademia-t3.jpg</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr">
@@ -21091,7 +21767,11 @@
           <t>front.webp</t>
         </is>
       </c>
-      <c r="T241" t="inlineStr"/>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\InesAcademia-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -21112,7 +21792,11 @@
           <t>InesAcademia-t4.jpg</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr">
@@ -21175,7 +21859,11 @@
           <t>front-mediumshotdown1.png</t>
         </is>
       </c>
-      <c r="T242" t="inlineStr"/>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\InesAcademia-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -21196,7 +21884,11 @@
           <t>Inés-t1.jfif</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F243" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -21247,7 +21939,11 @@
           <t>half-body.jpg</t>
         </is>
       </c>
-      <c r="T243" t="inlineStr"/>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t1.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -21268,7 +21964,11 @@
           <t>Inés-t2.jfif</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -21323,7 +22023,11 @@
           <t>face.jpg</t>
         </is>
       </c>
-      <c r="T244" t="inlineStr"/>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t2.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -21344,7 +22048,11 @@
           <t>Inés-t3.jfif</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F245" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -21407,7 +22115,11 @@
           <t>handinchest.jpg</t>
         </is>
       </c>
-      <c r="T245" t="inlineStr"/>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t3.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -21428,7 +22140,11 @@
           <t>Inés-t4.jfif</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F246" t="inlineStr">
         <is>
           <t>hot</t>
@@ -21483,7 +22199,11 @@
           <t>squat-handup.webp</t>
         </is>
       </c>
-      <c r="T246" t="inlineStr"/>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t4.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -21504,7 +22224,11 @@
           <t>Inés-t1.webp</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F247" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -21559,7 +22283,11 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
-      <c r="T247" t="inlineStr"/>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -21580,7 +22308,11 @@
           <t>Inés-t2.webp</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F248" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -21643,7 +22375,11 @@
           <t>hand-in-chest.webp</t>
         </is>
       </c>
-      <c r="T248" t="inlineStr"/>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -21664,7 +22400,11 @@
           <t>Inés-t3.webp</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr">
         <is>
@@ -21723,7 +22463,11 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
-      <c r="T249" t="inlineStr"/>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -21744,7 +22488,11 @@
           <t>Inés-t4.webp</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F250" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -21807,7 +22555,11 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
-      <c r="T250" t="inlineStr"/>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -21828,7 +22580,11 @@
           <t>Inés_Sainz_Gallo-t1.jpg</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F251" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -21887,7 +22643,11 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
-      <c r="T251" t="inlineStr"/>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés_Sainz_Gallo-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -21908,7 +22668,11 @@
           <t>Inés_Sainz_Gallo-t2.jpg</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr"/>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F252" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -21975,7 +22739,11 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
-      <c r="T252" t="inlineStr"/>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés_Sainz_Gallo-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -21996,7 +22764,11 @@
           <t>Inés_Sainz_Gallo-t3.jpg</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F253" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -22055,7 +22827,11 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T253" t="inlineStr"/>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés_Sainz_Gallo-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -22076,7 +22852,11 @@
           <t>Inés_Sainz_Gallo-t4.jpg</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F254" t="inlineStr">
         <is>
           <t>hot</t>
@@ -22139,7 +22919,11 @@
           <t>front-mediumdownshot.png</t>
         </is>
       </c>
-      <c r="T254" t="inlineStr"/>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés_Sainz_Gallo-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -22190,7 +22974,11 @@
           <t>Iri-Young-t1.jpg</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F256" t="inlineStr">
         <is>
           <t>hot</t>
@@ -22249,7 +23037,11 @@
           <t>face.jpg</t>
         </is>
       </c>
-      <c r="T256" t="inlineStr"/>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Iri-Young-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -22270,7 +23062,11 @@
           <t>Iri-Young-t2.jpg</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
@@ -22309,7 +23105,11 @@
           <t>chest.jpg</t>
         </is>
       </c>
-      <c r="T257" t="inlineStr"/>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Iri-Young-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -22330,7 +23130,11 @@
           <t>Iri-Young-t3.jpg</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F258" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -22397,7 +23201,11 @@
           <t>3quarters-mediumshot4.png</t>
         </is>
       </c>
-      <c r="T258" t="inlineStr"/>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Iri-Young-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -22418,7 +23226,11 @@
           <t>Iri-Young-t4.jpg</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F259" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -22481,7 +23293,11 @@
           <t>profile-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T259" t="inlineStr"/>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Iri-Young-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -22502,7 +23318,11 @@
           <t>Irina-t1.jpg</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F260" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -22569,7 +23389,11 @@
           <t>hands-behind-head.webp</t>
         </is>
       </c>
-      <c r="T260" t="inlineStr"/>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Irina-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -22590,7 +23414,11 @@
           <t>Irina-t2.jpg</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F261" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -22657,7 +23485,11 @@
           <t>3quarters-mediumshot2.png</t>
         </is>
       </c>
-      <c r="T261" t="inlineStr"/>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Irina-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -22678,7 +23510,11 @@
           <t>Irina-t3.jpg</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr">
         <is>
@@ -22741,7 +23577,11 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
-      <c r="T262" t="inlineStr"/>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Irina-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -22762,7 +23602,11 @@
           <t>Irina-t4.jpg</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F263" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -22838,7 +23682,11 @@
           <t>IsaRomo-t1.jpg</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F264" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -22901,7 +23749,11 @@
           <t>front-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T264" t="inlineStr"/>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsaRomo-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -23002,7 +23854,11 @@
           <t>IsaRomo-t3.jpg</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F266" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -23065,7 +23921,11 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
-      <c r="T266" t="inlineStr"/>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsaRomo-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -23086,7 +23946,11 @@
           <t>IsaRomo-t4.jpg</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F267" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -23149,7 +24013,11 @@
           <t>smile-handsbehind.webp</t>
         </is>
       </c>
-      <c r="T267" t="inlineStr"/>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsaRomo-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -23170,7 +24038,11 @@
           <t>IsabelRomo-t1.jpg</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F268" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -23225,7 +24097,11 @@
           <t>3quarters-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T268" t="inlineStr"/>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsabelRomo-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -23246,7 +24122,11 @@
           <t>IsabelRomo-t2.jpg</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F269" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -23313,7 +24193,11 @@
           <t>dancing.jpg</t>
         </is>
       </c>
-      <c r="T269" t="inlineStr"/>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsabelRomo-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -23334,7 +24218,11 @@
           <t>IsabelRomo-t3.jpg</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F270" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -23397,7 +24285,11 @@
           <t>handup-2.jpg</t>
         </is>
       </c>
-      <c r="T270" t="inlineStr"/>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsabelRomo-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -23418,7 +24310,11 @@
           <t>IsabelRomo-t4.jpg</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F271" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -23477,7 +24373,11 @@
           <t>front-mediumshot3.png</t>
         </is>
       </c>
-      <c r="T271" t="inlineStr"/>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsabelRomo-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -23498,7 +24398,11 @@
           <t>JenniferAniston-t1.jpg</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
@@ -23574,7 +24478,11 @@
           <t>JenniferAniston-t2.jpg</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F273" t="inlineStr">
         <is>
           <t>hot</t>
@@ -23629,7 +24537,11 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
-      <c r="T273" t="inlineStr"/>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JenniferAniston-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -23650,7 +24562,11 @@
           <t>JenniferAniston-t3.jpg</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr"/>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F274" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -23717,7 +24633,11 @@
           <t>halfbody.jpg</t>
         </is>
       </c>
-      <c r="T274" t="inlineStr"/>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JenniferAniston-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -23738,7 +24658,11 @@
           <t>JenniferAniston-t4.jpg</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr"/>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Cannot find any face in the reference image! Please upload another person image'</t>
+        </is>
+      </c>
       <c r="F275" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -23822,7 +24746,11 @@
           <t>JzzReyes2-t1.jpg</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr"/>
@@ -23877,7 +24805,11 @@
           <t>front-mediumshotdown.jpeg</t>
         </is>
       </c>
-      <c r="T276" t="inlineStr"/>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JzzReyes2-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -23898,7 +24830,11 @@
           <t>JzzReyes2-t2.jpg</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
@@ -23957,7 +24893,11 @@
           <t>handup.jpg</t>
         </is>
       </c>
-      <c r="T277" t="inlineStr"/>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JzzReyes2-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -23978,7 +24918,11 @@
           <t>JzzReyes2-t3.jpg</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F278" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -24041,7 +24985,11 @@
           <t>sitting.jpg</t>
         </is>
       </c>
-      <c r="T278" t="inlineStr"/>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JzzReyes2-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -24062,7 +25010,11 @@
           <t>JzzReyes2-t4.jpg</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr"/>
@@ -24121,7 +25073,11 @@
           <t>3quarters-arms-up.jpg</t>
         </is>
       </c>
-      <c r="T279" t="inlineStr"/>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JzzReyes2-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -24142,7 +25098,11 @@
           <t>KarenGillian-t1.webp</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F280" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -24205,7 +25165,11 @@
           <t>squat-handup.webp</t>
         </is>
       </c>
-      <c r="T280" t="inlineStr"/>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarenGillian-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -24226,7 +25190,11 @@
           <t>KarenGillian-t2.webp</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F281" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -24285,7 +25253,11 @@
           <t>arms-shoulder.jpg</t>
         </is>
       </c>
-      <c r="T281" t="inlineStr"/>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarenGillian-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -24306,7 +25278,11 @@
           <t>KarenGillian-t3.webp</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr"/>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F282" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -24369,7 +25345,11 @@
           <t>front-mediumshot6.png</t>
         </is>
       </c>
-      <c r="T282" t="inlineStr"/>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarenGillian-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -24390,7 +25370,11 @@
           <t>KarenGillian-t4.webp</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F283" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -24453,7 +25437,11 @@
           <t>front-mediumshot1.png</t>
         </is>
       </c>
-      <c r="T283" t="inlineStr"/>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarenGillian-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -24474,7 +25462,11 @@
           <t>Karen_GillianFace-t1.webp</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr"/>
@@ -24521,7 +25513,11 @@
           <t>front-mediumshot9.png</t>
         </is>
       </c>
-      <c r="T284" t="inlineStr"/>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Karen_GillianFace-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -24542,7 +25538,11 @@
           <t>Karen_GillianFace-t2.webp</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr"/>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F285" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -24601,7 +25601,11 @@
           <t>3quarters-mediumshotdown.webp</t>
         </is>
       </c>
-      <c r="T285" t="inlineStr"/>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Karen_GillianFace-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -24622,7 +25626,11 @@
           <t>Karen_GillianFace-t3.webp</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr"/>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F286" t="inlineStr">
         <is>
           <t>hot</t>
@@ -24685,7 +25693,11 @@
           <t>profile-mediumshot.jpg</t>
         </is>
       </c>
-      <c r="T286" t="inlineStr"/>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Karen_GillianFace-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -24706,7 +25718,11 @@
           <t>Karen_GillianFace-t4.webp</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr"/>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr">
         <is>
@@ -24753,7 +25769,11 @@
           <t>stand-sit.jpg</t>
         </is>
       </c>
-      <c r="T287" t="inlineStr"/>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Karen_GillianFace-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -24774,7 +25794,11 @@
           <t>KarlaJeans-t1.jpg</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr"/>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F288" t="inlineStr">
         <is>
           <t>beautiful</t>
@@ -24841,7 +25865,11 @@
           <t>legscrossed.jpg</t>
         </is>
       </c>
-      <c r="T288" t="inlineStr"/>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarlaJeans-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -24862,7 +25890,11 @@
           <t>KarlaJeans-t2.jpg</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F289" t="inlineStr">
         <is>
           <t>hot</t>
@@ -24933,7 +25965,11 @@
           <t>far-fullbody.jpg</t>
         </is>
       </c>
-      <c r="T289" t="inlineStr"/>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarlaJeans-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -24954,7 +25990,11 @@
           <t>KarlaJeans-t3.jpg</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr"/>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F290" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -25017,7 +26057,11 @@
           <t>lie.jpg</t>
         </is>
       </c>
-      <c r="T290" t="inlineStr"/>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarlaJeans-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -25038,7 +26082,11 @@
           <t>KarlaJeans-t4.jpg</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F291" t="inlineStr">
         <is>
           <t>in leather</t>
@@ -25105,7 +26153,11 @@
           <t>stand-untilknee.jpg</t>
         </is>
       </c>
-      <c r="T291" t="inlineStr"/>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarlaJeans-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -25126,7 +26178,11 @@
           <t>KatePerry-t1.png</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">
@@ -25177,7 +26233,11 @@
           <t>stand-profile-2.jpg</t>
         </is>
       </c>
-      <c r="T292" t="inlineStr"/>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatePerry-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -25198,7 +26258,11 @@
           <t>KatePerry-t2.png</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F293" t="inlineStr">
         <is>
           <t>hot</t>
@@ -25261,7 +26325,11 @@
           <t>stand.webp</t>
         </is>
       </c>
-      <c r="T293" t="inlineStr"/>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatePerry-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -25282,7 +26350,11 @@
           <t>KatePerry-t3.png</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr">
         <is>
@@ -25341,7 +26413,11 @@
           <t>lean-wall.jpg</t>
         </is>
       </c>
-      <c r="T294" t="inlineStr"/>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatePerry-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -25362,7 +26438,11 @@
           <t>KatePerry-t4.png</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F295" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -25425,7 +26505,11 @@
           <t>front-mediumshot9.jpg</t>
         </is>
       </c>
-      <c r="T295" t="inlineStr"/>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatePerry-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -25446,7 +26530,11 @@
           <t>KatyPerry-t1.jpg</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr">
@@ -25505,7 +26593,11 @@
           <t>3quarters-mediumshot.png</t>
         </is>
       </c>
-      <c r="T296" t="inlineStr"/>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatyPerry-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -25526,7 +26618,11 @@
           <t>KatyPerry-t2.jpg</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F297" t="inlineStr">
         <is>
           <t>sensual</t>
@@ -25577,7 +26673,11 @@
           <t>kneed.jpg</t>
         </is>
       </c>
-      <c r="T297" t="inlineStr"/>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatyPerry-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -25598,7 +26698,11 @@
           <t>KatyPerry-t3.jpg</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr"/>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
@@ -25653,7 +26757,11 @@
           <t>lean-wall.jpg</t>
         </is>
       </c>
-      <c r="T298" t="inlineStr"/>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatyPerry-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -25674,7 +26782,11 @@
           <t>KatyPerry-t4.jpg</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F299" t="inlineStr">
         <is>
           <t>naughty</t>
@@ -25733,7 +26845,11 @@
           <t>olympian.jpg</t>
         </is>
       </c>
-      <c r="T299" t="inlineStr"/>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatyPerry-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -25754,7 +26870,11 @@
           <t>KayceexJ-t1.png</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr"/>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F300" t="inlineStr">
         <is>
           <t>provocative</t>
@@ -25809,7 +26929,11 @@
           <t>profile-handwaist.png</t>
         </is>
       </c>
-      <c r="T300" t="inlineStr"/>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KayceexJ-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -25830,7 +26954,11 @@
           <t>KayceexJ-t2.png</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
@@ -25889,7 +27017,11 @@
           <t>3q-stand-legswide.jpeg</t>
         </is>
       </c>
-      <c r="T301" t="inlineStr"/>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KayceexJ-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">

--- a/girlsFull.xlsx
+++ b/girlsFull.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T821"/>
+  <dimension ref="A1:U821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>Direccion</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -626,6 +631,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1-t1.jpg</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/1-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -716,6 +726,11 @@
       <c r="T3" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/1-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -798,6 +813,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1-t3.jpg</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/1-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -886,6 +906,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1-t4.jpg</t>
         </is>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/1-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -976,6 +1001,11 @@
       <c r="T6" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\11-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/11-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -1066,6 +1096,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\11-t2.jpg</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/11-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1160,6 +1195,11 @@
       <c r="T8" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\11-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/11-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -1238,6 +1278,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\11-t4.jpg</t>
         </is>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/11-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1328,6 +1373,11 @@
       <c r="T10" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\13-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/13-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,6 +1460,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\13-t2.jpg</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/13-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1504,6 +1559,11 @@
       <c r="T12" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\13-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/13-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -1594,6 +1654,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\13-t4.jpg</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/13-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1686,6 +1751,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\14-t1.jfif</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/14-t1.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1782,6 +1852,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\14-t2.jfif</t>
         </is>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/14-t2.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1872,6 +1947,11 @@
       <c r="T16" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\14-t3.jfif</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/14-t3.jfif</t>
         </is>
       </c>
     </row>
@@ -1958,6 +2038,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\14-t4.jfif</t>
         </is>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/14-t4.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2046,6 +2131,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\15-t1.webp</t>
         </is>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/15-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2146,6 +2236,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\15-t2.webp</t>
         </is>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/15-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2236,6 +2331,11 @@
       <c r="T20" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\15-t3.webp</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/15-t3.webp</t>
         </is>
       </c>
     </row>
@@ -2326,6 +2426,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\15-t4.webp</t>
         </is>
       </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/15-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2414,6 +2519,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1520115753422-t1.jpg</t>
         </is>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/1520115753422-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2506,6 +2616,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1520115753422-t2.jpg</t>
         </is>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/1520115753422-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2600,6 +2715,11 @@
       <c r="T24" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1520115753422-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/1520115753422-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -2686,6 +2806,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\1520115753422-t4.jpg</t>
         </is>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/1520115753422-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2766,6 +2891,7 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2858,6 +2984,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\2-t2.jpg</t>
         </is>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/2-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2950,6 +3081,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\2-t3.jpg</t>
         </is>
       </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/2-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3038,6 +3174,7 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3126,6 +3263,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\203112-t1.webp</t>
         </is>
       </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/203112-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3226,6 +3368,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\203112-t2.webp</t>
         </is>
       </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/203112-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3316,6 +3463,11 @@
       <c r="T32" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\203112-t3.webp</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/203112-t3.webp</t>
         </is>
       </c>
     </row>
@@ -3410,6 +3562,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\203112-t4.webp</t>
         </is>
       </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/203112-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3502,6 +3659,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\3-t1.jpg</t>
         </is>
       </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/3-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3588,6 +3750,11 @@
       <c r="T35" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\3-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/3-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -3682,6 +3849,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\3-t3.jpg</t>
         </is>
       </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/3-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3770,6 +3942,7 @@
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3860,6 +4033,11 @@
       <c r="T38" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\4-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/4-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -3946,6 +4124,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\4-t2.jpg</t>
         </is>
       </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/4-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4036,6 +4219,11 @@
       <c r="T40" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\4-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/4-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -4122,6 +4310,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\4-t4.jpg</t>
         </is>
       </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/4-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4212,6 +4405,11 @@
       <c r="T42" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\5-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/5-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -4298,6 +4496,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\5-t2.jpg</t>
         </is>
       </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/5-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4388,6 +4591,11 @@
       <c r="T44" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\5-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/5-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -4478,6 +4686,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\5-t4.jpg</t>
         </is>
       </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/5-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4572,6 +4785,11 @@
       <c r="T46" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\6-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/6-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -4662,6 +4880,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\6-t2.jpg</t>
         </is>
       </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/6-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4750,6 +4973,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\6-t3.jpg</t>
         </is>
       </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/6-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4842,6 +5070,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\6-t4.jpg</t>
         </is>
       </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/6-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4926,6 +5159,7 @@
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5018,6 +5252,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\7-t2.jpg</t>
         </is>
       </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/7-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5102,6 +5341,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\7-t3.jpg</t>
         </is>
       </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/7-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5194,6 +5438,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\7-t4.jpg</t>
         </is>
       </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/7-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5288,6 +5537,11 @@
       <c r="T54" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/9-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -5378,6 +5632,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9-t2.jpg</t>
         </is>
       </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/9-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5468,6 +5727,11 @@
       <c r="T56" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/9-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -5556,6 +5820,11 @@
       <c r="T57" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/9-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -5642,6 +5911,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9238727-t1.jpg</t>
         </is>
       </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/9238727-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5716,6 +5990,11 @@
       <c r="T59" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9238727-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/9238727-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -5802,6 +6081,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9238727-t3.jpg</t>
         </is>
       </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/9238727-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5894,6 +6178,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\9238727-t4.jpg</t>
         </is>
       </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/9238727-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5986,6 +6275,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\A-Ruby-Young-t1.png</t>
         </is>
       </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/A-Ruby-Young-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6074,6 +6368,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\A-Ruby-Young-t2.png</t>
         </is>
       </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/A-Ruby-Young-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6170,6 +6469,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\A-Ruby-Young-t3.png</t>
         </is>
       </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/A-Ruby-Young-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6260,6 +6564,11 @@
       <c r="T65" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\A-Ruby-Young-t4.png</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/A-Ruby-Young-t4.png</t>
         </is>
       </c>
     </row>
@@ -6350,6 +6659,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Albanese-t1.jpg</t>
         </is>
       </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Albanese-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6430,6 +6744,7 @@
         </is>
       </c>
       <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6518,6 +6833,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Albanese-t3.jpg</t>
         </is>
       </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Albanese-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6602,6 +6922,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Albanese-t4.jpg</t>
         </is>
       </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Albanese-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6690,6 +7015,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AleCaballeroCreadoraDigital-t1.jpg</t>
         </is>
       </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AleCaballeroCreadoraDigital-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6786,6 +7116,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AleCaballeroCreadoraDigital-t2.jpg</t>
         </is>
       </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AleCaballeroCreadoraDigital-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6886,6 +7221,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AleCaballeroCreadoraDigital-t3.jpg</t>
         </is>
       </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AleCaballeroCreadoraDigital-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6976,6 +7316,11 @@
       <c r="T73" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AleCaballeroCreadoraDigital-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AleCaballeroCreadoraDigital-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -7066,6 +7411,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejMolina-t1.jpg</t>
         </is>
       </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AlejMolina-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7162,6 +7512,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejMolina-t2.jpg</t>
         </is>
       </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AlejMolina-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7250,6 +7605,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejMolina-t3.jpg</t>
         </is>
       </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AlejMolina-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7344,6 +7704,11 @@
       <c r="T77" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejMolina-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AlejMolina-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -7430,6 +7795,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejandraMolina-t1.jpeg</t>
         </is>
       </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AlejandraMolina-t1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7518,6 +7888,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejandraMolina-t2.jpeg</t>
         </is>
       </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AlejandraMolina-t2.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7604,6 +7979,11 @@
       <c r="T80" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejandraMolina-t3.jpeg</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AlejandraMolina-t3.jpeg</t>
         </is>
       </c>
     </row>
@@ -7692,6 +8072,11 @@
       <c r="T81" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AlejandraMolina-t4.jpeg</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AlejandraMolina-t4.jpeg</t>
         </is>
       </c>
     </row>
@@ -7724,6 +8109,7 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7820,6 +8206,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaKournikova-t1.png</t>
         </is>
       </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnaKournikova-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7906,6 +8297,11 @@
       <c r="T84" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaKournikova-t2.png</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnaKournikova-t2.png</t>
         </is>
       </c>
     </row>
@@ -8000,6 +8396,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaKournikova-t3.png</t>
         </is>
       </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnaKournikova-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8094,6 +8495,11 @@
       <c r="T86" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaKournikova-t4.png</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnaKournikova-t4.png</t>
         </is>
       </c>
     </row>
@@ -8180,6 +8586,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anahí-t1.png</t>
         </is>
       </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Anahí-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8276,6 +8687,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anahí-t2.png</t>
         </is>
       </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Anahí-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8366,6 +8782,11 @@
       <c r="T89" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anahí-t3.png</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Anahí-t3.png</t>
         </is>
       </c>
     </row>
@@ -8440,6 +8861,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anahí-t4.png</t>
         </is>
       </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Anahí-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8528,6 +8954,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaisTorres-t1.jpg</t>
         </is>
       </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnaisTorres-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8616,6 +9047,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaisTorres-t2.jpg</t>
         </is>
       </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnaisTorres-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8704,6 +9140,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaisTorres-t3.jpg</t>
         </is>
       </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnaisTorres-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8780,6 +9221,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnaisTorres-t4.jpg</t>
         </is>
       </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnaisTorres-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8872,6 +9318,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anny-t1.jpg</t>
         </is>
       </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Anny-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8968,6 +9419,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anny-t2.jpg</t>
         </is>
       </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Anny-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9058,6 +9514,11 @@
       <c r="T97" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anny-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Anny-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -9148,6 +9609,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Anny-t4.jpg</t>
         </is>
       </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Anny-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9232,6 +9698,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnyPokimane-t1.webp</t>
         </is>
       </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnyPokimane-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9320,6 +9791,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnyPokimane-t2.webp</t>
         </is>
       </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnyPokimane-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9416,6 +9892,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnyPokimane-t3.webp</t>
         </is>
       </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnyPokimane-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9508,6 +9989,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\AnyPokimane-t4.webp</t>
         </is>
       </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/AnyPokimane-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9598,6 +10084,11 @@
       <c r="T103" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Art-t1.png</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Art-t1.png</t>
         </is>
       </c>
     </row>
@@ -9688,6 +10179,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Art-t2.png</t>
         </is>
       </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Art-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9780,6 +10276,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Art-t3.png</t>
         </is>
       </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Art-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9872,6 +10373,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Art-t4.png</t>
         </is>
       </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Art-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9964,6 +10470,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Beautiful-Deepika-Padukone-t1.jpg</t>
         </is>
       </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Beautiful-Deepika-Padukone-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10054,6 +10565,11 @@
       <c r="T108" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Beautiful-Deepika-Padukone-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Beautiful-Deepika-Padukone-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -10132,6 +10648,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Beautiful-Deepika-Padukone-t3.jpg</t>
         </is>
       </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Beautiful-Deepika-Padukone-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10216,6 +10737,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Beautiful-Deepika-Padukone-t4.jpg</t>
         </is>
       </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Beautiful-Deepika-Padukone-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10308,6 +10834,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda-t1.jfif</t>
         </is>
       </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Belinda-t1.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10398,6 +10929,11 @@
       <c r="T112" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda-t2.jfif</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Belinda-t2.jfif</t>
         </is>
       </c>
     </row>
@@ -10488,6 +11024,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda-t3.jfif</t>
         </is>
       </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Belinda-t3.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10574,6 +11115,11 @@
       <c r="T114" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda-t4.jfif</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Belinda-t4.jfif</t>
         </is>
       </c>
     </row>
@@ -10660,6 +11206,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda_Peregrin_Schull-t1.jpg</t>
         </is>
       </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Belinda_Peregrin_Schull-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10744,6 +11295,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda_Peregrin_Schull-t2.jpg</t>
         </is>
       </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Belinda_Peregrin_Schull-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10836,6 +11392,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda_Peregrin_Schull-t3.jpg</t>
         </is>
       </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Belinda_Peregrin_Schull-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10928,6 +11489,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Belinda_Peregrin_Schull-t4.jpg</t>
         </is>
       </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Belinda_Peregrin_Schull-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11016,6 +11582,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BlancaMoreno-t1.jpg</t>
         </is>
       </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/BlancaMoreno-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11108,6 +11679,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BlancaMoreno-t2.jpg</t>
         </is>
       </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/BlancaMoreno-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11200,6 +11776,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BlancaMoreno-t3.jpg</t>
         </is>
       </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/BlancaMoreno-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11290,6 +11871,11 @@
       <c r="T122" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BlancaMoreno-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/BlancaMoreno-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -11384,6 +11970,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Branta-t1.jpeg</t>
         </is>
       </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Branta-t1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11476,6 +12067,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Branta-t2.jpeg</t>
         </is>
       </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Branta-t2.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11568,6 +12164,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Branta-t3.jpeg</t>
         </is>
       </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Branta-t3.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11664,6 +12265,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Branta-t4.jpeg</t>
         </is>
       </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Branta-t4.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11748,6 +12354,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Brenda-t1.jpg</t>
         </is>
       </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Brenda-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11838,6 +12449,11 @@
       <c r="T128" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Brenda-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Brenda-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -11928,6 +12544,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Brenda-t3.jpg</t>
         </is>
       </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Brenda-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12022,6 +12643,11 @@
       <c r="T130" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Brenda-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Brenda-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -12112,6 +12738,7 @@
         </is>
       </c>
       <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -12208,6 +12835,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BrendaVeronica-t2.jpg</t>
         </is>
       </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/BrendaVeronica-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -12304,6 +12936,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BrendaVeronica-t3.jpg</t>
         </is>
       </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/BrendaVeronica-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12390,6 +13027,11 @@
       <c r="T134" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\BrendaVeronica-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/BrendaVeronica-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -12476,6 +13118,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\CaroGil-t1.png</t>
         </is>
       </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/CaroGil-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -12560,6 +13207,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\CaroGil-t2.png</t>
         </is>
       </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/CaroGil-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -12650,6 +13302,11 @@
       <c r="T137" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\CaroGil-t3.png</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/CaroGil-t3.png</t>
         </is>
       </c>
     </row>
@@ -12732,6 +13389,7 @@
         </is>
       </c>
       <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -12822,6 +13480,11 @@
       <c r="T139" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ClauDrew-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/ClauDrew-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -12912,6 +13575,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ClauDrew-t2.jpg</t>
         </is>
       </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/ClauDrew-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13008,6 +13676,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ClauDrew-t3.jpg</t>
         </is>
       </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/ClauDrew-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13100,6 +13773,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ClauDrew-t4.jpg</t>
         </is>
       </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/ClauDrew-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13184,6 +13862,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Cougar-t1.png</t>
         </is>
       </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Cougar-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -13274,6 +13957,11 @@
       <c r="T144" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Cougar-t2.png</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Cougar-t2.png</t>
         </is>
       </c>
     </row>
@@ -13360,6 +14048,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Cougar-t3.png</t>
         </is>
       </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Cougar-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -13456,6 +14149,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Cougar-t4.png</t>
         </is>
       </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Cougar-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -13544,6 +14242,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DamarizGonzalez-t1.jpg</t>
         </is>
       </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DamarizGonzalez-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -13632,6 +14335,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DamarizGonzalez-t2.jpg</t>
         </is>
       </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DamarizGonzalez-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -13724,6 +14432,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DamarizGonzalez-t3.jpg</t>
         </is>
       </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DamarizGonzalez-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -13808,6 +14521,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DamarizGonzalez-t4.jpg</t>
         </is>
       </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DamarizGonzalez-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -13898,6 +14616,11 @@
       <c r="T151" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanielaCohen-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DanielaCohen-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -13980,6 +14703,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanielaCohen-t2.jpg</t>
         </is>
       </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DanielaCohen-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -14064,6 +14792,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanielaCohen-t3.jpg</t>
         </is>
       </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DanielaCohen-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -14160,6 +14893,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanielaCohen-t4.jpg</t>
         </is>
       </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DanielaCohen-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -14248,6 +14986,7 @@
         </is>
       </c>
       <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -14334,6 +15073,11 @@
       <c r="T156" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanyGC-t2.png</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DanyGC-t2.png</t>
         </is>
       </c>
     </row>
@@ -14424,6 +15168,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanyGC-t3.png</t>
         </is>
       </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DanyGC-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -14506,6 +15255,11 @@
       <c r="T158" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DanyGC-t4.png</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DanyGC-t4.png</t>
         </is>
       </c>
     </row>
@@ -14600,6 +15354,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Descendants-t1.webp</t>
         </is>
       </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Descendants-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -14692,6 +15451,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Descendants-t2.webp</t>
         </is>
       </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Descendants-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -14784,6 +15548,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Descendants-t3.webp</t>
         </is>
       </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Descendants-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -14874,6 +15643,11 @@
       <c r="T162" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Descendants-t4.webp</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Descendants-t4.webp</t>
         </is>
       </c>
     </row>
@@ -14964,6 +15738,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DianitaGonzalez-t1.jpg</t>
         </is>
       </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DianitaGonzalez-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -15052,6 +15831,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DianitaGonzalez-t2.jpg</t>
         </is>
       </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DianitaGonzalez-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -15140,6 +15924,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DianitaGonzalez-t3.jpg</t>
         </is>
       </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DianitaGonzalez-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -15224,6 +16013,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DianitaGonzalez-t4.jpg</t>
         </is>
       </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DianitaGonzalez-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -15312,6 +16106,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DirectoraLiz-t1.jpg</t>
         </is>
       </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DirectoraLiz-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -15400,6 +16199,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DirectoraLiz-t2.jpg</t>
         </is>
       </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DirectoraLiz-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -15490,6 +16294,11 @@
       <c r="T169" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DirectoraLiz-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DirectoraLiz-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -15580,6 +16389,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DirectoraLiz-t4.jpg</t>
         </is>
       </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DirectoraLiz-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -15666,6 +16480,11 @@
       <c r="T171" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dove_Cameron-t1.webp</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Dove_Cameron-t1.webp</t>
         </is>
       </c>
     </row>
@@ -15756,6 +16575,7 @@
         </is>
       </c>
       <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -15848,6 +16668,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dove_Cameron-t3.webp</t>
         </is>
       </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Dove_Cameron-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -15936,6 +16761,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dove_Cameron-t4.webp</t>
         </is>
       </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Dove_Cameron-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -16028,6 +16858,7 @@
         </is>
       </c>
       <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -16114,6 +16945,11 @@
       <c r="T176" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DuaLipa-t2.jfif</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DuaLipa-t2.jfif</t>
         </is>
       </c>
     </row>
@@ -16196,6 +17032,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DuaLipa-t3.jfif</t>
         </is>
       </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DuaLipa-t3.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -16284,6 +17125,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\DuaLipa-t4.jfif</t>
         </is>
       </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/DuaLipa-t4.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -16368,6 +17214,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dulce-t1.png</t>
         </is>
       </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Dulce-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -16456,6 +17307,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dulce-t2.png</t>
         </is>
       </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Dulce-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -16550,6 +17406,11 @@
       <c r="T181" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dulce-t3.png</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Dulce-t3.png</t>
         </is>
       </c>
     </row>
@@ -16640,6 +17501,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Dulce-t4.png</t>
         </is>
       </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Dulce-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -16724,6 +17590,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Eiza_Gonzalez_for_Vogue_Mexico-t1.jpg</t>
         </is>
       </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Eiza_Gonzalez_for_Vogue_Mexico-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -16808,6 +17679,7 @@
         </is>
       </c>
       <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -16896,6 +17768,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Eiza_Gonzalez_for_Vogue_Mexico-t3.jpg</t>
         </is>
       </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Eiza_Gonzalez_for_Vogue_Mexico-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -16982,6 +17859,11 @@
       <c r="T186" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Eiza_Gonzalez_for_Vogue_Mexico-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Eiza_Gonzalez_for_Vogue_Mexico-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -17068,6 +17950,7 @@
         </is>
       </c>
       <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -17164,6 +18047,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EmmaRoss-t2.jfif</t>
         </is>
       </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/EmmaRoss-t2.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -17254,6 +18142,11 @@
       <c r="T189" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EmmaRoss-t3.jfif</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/EmmaRoss-t3.jfif</t>
         </is>
       </c>
     </row>
@@ -17344,6 +18237,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EmmaRoss-t4.jfif</t>
         </is>
       </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/EmmaRoss-t4.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -17428,6 +18326,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ErickaHernandez-t1.jpg</t>
         </is>
       </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/ErickaHernandez-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -17506,6 +18409,11 @@
       <c r="T192" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ErickaHernandez-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/ErickaHernandez-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -17592,6 +18500,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\ErickaHernandez-t3.jpg</t>
         </is>
       </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/ErickaHernandez-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -17680,6 +18593,7 @@
         </is>
       </c>
       <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -17768,6 +18682,7 @@
         </is>
       </c>
       <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -17848,6 +18763,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EstefaníaMontaño-t2.jpg</t>
         </is>
       </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/EstefaníaMontaño-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -17942,6 +18862,11 @@
       <c r="T197" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EstefaníaMontaño-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/EstefaníaMontaño-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -18032,6 +18957,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\EstefaníaMontaño-t4.jpg</t>
         </is>
       </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/EstefaníaMontaño-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -18124,6 +19054,7 @@
         </is>
       </c>
       <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -18224,6 +19155,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Genda-t2.jpg</t>
         </is>
       </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Genda-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -18316,6 +19252,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Genda-t3.jpg</t>
         </is>
       </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Genda-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -18408,6 +19349,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Genda-t4.jpg</t>
         </is>
       </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Genda-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -18498,6 +19444,11 @@
       <c r="T203" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\GettyImages-1395800429-t1.webp</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/GettyImages-1395800429-t1.webp</t>
         </is>
       </c>
     </row>
@@ -18584,6 +19535,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\GettyImages-1395800429-t2.webp</t>
         </is>
       </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/GettyImages-1395800429-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -18666,6 +19622,11 @@
       <c r="T205" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\GettyImages-1395800429-t3.webp</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/GettyImages-1395800429-t3.webp</t>
         </is>
       </c>
     </row>
@@ -18708,6 +19669,7 @@
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -18792,6 +19754,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Girl-t1.jpg</t>
         </is>
       </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Girl-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -18880,6 +19847,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Girl-t2.jpg</t>
         </is>
       </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Girl-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -18964,6 +19936,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Girl-t3.jpg</t>
         </is>
       </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Girl-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -19056,6 +20033,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Girl-t4.jpg</t>
         </is>
       </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Girl-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -19140,6 +20122,7 @@
         </is>
       </c>
       <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -19224,6 +20207,7 @@
         </is>
       </c>
       <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -19308,6 +20292,7 @@
         </is>
       </c>
       <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -19348,6 +20333,7 @@
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -19448,6 +20434,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Haydeloo-t1.png</t>
         </is>
       </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Haydeloo-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -19544,6 +20535,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Haydeloo-t2.png</t>
         </is>
       </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Haydeloo-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -19634,6 +20630,11 @@
       <c r="T217" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Haydeloo-t3.png</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Haydeloo-t3.png</t>
         </is>
       </c>
     </row>
@@ -19720,6 +20721,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Haydeloo-t4.png</t>
         </is>
       </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Haydeloo-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -19808,6 +20814,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9998-t1.jpg</t>
         </is>
       </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_9998-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -19898,6 +20909,11 @@
       <c r="T220" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9998-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_9998-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -19984,6 +21000,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9998-t3.jpg</t>
         </is>
       </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_9998-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -20072,6 +21093,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9998-t4.jpg</t>
         </is>
       </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_9998-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -20162,6 +21188,11 @@
       <c r="T223" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9999-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_9999-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -20250,6 +21281,11 @@
       <c r="T224" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9999-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_9999-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -20328,6 +21364,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9999-t3.jpg</t>
         </is>
       </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_9999-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -20418,6 +21459,11 @@
       <c r="T226" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_9999-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_9999-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -20510,6 +21556,11 @@
       <c r="T227" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_XXXX-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_XXXX-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -20600,6 +21651,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_XXXX-t2.jpg</t>
         </is>
       </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_XXXX-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -20684,6 +21740,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_XXXX-t3.jpg</t>
         </is>
       </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_XXXX-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -20774,6 +21835,11 @@
       <c r="T230" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IMG_XXXX-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IMG_XXXX-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -20860,6 +21926,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Indeya-t1.png</t>
         </is>
       </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Indeya-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -20948,6 +22019,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Indeya-t2.png</t>
         </is>
       </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Indeya-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -21040,6 +22116,7 @@
         </is>
       </c>
       <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -21128,6 +22205,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Indeya-t4.png</t>
         </is>
       </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Indeya-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -21220,6 +22302,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IndeyaPassfield-t1.png</t>
         </is>
       </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IndeyaPassfield-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -21314,6 +22401,11 @@
       <c r="T236" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IndeyaPassfield-t2.png</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IndeyaPassfield-t2.png</t>
         </is>
       </c>
     </row>
@@ -21404,6 +22496,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IndeyaPassfield-t3.png</t>
         </is>
       </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IndeyaPassfield-t3.png</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -21492,6 +22589,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IndeyaPassfield-t4.png</t>
         </is>
       </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IndeyaPassfield-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -21584,6 +22686,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\InesAcademia-t1.jpg</t>
         </is>
       </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/InesAcademia-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -21678,6 +22785,11 @@
       <c r="T240" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\InesAcademia-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/InesAcademia-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -21772,6 +22884,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\InesAcademia-t3.jpg</t>
         </is>
       </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/InesAcademia-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -21864,6 +22981,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\InesAcademia-t4.jpg</t>
         </is>
       </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/InesAcademia-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -21944,6 +23066,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t1.jfif</t>
         </is>
       </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés-t1.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -22028,6 +23155,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t2.jfif</t>
         </is>
       </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés-t2.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -22120,6 +23252,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t3.jfif</t>
         </is>
       </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés-t3.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -22204,6 +23341,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t4.jfif</t>
         </is>
       </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés-t4.jfif</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -22286,6 +23428,11 @@
       <c r="T247" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t1.webp</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés-t1.webp</t>
         </is>
       </c>
     </row>
@@ -22380,6 +23527,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t2.webp</t>
         </is>
       </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -22468,6 +23620,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t3.webp</t>
         </is>
       </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -22560,6 +23717,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés-t4.webp</t>
         </is>
       </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -22648,6 +23810,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés_Sainz_Gallo-t1.jpg</t>
         </is>
       </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés_Sainz_Gallo-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -22742,6 +23909,11 @@
       <c r="T252" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés_Sainz_Gallo-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés_Sainz_Gallo-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -22832,6 +24004,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés_Sainz_Gallo-t3.jpg</t>
         </is>
       </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés_Sainz_Gallo-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -22922,6 +24099,11 @@
       <c r="T254" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Inés_Sainz_Gallo-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Inés_Sainz_Gallo-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -22954,6 +24136,7 @@
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="inlineStr"/>
       <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -23040,6 +24223,11 @@
       <c r="T256" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Iri-Young-t1.jpg</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Iri-Young-t1.jpg</t>
         </is>
       </c>
     </row>
@@ -23110,6 +24298,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Iri-Young-t2.jpg</t>
         </is>
       </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Iri-Young-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -23204,6 +24397,11 @@
       <c r="T258" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Iri-Young-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Iri-Young-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -23298,6 +24496,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Iri-Young-t4.jpg</t>
         </is>
       </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Iri-Young-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -23394,6 +24597,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Irina-t1.jpg</t>
         </is>
       </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Irina-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -23490,6 +24698,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Irina-t2.jpg</t>
         </is>
       </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Irina-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -23580,6 +24793,11 @@
       <c r="T262" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Irina-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Irina-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -23662,6 +24880,7 @@
         </is>
       </c>
       <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -23754,6 +24973,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsaRomo-t1.jpg</t>
         </is>
       </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IsaRomo-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -23834,6 +25058,7 @@
         </is>
       </c>
       <c r="T265" t="inlineStr"/>
+      <c r="U265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -23926,6 +25151,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsaRomo-t3.jpg</t>
         </is>
       </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IsaRomo-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -24016,6 +25246,11 @@
       <c r="T267" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsaRomo-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IsaRomo-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -24102,6 +25337,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsabelRomo-t1.jpg</t>
         </is>
       </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IsabelRomo-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -24196,6 +25436,11 @@
       <c r="T269" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsabelRomo-t2.jpg</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IsabelRomo-t2.jpg</t>
         </is>
       </c>
     </row>
@@ -24290,6 +25535,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsabelRomo-t3.jpg</t>
         </is>
       </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IsabelRomo-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -24378,6 +25628,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\IsabelRomo-t4.jpg</t>
         </is>
       </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/IsabelRomo-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -24458,6 +25713,7 @@
         </is>
       </c>
       <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -24542,6 +25798,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JenniferAniston-t2.jpg</t>
         </is>
       </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/JenniferAniston-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -24638,6 +25899,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JenniferAniston-t3.jpg</t>
         </is>
       </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/JenniferAniston-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -24726,6 +25992,7 @@
         </is>
       </c>
       <c r="T275" t="inlineStr"/>
+      <c r="U275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -24810,6 +26077,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JzzReyes2-t1.jpg</t>
         </is>
       </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/JzzReyes2-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -24898,6 +26170,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JzzReyes2-t2.jpg</t>
         </is>
       </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/JzzReyes2-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -24988,6 +26265,11 @@
       <c r="T278" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JzzReyes2-t3.jpg</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/JzzReyes2-t3.jpg</t>
         </is>
       </c>
     </row>
@@ -25078,6 +26360,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\JzzReyes2-t4.jpg</t>
         </is>
       </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/JzzReyes2-t4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -25170,6 +26457,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarenGillian-t1.webp</t>
         </is>
       </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KarenGillian-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -25256,6 +26548,11 @@
       <c r="T281" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarenGillian-t2.webp</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KarenGillian-t2.webp</t>
         </is>
       </c>
     </row>
@@ -25350,6 +26647,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarenGillian-t3.webp</t>
         </is>
       </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KarenGillian-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -25440,6 +26742,11 @@
       <c r="T283" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarenGillian-t4.webp</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KarenGillian-t4.webp</t>
         </is>
       </c>
     </row>
@@ -25518,6 +26825,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Karen_GillianFace-t1.webp</t>
         </is>
       </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Karen_GillianFace-t1.webp</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -25606,6 +26918,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Karen_GillianFace-t2.webp</t>
         </is>
       </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Karen_GillianFace-t2.webp</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -25698,6 +27015,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Karen_GillianFace-t3.webp</t>
         </is>
       </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Karen_GillianFace-t3.webp</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -25774,6 +27096,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\Karen_GillianFace-t4.webp</t>
         </is>
       </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/Karen_GillianFace-t4.webp</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -25870,6 +27197,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarlaJeans-t1.jpg</t>
         </is>
       </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KarlaJeans-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -25970,6 +27302,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarlaJeans-t2.jpg</t>
         </is>
       </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KarlaJeans-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -26062,6 +27399,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarlaJeans-t3.jpg</t>
         </is>
       </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KarlaJeans-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -26156,6 +27498,11 @@
       <c r="T291" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KarlaJeans-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KarlaJeans-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -26238,6 +27585,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatePerry-t1.png</t>
         </is>
       </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KatePerry-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -26330,6 +27682,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatePerry-t2.png</t>
         </is>
       </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KatePerry-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -26416,6 +27773,11 @@
       <c r="T294" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatePerry-t3.png</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KatePerry-t3.png</t>
         </is>
       </c>
     </row>
@@ -26510,6 +27872,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatePerry-t4.png</t>
         </is>
       </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KatePerry-t4.png</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -26598,6 +27965,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatyPerry-t1.jpg</t>
         </is>
       </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KatyPerry-t1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -26678,6 +28050,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatyPerry-t2.jpg</t>
         </is>
       </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KatyPerry-t2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -26762,6 +28139,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatyPerry-t3.jpg</t>
         </is>
       </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KatyPerry-t3.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -26848,6 +28230,11 @@
       <c r="T299" t="inlineStr">
         <is>
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KatyPerry-t4.jpg</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KatyPerry-t4.jpg</t>
         </is>
       </c>
     </row>
@@ -26934,6 +28321,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KayceexJ-t1.png</t>
         </is>
       </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KayceexJ-t1.png</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -27022,6 +28414,11 @@
           <t>D:\Dropbox\DevOps\Devs\NOW\hf-batcher\imagenes\resultados\girlsFull-results\KayceexJ-t2.png</t>
         </is>
       </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>https://euroglitter.com/results/girlsFull/KayceexJ-t2.png</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -27106,6 +28503,7 @@
         </is>
       </c>
       <c r="T302" t="inlineStr"/>
+      <c r="U302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -27186,6 +28584,7 @@
         </is>
       </c>
       <c r="T303" t="inlineStr"/>
+      <c r="U303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -27270,6 +28669,7 @@
         </is>
       </c>
       <c r="T304" t="inlineStr"/>
+      <c r="U304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -27350,6 +28750,7 @@
         </is>
       </c>
       <c r="T305" t="inlineStr"/>
+      <c r="U305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -27426,6 +28827,7 @@
         </is>
       </c>
       <c r="T306" t="inlineStr"/>
+      <c r="U306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -27510,6 +28912,7 @@
         </is>
       </c>
       <c r="T307" t="inlineStr"/>
+      <c r="U307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -27578,6 +28981,7 @@
         </is>
       </c>
       <c r="T308" t="inlineStr"/>
+      <c r="U308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -27658,6 +29062,7 @@
         </is>
       </c>
       <c r="T309" t="inlineStr"/>
+      <c r="U309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -27742,6 +29147,7 @@
         </is>
       </c>
       <c r="T310" t="inlineStr"/>
+      <c r="U310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -27818,6 +29224,7 @@
         </is>
       </c>
       <c r="T311" t="inlineStr"/>
+      <c r="U311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -27894,6 +29301,7 @@
         </is>
       </c>
       <c r="T312" t="inlineStr"/>
+      <c r="U312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -27978,6 +29386,7 @@
         </is>
       </c>
       <c r="T313" t="inlineStr"/>
+      <c r="U313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -28054,6 +29463,7 @@
         </is>
       </c>
       <c r="T314" t="inlineStr"/>
+      <c r="U314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -28134,6 +29544,7 @@
         </is>
       </c>
       <c r="T315" t="inlineStr"/>
+      <c r="U315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -28218,6 +29629,7 @@
         </is>
       </c>
       <c r="T316" t="inlineStr"/>
+      <c r="U316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -28306,6 +29718,7 @@
         </is>
       </c>
       <c r="T317" t="inlineStr"/>
+      <c r="U317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -28390,6 +29803,7 @@
         </is>
       </c>
       <c r="T318" t="inlineStr"/>
+      <c r="U318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -28470,6 +29884,7 @@
         </is>
       </c>
       <c r="T319" t="inlineStr"/>
+      <c r="U319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -28550,6 +29965,7 @@
         </is>
       </c>
       <c r="T320" t="inlineStr"/>
+      <c r="U320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -28630,6 +30046,7 @@
         </is>
       </c>
       <c r="T321" t="inlineStr"/>
+      <c r="U321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -28718,6 +30135,7 @@
         </is>
       </c>
       <c r="T322" t="inlineStr"/>
+      <c r="U322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -28798,6 +30216,7 @@
         </is>
       </c>
       <c r="T323" t="inlineStr"/>
+      <c r="U323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -28878,6 +30297,7 @@
         </is>
       </c>
       <c r="T324" t="inlineStr"/>
+      <c r="U324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -28946,6 +30366,7 @@
         </is>
       </c>
       <c r="T325" t="inlineStr"/>
+      <c r="U325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -29034,6 +30455,7 @@
         </is>
       </c>
       <c r="T326" t="inlineStr"/>
+      <c r="U326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -29118,6 +30540,7 @@
         </is>
       </c>
       <c r="T327" t="inlineStr"/>
+      <c r="U327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -29198,6 +30621,7 @@
         </is>
       </c>
       <c r="T328" t="inlineStr"/>
+      <c r="U328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -29290,6 +30714,7 @@
         </is>
       </c>
       <c r="T329" t="inlineStr"/>
+      <c r="U329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -29374,6 +30799,7 @@
         </is>
       </c>
       <c r="T330" t="inlineStr"/>
+      <c r="U330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -29462,6 +30888,7 @@
         </is>
       </c>
       <c r="T331" t="inlineStr"/>
+      <c r="U331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -29534,6 +30961,7 @@
         </is>
       </c>
       <c r="T332" t="inlineStr"/>
+      <c r="U332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -29606,6 +31034,7 @@
         </is>
       </c>
       <c r="T333" t="inlineStr"/>
+      <c r="U333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -29690,6 +31119,7 @@
         </is>
       </c>
       <c r="T334" t="inlineStr"/>
+      <c r="U334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -29762,6 +31192,7 @@
         </is>
       </c>
       <c r="T335" t="inlineStr"/>
+      <c r="U335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -29846,6 +31277,7 @@
         </is>
       </c>
       <c r="T336" t="inlineStr"/>
+      <c r="U336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -29922,6 +31354,7 @@
         </is>
       </c>
       <c r="T337" t="inlineStr"/>
+      <c r="U337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -30006,6 +31439,7 @@
         </is>
       </c>
       <c r="T338" t="inlineStr"/>
+      <c r="U338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -30082,6 +31516,7 @@
         </is>
       </c>
       <c r="T339" t="inlineStr"/>
+      <c r="U339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -30166,6 +31601,7 @@
         </is>
       </c>
       <c r="T340" t="inlineStr"/>
+      <c r="U340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -30246,6 +31682,7 @@
         </is>
       </c>
       <c r="T341" t="inlineStr"/>
+      <c r="U341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -30334,6 +31771,7 @@
         </is>
       </c>
       <c r="T342" t="inlineStr"/>
+      <c r="U342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -30406,6 +31844,7 @@
         </is>
       </c>
       <c r="T343" t="inlineStr"/>
+      <c r="U343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -30482,6 +31921,7 @@
         </is>
       </c>
       <c r="T344" t="inlineStr"/>
+      <c r="U344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -30566,6 +32006,7 @@
         </is>
       </c>
       <c r="T345" t="inlineStr"/>
+      <c r="U345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -30650,6 +32091,7 @@
         </is>
       </c>
       <c r="T346" t="inlineStr"/>
+      <c r="U346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -30734,6 +32176,7 @@
         </is>
       </c>
       <c r="T347" t="inlineStr"/>
+      <c r="U347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -30814,6 +32257,7 @@
         </is>
       </c>
       <c r="T348" t="inlineStr"/>
+      <c r="U348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -30894,6 +32338,7 @@
         </is>
       </c>
       <c r="T349" t="inlineStr"/>
+      <c r="U349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -30970,6 +32415,7 @@
         </is>
       </c>
       <c r="T350" t="inlineStr"/>
+      <c r="U350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -31050,6 +32496,7 @@
         </is>
       </c>
       <c r="T351" t="inlineStr"/>
+      <c r="U351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -31122,6 +32569,7 @@
         </is>
       </c>
       <c r="T352" t="inlineStr"/>
+      <c r="U352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -31202,6 +32650,7 @@
         </is>
       </c>
       <c r="T353" t="inlineStr"/>
+      <c r="U353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -31282,6 +32731,7 @@
         </is>
       </c>
       <c r="T354" t="inlineStr"/>
+      <c r="U354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -31370,6 +32820,7 @@
         </is>
       </c>
       <c r="T355" t="inlineStr"/>
+      <c r="U355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -31450,6 +32901,7 @@
         </is>
       </c>
       <c r="T356" t="inlineStr"/>
+      <c r="U356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -31530,6 +32982,7 @@
         </is>
       </c>
       <c r="T357" t="inlineStr"/>
+      <c r="U357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -31614,6 +33067,7 @@
         </is>
       </c>
       <c r="T358" t="inlineStr"/>
+      <c r="U358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -31698,6 +33152,7 @@
         </is>
       </c>
       <c r="T359" t="inlineStr"/>
+      <c r="U359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -31782,6 +33237,7 @@
         </is>
       </c>
       <c r="T360" t="inlineStr"/>
+      <c r="U360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -31858,6 +33314,7 @@
         </is>
       </c>
       <c r="T361" t="inlineStr"/>
+      <c r="U361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -31946,6 +33403,7 @@
         </is>
       </c>
       <c r="T362" t="inlineStr"/>
+      <c r="U362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -32026,6 +33484,7 @@
         </is>
       </c>
       <c r="T363" t="inlineStr"/>
+      <c r="U363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -32106,6 +33565,7 @@
         </is>
       </c>
       <c r="T364" t="inlineStr"/>
+      <c r="U364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -32182,6 +33642,7 @@
         </is>
       </c>
       <c r="T365" t="inlineStr"/>
+      <c r="U365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -32266,6 +33727,7 @@
         </is>
       </c>
       <c r="T366" t="inlineStr"/>
+      <c r="U366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -32346,6 +33808,7 @@
         </is>
       </c>
       <c r="T367" t="inlineStr"/>
+      <c r="U367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -32422,6 +33885,7 @@
         </is>
       </c>
       <c r="T368" t="inlineStr"/>
+      <c r="U368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -32498,6 +33962,7 @@
         </is>
       </c>
       <c r="T369" t="inlineStr"/>
+      <c r="U369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -32582,6 +34047,7 @@
         </is>
       </c>
       <c r="T370" t="inlineStr"/>
+      <c r="U370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -32662,6 +34128,7 @@
         </is>
       </c>
       <c r="T371" t="inlineStr"/>
+      <c r="U371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -32746,6 +34213,7 @@
         </is>
       </c>
       <c r="T372" t="inlineStr"/>
+      <c r="U372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -32834,6 +34302,7 @@
         </is>
       </c>
       <c r="T373" t="inlineStr"/>
+      <c r="U373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -32918,6 +34387,7 @@
         </is>
       </c>
       <c r="T374" t="inlineStr"/>
+      <c r="U374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -32994,6 +34464,7 @@
         </is>
       </c>
       <c r="T375" t="inlineStr"/>
+      <c r="U375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -33082,6 +34553,7 @@
         </is>
       </c>
       <c r="T376" t="inlineStr"/>
+      <c r="U376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -33162,6 +34634,7 @@
         </is>
       </c>
       <c r="T377" t="inlineStr"/>
+      <c r="U377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -33238,6 +34711,7 @@
         </is>
       </c>
       <c r="T378" t="inlineStr"/>
+      <c r="U378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -33318,6 +34792,7 @@
         </is>
       </c>
       <c r="T379" t="inlineStr"/>
+      <c r="U379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -33406,6 +34881,7 @@
         </is>
       </c>
       <c r="T380" t="inlineStr"/>
+      <c r="U380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -33490,6 +34966,7 @@
         </is>
       </c>
       <c r="T381" t="inlineStr"/>
+      <c r="U381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -33570,6 +35047,7 @@
         </is>
       </c>
       <c r="T382" t="inlineStr"/>
+      <c r="U382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -33654,6 +35132,7 @@
         </is>
       </c>
       <c r="T383" t="inlineStr"/>
+      <c r="U383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -33730,6 +35209,7 @@
         </is>
       </c>
       <c r="T384" t="inlineStr"/>
+      <c r="U384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -33810,6 +35290,7 @@
         </is>
       </c>
       <c r="T385" t="inlineStr"/>
+      <c r="U385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -33886,6 +35367,7 @@
         </is>
       </c>
       <c r="T386" t="inlineStr"/>
+      <c r="U386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -33970,6 +35452,7 @@
         </is>
       </c>
       <c r="T387" t="inlineStr"/>
+      <c r="U387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -34058,6 +35541,7 @@
         </is>
       </c>
       <c r="T388" t="inlineStr"/>
+      <c r="U388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -34138,6 +35622,7 @@
         </is>
       </c>
       <c r="T389" t="inlineStr"/>
+      <c r="U389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -34210,6 +35695,7 @@
         </is>
       </c>
       <c r="T390" t="inlineStr"/>
+      <c r="U390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -34290,6 +35776,7 @@
         </is>
       </c>
       <c r="T391" t="inlineStr"/>
+      <c r="U391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -34370,6 +35857,7 @@
         </is>
       </c>
       <c r="T392" t="inlineStr"/>
+      <c r="U392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -34450,6 +35938,7 @@
         </is>
       </c>
       <c r="T393" t="inlineStr"/>
+      <c r="U393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -34530,6 +36019,7 @@
         </is>
       </c>
       <c r="T394" t="inlineStr"/>
+      <c r="U394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -34618,6 +36108,7 @@
         </is>
       </c>
       <c r="T395" t="inlineStr"/>
+      <c r="U395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -34698,6 +36189,7 @@
         </is>
       </c>
       <c r="T396" t="inlineStr"/>
+      <c r="U396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -34782,6 +36274,7 @@
         </is>
       </c>
       <c r="T397" t="inlineStr"/>
+      <c r="U397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -34866,6 +36359,7 @@
         </is>
       </c>
       <c r="T398" t="inlineStr"/>
+      <c r="U398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -34950,6 +36444,7 @@
         </is>
       </c>
       <c r="T399" t="inlineStr"/>
+      <c r="U399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -35026,6 +36521,7 @@
         </is>
       </c>
       <c r="T400" t="inlineStr"/>
+      <c r="U400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -35114,6 +36610,7 @@
         </is>
       </c>
       <c r="T401" t="inlineStr"/>
+      <c r="U401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -35190,6 +36687,7 @@
         </is>
       </c>
       <c r="T402" t="inlineStr"/>
+      <c r="U402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -35274,6 +36772,7 @@
         </is>
       </c>
       <c r="T403" t="inlineStr"/>
+      <c r="U403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -35358,6 +36857,7 @@
         </is>
       </c>
       <c r="T404" t="inlineStr"/>
+      <c r="U404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -35438,6 +36938,7 @@
         </is>
       </c>
       <c r="T405" t="inlineStr"/>
+      <c r="U405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -35526,6 +37027,7 @@
         </is>
       </c>
       <c r="T406" t="inlineStr"/>
+      <c r="U406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -35610,6 +37112,7 @@
         </is>
       </c>
       <c r="T407" t="inlineStr"/>
+      <c r="U407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -35690,6 +37193,7 @@
         </is>
       </c>
       <c r="T408" t="inlineStr"/>
+      <c r="U408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -35770,6 +37274,7 @@
         </is>
       </c>
       <c r="T409" t="inlineStr"/>
+      <c r="U409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -35854,6 +37359,7 @@
         </is>
       </c>
       <c r="T410" t="inlineStr"/>
+      <c r="U410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -35934,6 +37440,7 @@
         </is>
       </c>
       <c r="T411" t="inlineStr"/>
+      <c r="U411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -36010,6 +37517,7 @@
         </is>
       </c>
       <c r="T412" t="inlineStr"/>
+      <c r="U412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -36094,6 +37602,7 @@
         </is>
       </c>
       <c r="T413" t="inlineStr"/>
+      <c r="U413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -36174,6 +37683,7 @@
         </is>
       </c>
       <c r="T414" t="inlineStr"/>
+      <c r="U414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -36262,6 +37772,7 @@
         </is>
       </c>
       <c r="T415" t="inlineStr"/>
+      <c r="U415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -36350,6 +37861,7 @@
         </is>
       </c>
       <c r="T416" t="inlineStr"/>
+      <c r="U416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -36438,6 +37950,7 @@
         </is>
       </c>
       <c r="T417" t="inlineStr"/>
+      <c r="U417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -36510,6 +38023,7 @@
         </is>
       </c>
       <c r="T418" t="inlineStr"/>
+      <c r="U418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -36594,6 +38108,7 @@
         </is>
       </c>
       <c r="T419" t="inlineStr"/>
+      <c r="U419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -36670,6 +38185,7 @@
         </is>
       </c>
       <c r="T420" t="inlineStr"/>
+      <c r="U420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -36750,6 +38266,7 @@
         </is>
       </c>
       <c r="T421" t="inlineStr"/>
+      <c r="U421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -36826,6 +38343,7 @@
         </is>
       </c>
       <c r="T422" t="inlineStr"/>
+      <c r="U422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -36906,6 +38424,7 @@
         </is>
       </c>
       <c r="T423" t="inlineStr"/>
+      <c r="U423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -36978,6 +38497,7 @@
         </is>
       </c>
       <c r="T424" t="inlineStr"/>
+      <c r="U424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -37058,6 +38578,7 @@
         </is>
       </c>
       <c r="T425" t="inlineStr"/>
+      <c r="U425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -37146,6 +38667,7 @@
         </is>
       </c>
       <c r="T426" t="inlineStr"/>
+      <c r="U426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -37226,6 +38748,7 @@
         </is>
       </c>
       <c r="T427" t="inlineStr"/>
+      <c r="U427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -37306,6 +38829,7 @@
         </is>
       </c>
       <c r="T428" t="inlineStr"/>
+      <c r="U428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -37374,6 +38898,7 @@
         </is>
       </c>
       <c r="T429" t="inlineStr"/>
+      <c r="U429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -37462,6 +38987,7 @@
         </is>
       </c>
       <c r="T430" t="inlineStr"/>
+      <c r="U430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -37546,6 +39072,7 @@
         </is>
       </c>
       <c r="T431" t="inlineStr"/>
+      <c r="U431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -37630,6 +39157,7 @@
         </is>
       </c>
       <c r="T432" t="inlineStr"/>
+      <c r="U432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -37710,6 +39238,7 @@
         </is>
       </c>
       <c r="T433" t="inlineStr"/>
+      <c r="U433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -37798,6 +39327,7 @@
         </is>
       </c>
       <c r="T434" t="inlineStr"/>
+      <c r="U434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -37882,6 +39412,7 @@
         </is>
       </c>
       <c r="T435" t="inlineStr"/>
+      <c r="U435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -37958,6 +39489,7 @@
         </is>
       </c>
       <c r="T436" t="inlineStr"/>
+      <c r="U436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -38038,6 +39570,7 @@
         </is>
       </c>
       <c r="T437" t="inlineStr"/>
+      <c r="U437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -38114,6 +39647,7 @@
         </is>
       </c>
       <c r="T438" t="inlineStr"/>
+      <c r="U438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -38206,6 +39740,7 @@
         </is>
       </c>
       <c r="T439" t="inlineStr"/>
+      <c r="U439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -38290,6 +39825,7 @@
         </is>
       </c>
       <c r="T440" t="inlineStr"/>
+      <c r="U440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -38378,6 +39914,7 @@
         </is>
       </c>
       <c r="T441" t="inlineStr"/>
+      <c r="U441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -38450,6 +39987,7 @@
         </is>
       </c>
       <c r="T442" t="inlineStr"/>
+      <c r="U442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -38530,6 +40068,7 @@
         </is>
       </c>
       <c r="T443" t="inlineStr"/>
+      <c r="U443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -38614,6 +40153,7 @@
         </is>
       </c>
       <c r="T444" t="inlineStr"/>
+      <c r="U444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -38706,6 +40246,7 @@
         </is>
       </c>
       <c r="T445" t="inlineStr"/>
+      <c r="U445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -38794,6 +40335,7 @@
         </is>
       </c>
       <c r="T446" t="inlineStr"/>
+      <c r="U446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -38874,6 +40416,7 @@
         </is>
       </c>
       <c r="T447" t="inlineStr"/>
+      <c r="U447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -38966,6 +40509,7 @@
         </is>
       </c>
       <c r="T448" t="inlineStr"/>
+      <c r="U448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -39050,6 +40594,7 @@
         </is>
       </c>
       <c r="T449" t="inlineStr"/>
+      <c r="U449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -39134,6 +40679,7 @@
         </is>
       </c>
       <c r="T450" t="inlineStr"/>
+      <c r="U450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -39222,6 +40768,7 @@
         </is>
       </c>
       <c r="T451" t="inlineStr"/>
+      <c r="U451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -39298,6 +40845,7 @@
         </is>
       </c>
       <c r="T452" t="inlineStr"/>
+      <c r="U452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -39382,6 +40930,7 @@
         </is>
       </c>
       <c r="T453" t="inlineStr"/>
+      <c r="U453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -39466,6 +41015,7 @@
         </is>
       </c>
       <c r="T454" t="inlineStr"/>
+      <c r="U454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -39554,6 +41104,7 @@
         </is>
       </c>
       <c r="T455" t="inlineStr"/>
+      <c r="U455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -39634,6 +41185,7 @@
         </is>
       </c>
       <c r="T456" t="inlineStr"/>
+      <c r="U456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -39714,6 +41266,7 @@
         </is>
       </c>
       <c r="T457" t="inlineStr"/>
+      <c r="U457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -39798,6 +41351,7 @@
         </is>
       </c>
       <c r="T458" t="inlineStr"/>
+      <c r="U458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -39878,6 +41432,7 @@
         </is>
       </c>
       <c r="T459" t="inlineStr"/>
+      <c r="U459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -39958,6 +41513,7 @@
         </is>
       </c>
       <c r="T460" t="inlineStr"/>
+      <c r="U460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -40030,6 +41586,7 @@
         </is>
       </c>
       <c r="T461" t="inlineStr"/>
+      <c r="U461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -40110,6 +41667,7 @@
         </is>
       </c>
       <c r="T462" t="inlineStr"/>
+      <c r="U462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -40190,6 +41748,7 @@
         </is>
       </c>
       <c r="T463" t="inlineStr"/>
+      <c r="U463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -40220,6 +41779,7 @@
       <c r="R464" t="inlineStr"/>
       <c r="S464" t="inlineStr"/>
       <c r="T464" t="inlineStr"/>
+      <c r="U464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -40304,6 +41864,7 @@
         </is>
       </c>
       <c r="T465" t="inlineStr"/>
+      <c r="U465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -40388,6 +41949,7 @@
         </is>
       </c>
       <c r="T466" t="inlineStr"/>
+      <c r="U466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -40464,6 +42026,7 @@
         </is>
       </c>
       <c r="T467" t="inlineStr"/>
+      <c r="U467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -40548,6 +42111,7 @@
         </is>
       </c>
       <c r="T468" t="inlineStr"/>
+      <c r="U468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -40632,6 +42196,7 @@
         </is>
       </c>
       <c r="T469" t="inlineStr"/>
+      <c r="U469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -40716,6 +42281,7 @@
         </is>
       </c>
       <c r="T470" t="inlineStr"/>
+      <c r="U470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -40796,6 +42362,7 @@
         </is>
       </c>
       <c r="T471" t="inlineStr"/>
+      <c r="U471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -40868,6 +42435,7 @@
         </is>
       </c>
       <c r="T472" t="inlineStr"/>
+      <c r="U472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -40956,6 +42524,7 @@
         </is>
       </c>
       <c r="T473" t="inlineStr"/>
+      <c r="U473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -41036,6 +42605,7 @@
         </is>
       </c>
       <c r="T474" t="inlineStr"/>
+      <c r="U474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -41112,6 +42682,7 @@
         </is>
       </c>
       <c r="T475" t="inlineStr"/>
+      <c r="U475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -41200,6 +42771,7 @@
         </is>
       </c>
       <c r="T476" t="inlineStr"/>
+      <c r="U476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -41230,6 +42802,7 @@
       <c r="R477" t="inlineStr"/>
       <c r="S477" t="inlineStr"/>
       <c r="T477" t="inlineStr"/>
+      <c r="U477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -41310,6 +42883,7 @@
         </is>
       </c>
       <c r="T478" t="inlineStr"/>
+      <c r="U478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -41398,6 +42972,7 @@
         </is>
       </c>
       <c r="T479" t="inlineStr"/>
+      <c r="U479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -41486,6 +43061,7 @@
         </is>
       </c>
       <c r="T480" t="inlineStr"/>
+      <c r="U480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -41562,6 +43138,7 @@
         </is>
       </c>
       <c r="T481" t="inlineStr"/>
+      <c r="U481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -41646,6 +43223,7 @@
         </is>
       </c>
       <c r="T482" t="inlineStr"/>
+      <c r="U482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -41714,6 +43292,7 @@
         </is>
       </c>
       <c r="T483" t="inlineStr"/>
+      <c r="U483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -41798,6 +43377,7 @@
         </is>
       </c>
       <c r="T484" t="inlineStr"/>
+      <c r="U484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -41882,6 +43462,7 @@
         </is>
       </c>
       <c r="T485" t="inlineStr"/>
+      <c r="U485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -41966,6 +43547,7 @@
         </is>
       </c>
       <c r="T486" t="inlineStr"/>
+      <c r="U486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -42042,6 +43624,7 @@
         </is>
       </c>
       <c r="T487" t="inlineStr"/>
+      <c r="U487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -42118,6 +43701,7 @@
         </is>
       </c>
       <c r="T488" t="inlineStr"/>
+      <c r="U488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -42206,6 +43790,7 @@
         </is>
       </c>
       <c r="T489" t="inlineStr"/>
+      <c r="U489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -42286,6 +43871,7 @@
         </is>
       </c>
       <c r="T490" t="inlineStr"/>
+      <c r="U490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -42362,6 +43948,7 @@
         </is>
       </c>
       <c r="T491" t="inlineStr"/>
+      <c r="U491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -42442,6 +44029,7 @@
         </is>
       </c>
       <c r="T492" t="inlineStr"/>
+      <c r="U492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -42522,6 +44110,7 @@
         </is>
       </c>
       <c r="T493" t="inlineStr"/>
+      <c r="U493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -42598,6 +44187,7 @@
         </is>
       </c>
       <c r="T494" t="inlineStr"/>
+      <c r="U494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -42690,6 +44280,7 @@
         </is>
       </c>
       <c r="T495" t="inlineStr"/>
+      <c r="U495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -42778,6 +44369,7 @@
         </is>
       </c>
       <c r="T496" t="inlineStr"/>
+      <c r="U496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -42858,6 +44450,7 @@
         </is>
       </c>
       <c r="T497" t="inlineStr"/>
+      <c r="U497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -42934,6 +44527,7 @@
         </is>
       </c>
       <c r="T498" t="inlineStr"/>
+      <c r="U498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -43014,6 +44608,7 @@
         </is>
       </c>
       <c r="T499" t="inlineStr"/>
+      <c r="U499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -43102,6 +44697,7 @@
         </is>
       </c>
       <c r="T500" t="inlineStr"/>
+      <c r="U500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -43186,6 +44782,7 @@
         </is>
       </c>
       <c r="T501" t="inlineStr"/>
+      <c r="U501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -43266,6 +44863,7 @@
         </is>
       </c>
       <c r="T502" t="inlineStr"/>
+      <c r="U502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -43338,6 +44936,7 @@
         </is>
       </c>
       <c r="T503" t="inlineStr"/>
+      <c r="U503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -43422,6 +45021,7 @@
         </is>
       </c>
       <c r="T504" t="inlineStr"/>
+      <c r="U504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -43498,6 +45098,7 @@
         </is>
       </c>
       <c r="T505" t="inlineStr"/>
+      <c r="U505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -43574,6 +45175,7 @@
         </is>
       </c>
       <c r="T506" t="inlineStr"/>
+      <c r="U506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -43666,6 +45268,7 @@
         </is>
       </c>
       <c r="T507" t="inlineStr"/>
+      <c r="U507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -43754,6 +45357,7 @@
         </is>
       </c>
       <c r="T508" t="inlineStr"/>
+      <c r="U508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -43838,6 +45442,7 @@
         </is>
       </c>
       <c r="T509" t="inlineStr"/>
+      <c r="U509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -43922,6 +45527,7 @@
         </is>
       </c>
       <c r="T510" t="inlineStr"/>
+      <c r="U510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -43998,6 +45604,7 @@
         </is>
       </c>
       <c r="T511" t="inlineStr"/>
+      <c r="U511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -44078,6 +45685,7 @@
         </is>
       </c>
       <c r="T512" t="inlineStr"/>
+      <c r="U512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -44158,6 +45766,7 @@
         </is>
       </c>
       <c r="T513" t="inlineStr"/>
+      <c r="U513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -44242,6 +45851,7 @@
         </is>
       </c>
       <c r="T514" t="inlineStr"/>
+      <c r="U514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -44322,6 +45932,7 @@
         </is>
       </c>
       <c r="T515" t="inlineStr"/>
+      <c r="U515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -44406,6 +46017,7 @@
         </is>
       </c>
       <c r="T516" t="inlineStr"/>
+      <c r="U516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -44478,6 +46090,7 @@
         </is>
       </c>
       <c r="T517" t="inlineStr"/>
+      <c r="U517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -44558,6 +46171,7 @@
         </is>
       </c>
       <c r="T518" t="inlineStr"/>
+      <c r="U518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -44646,6 +46260,7 @@
         </is>
       </c>
       <c r="T519" t="inlineStr"/>
+      <c r="U519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -44726,6 +46341,7 @@
         </is>
       </c>
       <c r="T520" t="inlineStr"/>
+      <c r="U520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -44814,6 +46430,7 @@
         </is>
       </c>
       <c r="T521" t="inlineStr"/>
+      <c r="U521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -44894,6 +46511,7 @@
         </is>
       </c>
       <c r="T522" t="inlineStr"/>
+      <c r="U522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -44970,6 +46588,7 @@
         </is>
       </c>
       <c r="T523" t="inlineStr"/>
+      <c r="U523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -45050,6 +46669,7 @@
         </is>
       </c>
       <c r="T524" t="inlineStr"/>
+      <c r="U524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -45130,6 +46750,7 @@
         </is>
       </c>
       <c r="T525" t="inlineStr"/>
+      <c r="U525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -45218,6 +46839,7 @@
         </is>
       </c>
       <c r="T526" t="inlineStr"/>
+      <c r="U526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -45298,6 +46920,7 @@
         </is>
       </c>
       <c r="T527" t="inlineStr"/>
+      <c r="U527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -45374,6 +46997,7 @@
         </is>
       </c>
       <c r="T528" t="inlineStr"/>
+      <c r="U528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -45450,6 +47074,7 @@
         </is>
       </c>
       <c r="T529" t="inlineStr"/>
+      <c r="U529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -45534,6 +47159,7 @@
         </is>
       </c>
       <c r="T530" t="inlineStr"/>
+      <c r="U530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -45606,6 +47232,7 @@
         </is>
       </c>
       <c r="T531" t="inlineStr"/>
+      <c r="U531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -45682,6 +47309,7 @@
         </is>
       </c>
       <c r="T532" t="inlineStr"/>
+      <c r="U532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -45762,6 +47390,7 @@
         </is>
       </c>
       <c r="T533" t="inlineStr"/>
+      <c r="U533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -45846,6 +47475,7 @@
         </is>
       </c>
       <c r="T534" t="inlineStr"/>
+      <c r="U534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -45930,6 +47560,7 @@
         </is>
       </c>
       <c r="T535" t="inlineStr"/>
+      <c r="U535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -46014,6 +47645,7 @@
         </is>
       </c>
       <c r="T536" t="inlineStr"/>
+      <c r="U536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -46094,6 +47726,7 @@
         </is>
       </c>
       <c r="T537" t="inlineStr"/>
+      <c r="U537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -46174,6 +47807,7 @@
         </is>
       </c>
       <c r="T538" t="inlineStr"/>
+      <c r="U538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -46254,6 +47888,7 @@
         </is>
       </c>
       <c r="T539" t="inlineStr"/>
+      <c r="U539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -46334,6 +47969,7 @@
         </is>
       </c>
       <c r="T540" t="inlineStr"/>
+      <c r="U540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -46418,6 +48054,7 @@
         </is>
       </c>
       <c r="T541" t="inlineStr"/>
+      <c r="U541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -46482,6 +48119,7 @@
         </is>
       </c>
       <c r="T542" t="inlineStr"/>
+      <c r="U542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -46566,6 +48204,7 @@
         </is>
       </c>
       <c r="T543" t="inlineStr"/>
+      <c r="U543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -46646,6 +48285,7 @@
         </is>
       </c>
       <c r="T544" t="inlineStr"/>
+      <c r="U544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -46726,6 +48366,7 @@
         </is>
       </c>
       <c r="T545" t="inlineStr"/>
+      <c r="U545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -46814,6 +48455,7 @@
         </is>
       </c>
       <c r="T546" t="inlineStr"/>
+      <c r="U546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -46902,6 +48544,7 @@
         </is>
       </c>
       <c r="T547" t="inlineStr"/>
+      <c r="U547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -46978,6 +48621,7 @@
         </is>
       </c>
       <c r="T548" t="inlineStr"/>
+      <c r="U548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -47050,6 +48694,7 @@
         </is>
       </c>
       <c r="T549" t="inlineStr"/>
+      <c r="U549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -47086,6 +48731,7 @@
       <c r="R550" t="inlineStr"/>
       <c r="S550" t="inlineStr"/>
       <c r="T550" t="inlineStr"/>
+      <c r="U550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -47122,6 +48768,7 @@
       <c r="R551" t="inlineStr"/>
       <c r="S551" t="inlineStr"/>
       <c r="T551" t="inlineStr"/>
+      <c r="U551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -47158,6 +48805,7 @@
       <c r="R552" t="inlineStr"/>
       <c r="S552" t="inlineStr"/>
       <c r="T552" t="inlineStr"/>
+      <c r="U552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -47194,6 +48842,7 @@
       <c r="R553" t="inlineStr"/>
       <c r="S553" t="inlineStr"/>
       <c r="T553" t="inlineStr"/>
+      <c r="U553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -47278,6 +48927,7 @@
         </is>
       </c>
       <c r="T554" t="inlineStr"/>
+      <c r="U554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -47362,6 +49012,7 @@
         </is>
       </c>
       <c r="T555" t="inlineStr"/>
+      <c r="U555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -47434,6 +49085,7 @@
         </is>
       </c>
       <c r="T556" t="inlineStr"/>
+      <c r="U556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -47522,6 +49174,7 @@
         </is>
       </c>
       <c r="T557" t="inlineStr"/>
+      <c r="U557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -47602,6 +49255,7 @@
         </is>
       </c>
       <c r="T558" t="inlineStr"/>
+      <c r="U558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -47686,6 +49340,7 @@
         </is>
       </c>
       <c r="T559" t="inlineStr"/>
+      <c r="U559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -47770,6 +49425,7 @@
         </is>
       </c>
       <c r="T560" t="inlineStr"/>
+      <c r="U560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -47850,6 +49506,7 @@
         </is>
       </c>
       <c r="T561" t="inlineStr"/>
+      <c r="U561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -47926,6 +49583,7 @@
         </is>
       </c>
       <c r="T562" t="inlineStr"/>
+      <c r="U562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -48010,6 +49668,7 @@
         </is>
       </c>
       <c r="T563" t="inlineStr"/>
+      <c r="U563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -48086,6 +49745,7 @@
         </is>
       </c>
       <c r="T564" t="inlineStr"/>
+      <c r="U564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -48166,6 +49826,7 @@
         </is>
       </c>
       <c r="T565" t="inlineStr"/>
+      <c r="U565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -48254,6 +49915,7 @@
         </is>
       </c>
       <c r="T566" t="inlineStr"/>
+      <c r="U566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -48334,6 +49996,7 @@
         </is>
       </c>
       <c r="T567" t="inlineStr"/>
+      <c r="U567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -48370,6 +50033,7 @@
       <c r="R568" t="inlineStr"/>
       <c r="S568" t="inlineStr"/>
       <c r="T568" t="inlineStr"/>
+      <c r="U568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -48406,6 +50070,7 @@
       <c r="R569" t="inlineStr"/>
       <c r="S569" t="inlineStr"/>
       <c r="T569" t="inlineStr"/>
+      <c r="U569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -48442,6 +50107,7 @@
       <c r="R570" t="inlineStr"/>
       <c r="S570" t="inlineStr"/>
       <c r="T570" t="inlineStr"/>
+      <c r="U570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -48478,6 +50144,7 @@
       <c r="R571" t="inlineStr"/>
       <c r="S571" t="inlineStr"/>
       <c r="T571" t="inlineStr"/>
+      <c r="U571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -48562,6 +50229,7 @@
         </is>
       </c>
       <c r="T572" t="inlineStr"/>
+      <c r="U572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -48650,6 +50318,7 @@
         </is>
       </c>
       <c r="T573" t="inlineStr"/>
+      <c r="U573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -48730,6 +50399,7 @@
         </is>
       </c>
       <c r="T574" t="inlineStr"/>
+      <c r="U574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -48818,6 +50488,7 @@
         </is>
       </c>
       <c r="T575" t="inlineStr"/>
+      <c r="U575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -48894,6 +50565,7 @@
         </is>
       </c>
       <c r="T576" t="inlineStr"/>
+      <c r="U576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -48978,6 +50650,7 @@
         </is>
       </c>
       <c r="T577" t="inlineStr"/>
+      <c r="U577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -49062,6 +50735,7 @@
         </is>
       </c>
       <c r="T578" t="inlineStr"/>
+      <c r="U578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -49150,6 +50824,7 @@
         </is>
       </c>
       <c r="T579" t="inlineStr"/>
+      <c r="U579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -49230,6 +50905,7 @@
         </is>
       </c>
       <c r="T580" t="inlineStr"/>
+      <c r="U580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -49306,6 +50982,7 @@
         </is>
       </c>
       <c r="T581" t="inlineStr"/>
+      <c r="U581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -49378,6 +51055,7 @@
         </is>
       </c>
       <c r="T582" t="inlineStr"/>
+      <c r="U582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -49470,6 +51148,7 @@
         </is>
       </c>
       <c r="T583" t="inlineStr"/>
+      <c r="U583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -49542,6 +51221,7 @@
         </is>
       </c>
       <c r="T584" t="inlineStr"/>
+      <c r="U584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -49622,6 +51302,7 @@
         </is>
       </c>
       <c r="T585" t="inlineStr"/>
+      <c r="U585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -49698,6 +51379,7 @@
         </is>
       </c>
       <c r="T586" t="inlineStr"/>
+      <c r="U586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -49778,6 +51460,7 @@
         </is>
       </c>
       <c r="T587" t="inlineStr"/>
+      <c r="U587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -49866,6 +51549,7 @@
         </is>
       </c>
       <c r="T588" t="inlineStr"/>
+      <c r="U588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -49950,6 +51634,7 @@
         </is>
       </c>
       <c r="T589" t="inlineStr"/>
+      <c r="U589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -50030,6 +51715,7 @@
         </is>
       </c>
       <c r="T590" t="inlineStr"/>
+      <c r="U590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -50110,6 +51796,7 @@
         </is>
       </c>
       <c r="T591" t="inlineStr"/>
+      <c r="U591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -50198,6 +51885,7 @@
         </is>
       </c>
       <c r="T592" t="inlineStr"/>
+      <c r="U592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -50278,6 +51966,7 @@
         </is>
       </c>
       <c r="T593" t="inlineStr"/>
+      <c r="U593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -50358,6 +52047,7 @@
         </is>
       </c>
       <c r="T594" t="inlineStr"/>
+      <c r="U594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -50394,6 +52084,7 @@
       <c r="R595" t="inlineStr"/>
       <c r="S595" t="inlineStr"/>
       <c r="T595" t="inlineStr"/>
+      <c r="U595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -50430,6 +52121,7 @@
       <c r="R596" t="inlineStr"/>
       <c r="S596" t="inlineStr"/>
       <c r="T596" t="inlineStr"/>
+      <c r="U596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -50466,6 +52158,7 @@
       <c r="R597" t="inlineStr"/>
       <c r="S597" t="inlineStr"/>
       <c r="T597" t="inlineStr"/>
+      <c r="U597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -50502,6 +52195,7 @@
       <c r="R598" t="inlineStr"/>
       <c r="S598" t="inlineStr"/>
       <c r="T598" t="inlineStr"/>
+      <c r="U598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -50578,6 +52272,7 @@
         </is>
       </c>
       <c r="T599" t="inlineStr"/>
+      <c r="U599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -50650,6 +52345,7 @@
         </is>
       </c>
       <c r="T600" t="inlineStr"/>
+      <c r="U600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -50726,6 +52422,7 @@
         </is>
       </c>
       <c r="T601" t="inlineStr"/>
+      <c r="U601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -50814,6 +52511,7 @@
         </is>
       </c>
       <c r="T602" t="inlineStr"/>
+      <c r="U602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -50898,6 +52596,7 @@
         </is>
       </c>
       <c r="T603" t="inlineStr"/>
+      <c r="U603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -50982,6 +52681,7 @@
         </is>
       </c>
       <c r="T604" t="inlineStr"/>
+      <c r="U604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -51058,6 +52758,7 @@
         </is>
       </c>
       <c r="T605" t="inlineStr"/>
+      <c r="U605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -51150,6 +52851,7 @@
         </is>
       </c>
       <c r="T606" t="inlineStr"/>
+      <c r="U606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -51230,6 +52932,7 @@
         </is>
       </c>
       <c r="T607" t="inlineStr"/>
+      <c r="U607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -51322,6 +53025,7 @@
         </is>
       </c>
       <c r="T608" t="inlineStr"/>
+      <c r="U608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -51398,6 +53102,7 @@
         </is>
       </c>
       <c r="T609" t="inlineStr"/>
+      <c r="U609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -51474,6 +53179,7 @@
         </is>
       </c>
       <c r="T610" t="inlineStr"/>
+      <c r="U610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -51566,6 +53272,7 @@
         </is>
       </c>
       <c r="T611" t="inlineStr"/>
+      <c r="U611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -51646,6 +53353,7 @@
         </is>
       </c>
       <c r="T612" t="inlineStr"/>
+      <c r="U612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -51730,6 +53438,7 @@
         </is>
       </c>
       <c r="T613" t="inlineStr"/>
+      <c r="U613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -51806,6 +53515,7 @@
         </is>
       </c>
       <c r="T614" t="inlineStr"/>
+      <c r="U614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -51886,6 +53596,7 @@
         </is>
       </c>
       <c r="T615" t="inlineStr"/>
+      <c r="U615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -51966,6 +53677,7 @@
         </is>
       </c>
       <c r="T616" t="inlineStr"/>
+      <c r="U616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -52038,6 +53750,7 @@
         </is>
       </c>
       <c r="T617" t="inlineStr"/>
+      <c r="U617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -52114,6 +53827,7 @@
         </is>
       </c>
       <c r="T618" t="inlineStr"/>
+      <c r="U618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -52194,6 +53908,7 @@
         </is>
       </c>
       <c r="T619" t="inlineStr"/>
+      <c r="U619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -52274,6 +53989,7 @@
         </is>
       </c>
       <c r="T620" t="inlineStr"/>
+      <c r="U620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -52350,6 +54066,7 @@
         </is>
       </c>
       <c r="T621" t="inlineStr"/>
+      <c r="U621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -52438,6 +54155,7 @@
         </is>
       </c>
       <c r="T622" t="inlineStr"/>
+      <c r="U622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -52510,6 +54228,7 @@
         </is>
       </c>
       <c r="T623" t="inlineStr"/>
+      <c r="U623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -52594,6 +54313,7 @@
         </is>
       </c>
       <c r="T624" t="inlineStr"/>
+      <c r="U624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -52674,6 +54394,7 @@
         </is>
       </c>
       <c r="T625" t="inlineStr"/>
+      <c r="U625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -52758,6 +54479,7 @@
         </is>
       </c>
       <c r="T626" t="inlineStr"/>
+      <c r="U626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -52842,6 +54564,7 @@
         </is>
       </c>
       <c r="T627" t="inlineStr"/>
+      <c r="U627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -52926,6 +54649,7 @@
         </is>
       </c>
       <c r="T628" t="inlineStr"/>
+      <c r="U628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -52998,6 +54722,7 @@
         </is>
       </c>
       <c r="T629" t="inlineStr"/>
+      <c r="U629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -53078,6 +54803,7 @@
         </is>
       </c>
       <c r="T630" t="inlineStr"/>
+      <c r="U630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -53150,6 +54876,7 @@
         </is>
       </c>
       <c r="T631" t="inlineStr"/>
+      <c r="U631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -53230,6 +54957,7 @@
         </is>
       </c>
       <c r="T632" t="inlineStr"/>
+      <c r="U632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -53322,6 +55050,7 @@
         </is>
       </c>
       <c r="T633" t="inlineStr"/>
+      <c r="U633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -53402,6 +55131,7 @@
         </is>
       </c>
       <c r="T634" t="inlineStr"/>
+      <c r="U634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -53482,6 +55212,7 @@
         </is>
       </c>
       <c r="T635" t="inlineStr"/>
+      <c r="U635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -53570,6 +55301,7 @@
         </is>
       </c>
       <c r="T636" t="inlineStr"/>
+      <c r="U636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -53646,6 +55378,7 @@
         </is>
       </c>
       <c r="T637" t="inlineStr"/>
+      <c r="U637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -53738,6 +55471,7 @@
         </is>
       </c>
       <c r="T638" t="inlineStr"/>
+      <c r="U638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -53818,6 +55552,7 @@
         </is>
       </c>
       <c r="T639" t="inlineStr"/>
+      <c r="U639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -53894,6 +55629,7 @@
         </is>
       </c>
       <c r="T640" t="inlineStr"/>
+      <c r="U640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -53978,6 +55714,7 @@
         </is>
       </c>
       <c r="T641" t="inlineStr"/>
+      <c r="U641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -54050,6 +55787,7 @@
         </is>
       </c>
       <c r="T642" t="inlineStr"/>
+      <c r="U642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -54134,6 +55872,7 @@
         </is>
       </c>
       <c r="T643" t="inlineStr"/>
+      <c r="U643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -54210,6 +55949,7 @@
         </is>
       </c>
       <c r="T644" t="inlineStr"/>
+      <c r="U644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -54290,6 +56030,7 @@
         </is>
       </c>
       <c r="T645" t="inlineStr"/>
+      <c r="U645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -54370,6 +56111,7 @@
         </is>
       </c>
       <c r="T646" t="inlineStr"/>
+      <c r="U646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -54458,6 +56200,7 @@
         </is>
       </c>
       <c r="T647" t="inlineStr"/>
+      <c r="U647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -54534,6 +56277,7 @@
         </is>
       </c>
       <c r="T648" t="inlineStr"/>
+      <c r="U648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -54618,6 +56362,7 @@
         </is>
       </c>
       <c r="T649" t="inlineStr"/>
+      <c r="U649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -54690,6 +56435,7 @@
         </is>
       </c>
       <c r="T650" t="inlineStr"/>
+      <c r="U650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -54778,6 +56524,7 @@
         </is>
       </c>
       <c r="T651" t="inlineStr"/>
+      <c r="U651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -54862,6 +56609,7 @@
         </is>
       </c>
       <c r="T652" t="inlineStr"/>
+      <c r="U652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -54938,6 +56686,7 @@
         </is>
       </c>
       <c r="T653" t="inlineStr"/>
+      <c r="U653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -55018,6 +56767,7 @@
         </is>
       </c>
       <c r="T654" t="inlineStr"/>
+      <c r="U654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -55098,6 +56848,7 @@
         </is>
       </c>
       <c r="T655" t="inlineStr"/>
+      <c r="U655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -55174,6 +56925,7 @@
         </is>
       </c>
       <c r="T656" t="inlineStr"/>
+      <c r="U656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -55258,6 +57010,7 @@
         </is>
       </c>
       <c r="T657" t="inlineStr"/>
+      <c r="U657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -55338,6 +57091,7 @@
         </is>
       </c>
       <c r="T658" t="inlineStr"/>
+      <c r="U658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -55426,6 +57180,7 @@
         </is>
       </c>
       <c r="T659" t="inlineStr"/>
+      <c r="U659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -55510,6 +57265,7 @@
         </is>
       </c>
       <c r="T660" t="inlineStr"/>
+      <c r="U660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -55590,6 +57346,7 @@
         </is>
       </c>
       <c r="T661" t="inlineStr"/>
+      <c r="U661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -55666,6 +57423,7 @@
         </is>
       </c>
       <c r="T662" t="inlineStr"/>
+      <c r="U662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -55750,6 +57508,7 @@
         </is>
       </c>
       <c r="T663" t="inlineStr"/>
+      <c r="U663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -55830,6 +57589,7 @@
         </is>
       </c>
       <c r="T664" t="inlineStr"/>
+      <c r="U664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -55918,6 +57678,7 @@
         </is>
       </c>
       <c r="T665" t="inlineStr"/>
+      <c r="U665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -55994,6 +57755,7 @@
         </is>
       </c>
       <c r="T666" t="inlineStr"/>
+      <c r="U666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -56070,6 +57832,7 @@
         </is>
       </c>
       <c r="T667" t="inlineStr"/>
+      <c r="U667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -56154,6 +57917,7 @@
         </is>
       </c>
       <c r="T668" t="inlineStr"/>
+      <c r="U668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -56234,6 +57998,7 @@
         </is>
       </c>
       <c r="T669" t="inlineStr"/>
+      <c r="U669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -56310,6 +58075,7 @@
         </is>
       </c>
       <c r="T670" t="inlineStr"/>
+      <c r="U670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -56390,6 +58156,7 @@
         </is>
       </c>
       <c r="T671" t="inlineStr"/>
+      <c r="U671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -56470,6 +58237,7 @@
         </is>
       </c>
       <c r="T672" t="inlineStr"/>
+      <c r="U672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -56558,6 +58326,7 @@
         </is>
       </c>
       <c r="T673" t="inlineStr"/>
+      <c r="U673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -56650,6 +58419,7 @@
         </is>
       </c>
       <c r="T674" t="inlineStr"/>
+      <c r="U674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -56718,6 +58488,7 @@
         </is>
       </c>
       <c r="T675" t="inlineStr"/>
+      <c r="U675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -56802,6 +58573,7 @@
         </is>
       </c>
       <c r="T676" t="inlineStr"/>
+      <c r="U676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -56886,6 +58658,7 @@
         </is>
       </c>
       <c r="T677" t="inlineStr"/>
+      <c r="U677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -56966,6 +58739,7 @@
         </is>
       </c>
       <c r="T678" t="inlineStr"/>
+      <c r="U678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -57046,6 +58820,7 @@
         </is>
       </c>
       <c r="T679" t="inlineStr"/>
+      <c r="U679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -57126,6 +58901,7 @@
         </is>
       </c>
       <c r="T680" t="inlineStr"/>
+      <c r="U680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -57206,6 +58982,7 @@
         </is>
       </c>
       <c r="T681" t="inlineStr"/>
+      <c r="U681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -57286,6 +59063,7 @@
         </is>
       </c>
       <c r="T682" t="inlineStr"/>
+      <c r="U682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -57370,6 +59148,7 @@
         </is>
       </c>
       <c r="T683" t="inlineStr"/>
+      <c r="U683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -57454,6 +59233,7 @@
         </is>
       </c>
       <c r="T684" t="inlineStr"/>
+      <c r="U684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -57526,6 +59306,7 @@
         </is>
       </c>
       <c r="T685" t="inlineStr"/>
+      <c r="U685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -57606,6 +59387,7 @@
         </is>
       </c>
       <c r="T686" t="inlineStr"/>
+      <c r="U686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -57686,6 +59468,7 @@
         </is>
       </c>
       <c r="T687" t="inlineStr"/>
+      <c r="U687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -57778,6 +59561,7 @@
         </is>
       </c>
       <c r="T688" t="inlineStr"/>
+      <c r="U688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -57854,6 +59638,7 @@
         </is>
       </c>
       <c r="T689" t="inlineStr"/>
+      <c r="U689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -57938,6 +59723,7 @@
         </is>
       </c>
       <c r="T690" t="inlineStr"/>
+      <c r="U690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -58026,6 +59812,7 @@
         </is>
       </c>
       <c r="T691" t="inlineStr"/>
+      <c r="U691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -58106,6 +59893,7 @@
         </is>
       </c>
       <c r="T692" t="inlineStr"/>
+      <c r="U692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -58190,6 +59978,7 @@
         </is>
       </c>
       <c r="T693" t="inlineStr"/>
+      <c r="U693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -58274,6 +60063,7 @@
         </is>
       </c>
       <c r="T694" t="inlineStr"/>
+      <c r="U694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -58354,6 +60144,7 @@
         </is>
       </c>
       <c r="T695" t="inlineStr"/>
+      <c r="U695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -58434,6 +60225,7 @@
         </is>
       </c>
       <c r="T696" t="inlineStr"/>
+      <c r="U696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -58514,6 +60306,7 @@
         </is>
       </c>
       <c r="T697" t="inlineStr"/>
+      <c r="U697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -58594,6 +60387,7 @@
         </is>
       </c>
       <c r="T698" t="inlineStr"/>
+      <c r="U698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -58670,6 +60464,7 @@
         </is>
       </c>
       <c r="T699" t="inlineStr"/>
+      <c r="U699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -58758,6 +60553,7 @@
         </is>
       </c>
       <c r="T700" t="inlineStr"/>
+      <c r="U700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -58842,6 +60638,7 @@
         </is>
       </c>
       <c r="T701" t="inlineStr"/>
+      <c r="U701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -58930,6 +60727,7 @@
         </is>
       </c>
       <c r="T702" t="inlineStr"/>
+      <c r="U702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -59010,6 +60808,7 @@
         </is>
       </c>
       <c r="T703" t="inlineStr"/>
+      <c r="U703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -59090,6 +60889,7 @@
         </is>
       </c>
       <c r="T704" t="inlineStr"/>
+      <c r="U704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -59178,6 +60978,7 @@
         </is>
       </c>
       <c r="T705" t="inlineStr"/>
+      <c r="U705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -59254,6 +61055,7 @@
         </is>
       </c>
       <c r="T706" t="inlineStr"/>
+      <c r="U706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -59330,6 +61132,7 @@
         </is>
       </c>
       <c r="T707" t="inlineStr"/>
+      <c r="U707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -59414,6 +61217,7 @@
         </is>
       </c>
       <c r="T708" t="inlineStr"/>
+      <c r="U708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -59494,6 +61298,7 @@
         </is>
       </c>
       <c r="T709" t="inlineStr"/>
+      <c r="U709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -59570,6 +61375,7 @@
         </is>
       </c>
       <c r="T710" t="inlineStr"/>
+      <c r="U710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -59650,6 +61456,7 @@
         </is>
       </c>
       <c r="T711" t="inlineStr"/>
+      <c r="U711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -59734,6 +61541,7 @@
         </is>
       </c>
       <c r="T712" t="inlineStr"/>
+      <c r="U712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -59806,6 +61614,7 @@
         </is>
       </c>
       <c r="T713" t="inlineStr"/>
+      <c r="U713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -59894,6 +61703,7 @@
         </is>
       </c>
       <c r="T714" t="inlineStr"/>
+      <c r="U714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -59974,6 +61784,7 @@
         </is>
       </c>
       <c r="T715" t="inlineStr"/>
+      <c r="U715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -60062,6 +61873,7 @@
         </is>
       </c>
       <c r="T716" t="inlineStr"/>
+      <c r="U716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -60150,6 +61962,7 @@
         </is>
       </c>
       <c r="T717" t="inlineStr"/>
+      <c r="U717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -60238,6 +62051,7 @@
         </is>
       </c>
       <c r="T718" t="inlineStr"/>
+      <c r="U718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -60322,6 +62136,7 @@
         </is>
       </c>
       <c r="T719" t="inlineStr"/>
+      <c r="U719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -60394,6 +62209,7 @@
         </is>
       </c>
       <c r="T720" t="inlineStr"/>
+      <c r="U720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -60474,6 +62290,7 @@
         </is>
       </c>
       <c r="T721" t="inlineStr"/>
+      <c r="U721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -60558,6 +62375,7 @@
         </is>
       </c>
       <c r="T722" t="inlineStr"/>
+      <c r="U722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -60634,6 +62452,7 @@
         </is>
       </c>
       <c r="T723" t="inlineStr"/>
+      <c r="U723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -60714,6 +62533,7 @@
         </is>
       </c>
       <c r="T724" t="inlineStr"/>
+      <c r="U724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -60794,6 +62614,7 @@
         </is>
       </c>
       <c r="T725" t="inlineStr"/>
+      <c r="U725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -60878,6 +62699,7 @@
         </is>
       </c>
       <c r="T726" t="inlineStr"/>
+      <c r="U726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -60954,6 +62776,7 @@
         </is>
       </c>
       <c r="T727" t="inlineStr"/>
+      <c r="U727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -61038,6 +62861,7 @@
         </is>
       </c>
       <c r="T728" t="inlineStr"/>
+      <c r="U728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -61110,6 +62934,7 @@
         </is>
       </c>
       <c r="T729" t="inlineStr"/>
+      <c r="U729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -61190,6 +63015,7 @@
         </is>
       </c>
       <c r="T730" t="inlineStr"/>
+      <c r="U730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -61274,6 +63100,7 @@
         </is>
       </c>
       <c r="T731" t="inlineStr"/>
+      <c r="U731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -61350,6 +63177,7 @@
         </is>
       </c>
       <c r="T732" t="inlineStr"/>
+      <c r="U732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -61426,6 +63254,7 @@
         </is>
       </c>
       <c r="T733" t="inlineStr"/>
+      <c r="U733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -61510,6 +63339,7 @@
         </is>
       </c>
       <c r="T734" t="inlineStr"/>
+      <c r="U734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -61586,6 +63416,7 @@
         </is>
       </c>
       <c r="T735" t="inlineStr"/>
+      <c r="U735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -61670,6 +63501,7 @@
         </is>
       </c>
       <c r="T736" t="inlineStr"/>
+      <c r="U736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -61746,6 +63578,7 @@
         </is>
       </c>
       <c r="T737" t="inlineStr"/>
+      <c r="U737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -61826,6 +63659,7 @@
         </is>
       </c>
       <c r="T738" t="inlineStr"/>
+      <c r="U738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -61906,6 +63740,7 @@
         </is>
       </c>
       <c r="T739" t="inlineStr"/>
+      <c r="U739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -61990,6 +63825,7 @@
         </is>
       </c>
       <c r="T740" t="inlineStr"/>
+      <c r="U740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -62070,6 +63906,7 @@
         </is>
       </c>
       <c r="T741" t="inlineStr"/>
+      <c r="U741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -62150,6 +63987,7 @@
         </is>
       </c>
       <c r="T742" t="inlineStr"/>
+      <c r="U742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -62234,6 +64072,7 @@
         </is>
       </c>
       <c r="T743" t="inlineStr"/>
+      <c r="U743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -62314,6 +64153,7 @@
         </is>
       </c>
       <c r="T744" t="inlineStr"/>
+      <c r="U744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -62390,6 +64230,7 @@
         </is>
       </c>
       <c r="T745" t="inlineStr"/>
+      <c r="U745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -62474,6 +64315,7 @@
         </is>
       </c>
       <c r="T746" t="inlineStr"/>
+      <c r="U746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -62546,6 +64388,7 @@
         </is>
       </c>
       <c r="T747" t="inlineStr"/>
+      <c r="U747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -62622,6 +64465,7 @@
         </is>
       </c>
       <c r="T748" t="inlineStr"/>
+      <c r="U748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -62710,6 +64554,7 @@
         </is>
       </c>
       <c r="T749" t="inlineStr"/>
+      <c r="U749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -62790,6 +64635,7 @@
         </is>
       </c>
       <c r="T750" t="inlineStr"/>
+      <c r="U750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -62866,6 +64712,7 @@
         </is>
       </c>
       <c r="T751" t="inlineStr"/>
+      <c r="U751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -62954,6 +64801,7 @@
         </is>
       </c>
       <c r="T752" t="inlineStr"/>
+      <c r="U752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -63042,6 +64890,7 @@
         </is>
       </c>
       <c r="T753" t="inlineStr"/>
+      <c r="U753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -63126,6 +64975,7 @@
         </is>
       </c>
       <c r="T754" t="inlineStr"/>
+      <c r="U754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -63202,6 +65052,7 @@
         </is>
       </c>
       <c r="T755" t="inlineStr"/>
+      <c r="U755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -63282,6 +65133,7 @@
         </is>
       </c>
       <c r="T756" t="inlineStr"/>
+      <c r="U756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -63366,6 +65218,7 @@
         </is>
       </c>
       <c r="T757" t="inlineStr"/>
+      <c r="U757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -63446,6 +65299,7 @@
         </is>
       </c>
       <c r="T758" t="inlineStr"/>
+      <c r="U758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -63518,6 +65372,7 @@
         </is>
       </c>
       <c r="T759" t="inlineStr"/>
+      <c r="U759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -63598,6 +65453,7 @@
         </is>
       </c>
       <c r="T760" t="inlineStr"/>
+      <c r="U760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -63682,6 +65538,7 @@
         </is>
       </c>
       <c r="T761" t="inlineStr"/>
+      <c r="U761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -63762,6 +65619,7 @@
         </is>
       </c>
       <c r="T762" t="inlineStr"/>
+      <c r="U762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -63846,6 +65704,7 @@
         </is>
       </c>
       <c r="T763" t="inlineStr"/>
+      <c r="U763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -63934,6 +65793,7 @@
         </is>
       </c>
       <c r="T764" t="inlineStr"/>
+      <c r="U764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -64022,6 +65882,7 @@
         </is>
       </c>
       <c r="T765" t="inlineStr"/>
+      <c r="U765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -64102,6 +65963,7 @@
         </is>
       </c>
       <c r="T766" t="inlineStr"/>
+      <c r="U766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -64186,6 +66048,7 @@
         </is>
       </c>
       <c r="T767" t="inlineStr"/>
+      <c r="U767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -64258,6 +66121,7 @@
         </is>
       </c>
       <c r="T768" t="inlineStr"/>
+      <c r="U768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -64334,6 +66198,7 @@
         </is>
       </c>
       <c r="T769" t="inlineStr"/>
+      <c r="U769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -64414,6 +66279,7 @@
         </is>
       </c>
       <c r="T770" t="inlineStr"/>
+      <c r="U770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -64490,6 +66356,7 @@
         </is>
       </c>
       <c r="T771" t="inlineStr"/>
+      <c r="U771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -64578,6 +66445,7 @@
         </is>
       </c>
       <c r="T772" t="inlineStr"/>
+      <c r="U772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -64654,6 +66522,7 @@
         </is>
       </c>
       <c r="T773" t="inlineStr"/>
+      <c r="U773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -64742,6 +66611,7 @@
         </is>
       </c>
       <c r="T774" t="inlineStr"/>
+      <c r="U774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -64826,6 +66696,7 @@
         </is>
       </c>
       <c r="T775" t="inlineStr"/>
+      <c r="U775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -64914,6 +66785,7 @@
         </is>
       </c>
       <c r="T776" t="inlineStr"/>
+      <c r="U776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -64994,6 +66866,7 @@
         </is>
       </c>
       <c r="T777" t="inlineStr"/>
+      <c r="U777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -65078,6 +66951,7 @@
         </is>
       </c>
       <c r="T778" t="inlineStr"/>
+      <c r="U778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -65154,6 +67028,7 @@
         </is>
       </c>
       <c r="T779" t="inlineStr"/>
+      <c r="U779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -65230,6 +67105,7 @@
         </is>
       </c>
       <c r="T780" t="inlineStr"/>
+      <c r="U780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -65302,6 +67178,7 @@
         </is>
       </c>
       <c r="T781" t="inlineStr"/>
+      <c r="U781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -65394,6 +67271,7 @@
         </is>
       </c>
       <c r="T782" t="inlineStr"/>
+      <c r="U782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -65470,6 +67348,7 @@
         </is>
       </c>
       <c r="T783" t="inlineStr"/>
+      <c r="U783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -65558,6 +67437,7 @@
         </is>
       </c>
       <c r="T784" t="inlineStr"/>
+      <c r="U784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -65646,6 +67526,7 @@
         </is>
       </c>
       <c r="T785" t="inlineStr"/>
+      <c r="U785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -65722,6 +67603,7 @@
         </is>
       </c>
       <c r="T786" t="inlineStr"/>
+      <c r="U786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -65794,6 +67676,7 @@
         </is>
       </c>
       <c r="T787" t="inlineStr"/>
+      <c r="U787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -65874,6 +67757,7 @@
         </is>
       </c>
       <c r="T788" t="inlineStr"/>
+      <c r="U788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -65950,6 +67834,7 @@
         </is>
       </c>
       <c r="T789" t="inlineStr"/>
+      <c r="U789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -66026,6 +67911,7 @@
         </is>
       </c>
       <c r="T790" t="inlineStr"/>
+      <c r="U790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -66110,6 +67996,7 @@
         </is>
       </c>
       <c r="T791" t="inlineStr"/>
+      <c r="U791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -66194,6 +68081,7 @@
         </is>
       </c>
       <c r="T792" t="inlineStr"/>
+      <c r="U792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -66274,6 +68162,7 @@
         </is>
       </c>
       <c r="T793" t="inlineStr"/>
+      <c r="U793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -66350,6 +68239,7 @@
         </is>
       </c>
       <c r="T794" t="inlineStr"/>
+      <c r="U794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -66426,6 +68316,7 @@
         </is>
       </c>
       <c r="T795" t="inlineStr"/>
+      <c r="U795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -66514,6 +68405,7 @@
         </is>
       </c>
       <c r="T796" t="inlineStr"/>
+      <c r="U796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -66586,6 +68478,7 @@
         </is>
       </c>
       <c r="T797" t="inlineStr"/>
+      <c r="U797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -66674,6 +68567,7 @@
         </is>
       </c>
       <c r="T798" t="inlineStr"/>
+      <c r="U798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -66754,6 +68648,7 @@
         </is>
       </c>
       <c r="T799" t="inlineStr"/>
+      <c r="U799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -66838,6 +68733,7 @@
         </is>
       </c>
       <c r="T800" t="inlineStr"/>
+      <c r="U800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
@@ -66922,6 +68818,7 @@
         </is>
       </c>
       <c r="T801" t="inlineStr"/>
+      <c r="U801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
@@ -66998,6 +68895,7 @@
         </is>
       </c>
       <c r="T802" t="inlineStr"/>
+      <c r="U802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -67086,6 +68984,7 @@
         </is>
       </c>
       <c r="T803" t="inlineStr"/>
+      <c r="U803" t="inlineStr"/>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
@@ -67174,6 +69073,7 @@
         </is>
       </c>
       <c r="T804" t="inlineStr"/>
+      <c r="U804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -67250,6 +69150,7 @@
         </is>
       </c>
       <c r="T805" t="inlineStr"/>
+      <c r="U805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -67334,6 +69235,7 @@
         </is>
       </c>
       <c r="T806" t="inlineStr"/>
+      <c r="U806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
@@ -67418,6 +69320,7 @@
         </is>
       </c>
       <c r="T807" t="inlineStr"/>
+      <c r="U807" t="inlineStr"/>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
@@ -67502,6 +69405,7 @@
         </is>
       </c>
       <c r="T808" t="inlineStr"/>
+      <c r="U808" t="inlineStr"/>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
@@ -67586,6 +69490,7 @@
         </is>
       </c>
       <c r="T809" t="inlineStr"/>
+      <c r="U809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
@@ -67666,6 +69571,7 @@
         </is>
       </c>
       <c r="T810" t="inlineStr"/>
+      <c r="U810" t="inlineStr"/>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
@@ -67750,6 +69656,7 @@
         </is>
       </c>
       <c r="T811" t="inlineStr"/>
+      <c r="U811" t="inlineStr"/>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
@@ -67826,6 +69733,7 @@
         </is>
       </c>
       <c r="T812" t="inlineStr"/>
+      <c r="U812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
@@ -67906,6 +69814,7 @@
         </is>
       </c>
       <c r="T813" t="inlineStr"/>
+      <c r="U813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
@@ -67990,6 +69899,7 @@
         </is>
       </c>
       <c r="T814" t="inlineStr"/>
+      <c r="U814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
@@ -68070,6 +69980,7 @@
         </is>
       </c>
       <c r="T815" t="inlineStr"/>
+      <c r="U815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
@@ -68154,6 +70065,7 @@
         </is>
       </c>
       <c r="T816" t="inlineStr"/>
+      <c r="U816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
@@ -68234,6 +70146,7 @@
         </is>
       </c>
       <c r="T817" t="inlineStr"/>
+      <c r="U817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -68318,6 +70231,7 @@
         </is>
       </c>
       <c r="T818" t="inlineStr"/>
+      <c r="U818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
@@ -68406,6 +70320,7 @@
         </is>
       </c>
       <c r="T819" t="inlineStr"/>
+      <c r="U819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
@@ -68490,6 +70405,7 @@
         </is>
       </c>
       <c r="T820" t="inlineStr"/>
+      <c r="U820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
@@ -68570,6 +70486,7 @@
         </is>
       </c>
       <c r="T821" t="inlineStr"/>
+      <c r="U821" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
